--- a/data/2016 Sales, Manufacturing Workbook.xlsx
+++ b/data/2016 Sales, Manufacturing Workbook.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dieterholger/Desktop/Git/US-Gun-Manufacturing-Interactive/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7BDCB941-2785-7D45-BECC-932E505A908F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8364F3-557F-6942-8117-4C3AB0F00739}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2016 State Manufacturing vs Che" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
+    <sheet name="2016 State Manufacturing vs Che" sheetId="1" r:id="rId2"/>
     <sheet name="Estimated Sales vs Manufacturin" sheetId="2" r:id="rId3"/>
-    <sheet name="By Region" sheetId="3" r:id="rId4"/>
+    <sheet name="Pivot" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="46" r:id="rId5"/>
-    <pivotCache cacheId="65" r:id="rId6"/>
+    <pivotCache cacheId="86" r:id="rId5"/>
+    <pivotCache cacheId="85" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="97">
   <si>
     <t>State</t>
   </si>
@@ -294,16 +294,10 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Sum of Total Estimated Gun Sales</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
     <t>Sum of Total Manufactured</t>
-  </si>
-  <si>
-    <t>(blank) Total</t>
   </si>
   <si>
     <t>Gun Deaths</t>
@@ -323,11 +317,20 @@
   <si>
     <t>Average of Gun Deaths Per 100,000</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Sum of Gun Violence Per 100,000</t>
+  </si>
+  <si>
+    <t>Sum of Total Estimated Gun Sales</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -658,7 +661,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -813,15 +816,6 @@
         <color rgb="FF999999"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF999999"/>
       </top>
@@ -851,15 +845,6 @@
       <top style="thin">
         <color rgb="FF999999"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -941,7 +926,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -950,22 +935,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1025,11 +1011,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dieter Schmidtmeier" refreshedDate="43344.810767592593" createdVersion="1" refreshedVersion="6" recordCount="52" upgradeOnRefresh="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dieter Schmidtmeier" refreshedDate="43346.812864814812" createdVersion="1" refreshedVersion="6" recordCount="52" upgradeOnRefresh="1" xr:uid="{00000000-000A-0000-FFFF-FFFF46000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:M65536" sheet="Estimated Sales vs Manufacturin"/>
+    <worksheetSource ref="A1:P65536" sheet="Estimated Sales vs Manufacturin"/>
   </cacheSource>
-  <cacheFields count="13">
+  <cacheFields count="16">
     <cacheField name="State" numFmtId="0">
       <sharedItems containsBlank="1" count="52">
         <s v="AK"/>
@@ -1247,120 +1233,6 @@
         <m/>
       </sharedItems>
     </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dieter Schmidtmeier" refreshedDate="43346.812864814812" createdVersion="1" refreshedVersion="6" recordCount="52" upgradeOnRefresh="1">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:P65536" sheet="Estimated Sales vs Manufacturin"/>
-  </cacheSource>
-  <cacheFields count="16">
-    <cacheField name="State" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Region" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
-        <s v="West"/>
-        <s v="South"/>
-        <s v="Northeast"/>
-        <s v="Midwest"/>
-        <s v="Territory"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Division" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Handgun Checks" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="662308"/>
-    </cacheField>
-    <cacheField name="Long Gun Checks" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="554550"/>
-    </cacheField>
-    <cacheField name="Multiple Checks" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="33102"/>
-    </cacheField>
-    <cacheField name="Estimated Handgun Sales (x1.1 Checks)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="728538.8"/>
-    </cacheField>
-    <cacheField name="Estimated Long Gun Sales (x1.1 Checks)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="610005"/>
-    </cacheField>
-    <cacheField name="Estimated Multiple Guns Sold (x2 Checks)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="66204"/>
-    </cacheField>
-    <cacheField name="Total Estimated Gun Sales" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1297197.5"/>
-    </cacheField>
-    <cacheField name="Handguns Manufactured" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1471896"/>
-    </cacheField>
-    <cacheField name="Long Guns Manufactured" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12" maxValue="1036996"/>
-    </cacheField>
-    <cacheField name="Total Manufactured" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12" maxValue="2508892" count="52">
-        <n v="115"/>
-        <n v="421966"/>
-        <n v="16781"/>
-        <n v="917142"/>
-        <n v="71984"/>
-        <n v="987"/>
-        <n v="319320"/>
-        <n v="48"/>
-        <n v="623317"/>
-        <n v="383474"/>
-        <n v="42"/>
-        <n v="6355"/>
-        <n v="13238"/>
-        <n v="202472"/>
-        <n v="3104"/>
-        <n v="416"/>
-        <n v="458639"/>
-        <n v="272"/>
-        <n v="2508892"/>
-        <n v="96411"/>
-        <n v="65260"/>
-        <n v="708"/>
-        <n v="24526"/>
-        <n v="17592"/>
-        <n v="946"/>
-        <n v="18635"/>
-        <n v="400605"/>
-        <n v="194"/>
-        <n v="169"/>
-        <n v="1401760"/>
-        <n v="258569"/>
-        <n v="199"/>
-        <n v="39022"/>
-        <n v="882920"/>
-        <n v="220593"/>
-        <n v="1323"/>
-        <n v="9291"/>
-        <n v="84856"/>
-        <n v="12"/>
-        <n v="1558"/>
-        <n v="127409"/>
-        <n v="185159"/>
-        <n v="9434"/>
-        <n v="579418"/>
-        <n v="128411"/>
-        <n v="12225"/>
-        <n v="93575"/>
-        <n v="16580"/>
-        <n v="35873"/>
-        <n v="742"/>
-        <n v="1779"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
     <cacheField name="Gun Deaths Per 100,000" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="3.4" maxValue="23.3"/>
     </cacheField>
@@ -1424,8 +1296,216 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dieter Schmidtmeier" refreshedDate="43346.961620486109" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="52" xr:uid="{D6DF20E7-957F-054E-B26B-B2581E732009}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:O1048576" sheet="2016 State Manufacturing vs Che"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="State" numFmtId="0">
+      <sharedItems containsBlank="1" count="52">
+        <s v="AK"/>
+        <s v="AL"/>
+        <s v="AR"/>
+        <s v="AZ"/>
+        <s v="CA"/>
+        <s v="CO"/>
+        <s v="CT"/>
+        <s v="DE"/>
+        <s v="FL"/>
+        <s v="GA"/>
+        <s v="HI"/>
+        <s v="IA"/>
+        <s v="ID"/>
+        <s v="IL"/>
+        <s v="IN"/>
+        <s v="KS"/>
+        <s v="KY"/>
+        <s v="LA"/>
+        <s v="MA"/>
+        <s v="MD"/>
+        <s v="ME"/>
+        <s v="MI"/>
+        <s v="MN"/>
+        <s v="MO"/>
+        <s v="MS"/>
+        <s v="MT"/>
+        <s v="NC"/>
+        <s v="ND"/>
+        <s v="NE"/>
+        <s v="NH"/>
+        <s v="NJ"/>
+        <s v="NM"/>
+        <s v="NV"/>
+        <s v="NY"/>
+        <s v="OH"/>
+        <s v="OK"/>
+        <s v="OR"/>
+        <s v="PA"/>
+        <s v="PR"/>
+        <s v="RI"/>
+        <s v="SC"/>
+        <s v="SD"/>
+        <s v="TN"/>
+        <s v="TX"/>
+        <s v="UT"/>
+        <s v="VA"/>
+        <s v="VT"/>
+        <s v="WA"/>
+        <s v="WI"/>
+        <s v="WV"/>
+        <s v="WY"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Division" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Handgun Checks" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="662308"/>
+    </cacheField>
+    <cacheField name="Long Gun Checks" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="554550"/>
+    </cacheField>
+    <cacheField name="Multiple Checks" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="33102"/>
+    </cacheField>
+    <cacheField name="Total Checks" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1152187"/>
+    </cacheField>
+    <cacheField name="Rifles Manufactured" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12" maxValue="726077"/>
+    </cacheField>
+    <cacheField name="Pistols Manufactured" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1471896"/>
+    </cacheField>
+    <cacheField name="Shotguns Manufactured" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="367550"/>
+    </cacheField>
+    <cacheField name="Revolvers Manufactured" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="294680"/>
+    </cacheField>
+    <cacheField name="Misc Manufactured" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="137890"/>
+    </cacheField>
+    <cacheField name="Total Manufactured" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12" maxValue="2634040"/>
+    </cacheField>
+    <cacheField name="Gun Violence Per 100,000" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="3.4" maxValue="23.3" count="44">
+        <n v="21.5"/>
+        <n v="23.3"/>
+        <n v="15.2"/>
+        <n v="17.8"/>
+        <n v="7.9"/>
+        <n v="14.3"/>
+        <n v="4.5999999999999996"/>
+        <n v="11"/>
+        <n v="12.6"/>
+        <n v="15"/>
+        <n v="4.5"/>
+        <n v="14.6"/>
+        <n v="11.7"/>
+        <n v="9.1999999999999993"/>
+        <n v="13.4"/>
+        <n v="17.5"/>
+        <n v="21.3"/>
+        <n v="8.3000000000000007"/>
+        <n v="11.9"/>
+        <n v="3.4"/>
+        <n v="12.3"/>
+        <n v="7.6"/>
+        <n v="19.899999999999999"/>
+        <n v="19"/>
+        <n v="18.899999999999999"/>
+        <n v="9.1"/>
+        <n v="16.8"/>
+        <n v="9.3000000000000007"/>
+        <n v="5.5"/>
+        <n v="18.100000000000001"/>
+        <n v="4.4000000000000004"/>
+        <n v="13.7"/>
+        <n v="12.9"/>
+        <n v="19.600000000000001"/>
+        <n v="12"/>
+        <m/>
+        <n v="4.0999999999999996"/>
+        <n v="17.7"/>
+        <n v="17.100000000000001"/>
+        <n v="12.1"/>
+        <n v="11.1"/>
+        <n v="9"/>
+        <n v="11.4"/>
+        <n v="17.399999999999999"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Gun Deaths" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="49" maxValue="3353" count="49">
+        <n v="1046"/>
+        <n v="177"/>
+        <n v="1094"/>
+        <n v="541"/>
+        <n v="3184"/>
+        <n v="812"/>
+        <n v="172"/>
+        <n v="111"/>
+        <n v="2704"/>
+        <n v="1571"/>
+        <n v="66"/>
+        <n v="242"/>
+        <n v="1490"/>
+        <n v="997"/>
+        <n v="288"/>
+        <n v="383"/>
+        <n v="772"/>
+        <n v="987"/>
+        <n v="123"/>
+        <n v="707"/>
+        <n v="1230"/>
+        <n v="432"/>
+        <n v="587"/>
+        <n v="1144"/>
+        <n v="194"/>
+        <n v="171"/>
+        <n v="498"/>
+        <n v="132"/>
+        <n v="485"/>
+        <n v="900"/>
+        <n v="1409"/>
+        <n v="90"/>
+        <n v="1524"/>
+        <n v="766"/>
+        <n v="513"/>
+        <n v="1555"/>
+        <m/>
+        <n v="49"/>
+        <n v="891"/>
+        <n v="108"/>
+        <n v="1148"/>
+        <n v="3353"/>
+        <n v="370"/>
+        <n v="78"/>
+        <n v="1049"/>
+        <n v="686"/>
+        <n v="332"/>
+        <n v="664"/>
+        <n v="101"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="52">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="52">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -1440,6 +1520,9 @@
     <n v="3"/>
     <n v="112"/>
     <x v="0"/>
+    <n v="21.5"/>
+    <n v="1046"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -1455,6 +1538,9 @@
     <n v="84903"/>
     <n v="337063"/>
     <x v="1"/>
+    <n v="23.3"/>
+    <n v="177"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -1470,6 +1556,9 @@
     <n v="13456"/>
     <n v="3325"/>
     <x v="2"/>
+    <n v="15.2"/>
+    <n v="1094"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
@@ -1485,6 +1574,9 @@
     <n v="904147"/>
     <n v="12995"/>
     <x v="3"/>
+    <n v="17.8"/>
+    <n v="541"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
@@ -1500,6 +1592,9 @@
     <n v="54242"/>
     <n v="17742"/>
     <x v="4"/>
+    <n v="7.9"/>
+    <n v="3184"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="5"/>
@@ -1515,6 +1610,9 @@
     <n v="109"/>
     <n v="878"/>
     <x v="5"/>
+    <n v="14.3"/>
+    <n v="812"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="6"/>
@@ -1530,6 +1628,9 @@
     <n v="77246"/>
     <n v="242074"/>
     <x v="6"/>
+    <n v="4.5999999999999996"/>
+    <n v="172"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="7"/>
@@ -1545,6 +1646,9 @@
     <n v="0"/>
     <n v="48"/>
     <x v="7"/>
+    <n v="11"/>
+    <n v="111"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="8"/>
@@ -1560,6 +1664,9 @@
     <n v="344806"/>
     <n v="278511"/>
     <x v="8"/>
+    <n v="12.6"/>
+    <n v="2704"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="9"/>
@@ -1575,6 +1682,9 @@
     <n v="379516"/>
     <n v="3958"/>
     <x v="9"/>
+    <n v="15"/>
+    <n v="1571"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="10"/>
@@ -1590,6 +1700,9 @@
     <n v="0"/>
     <n v="42"/>
     <x v="10"/>
+    <n v="4.5"/>
+    <n v="66"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="11"/>
@@ -1605,6 +1718,9 @@
     <n v="4107"/>
     <n v="2248"/>
     <x v="11"/>
+    <n v="14.6"/>
+    <n v="242"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="12"/>
@@ -1620,6 +1736,9 @@
     <n v="1147"/>
     <n v="12091"/>
     <x v="12"/>
+    <n v="11.7"/>
+    <n v="1490"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="13"/>
@@ -1635,6 +1754,9 @@
     <n v="79966"/>
     <n v="122506"/>
     <x v="13"/>
+    <n v="15"/>
+    <n v="997"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="14"/>
@@ -1650,6 +1772,9 @@
     <n v="378"/>
     <n v="2726"/>
     <x v="14"/>
+    <n v="9.1999999999999993"/>
+    <n v="288"/>
+    <x v="13"/>
   </r>
   <r>
     <x v="15"/>
@@ -1665,6 +1790,9 @@
     <n v="145"/>
     <n v="271"/>
     <x v="15"/>
+    <n v="13.4"/>
+    <n v="383"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="16"/>
@@ -1680,6 +1808,9 @@
     <n v="3748"/>
     <n v="454891"/>
     <x v="16"/>
+    <n v="17.5"/>
+    <n v="772"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="17"/>
@@ -1695,6 +1826,9 @@
     <n v="19"/>
     <n v="253"/>
     <x v="17"/>
+    <n v="21.3"/>
+    <n v="987"/>
+    <x v="16"/>
   </r>
   <r>
     <x v="18"/>
@@ -1710,6 +1844,9 @@
     <n v="1471896"/>
     <n v="1036996"/>
     <x v="18"/>
+    <n v="8.3000000000000007"/>
+    <n v="123"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="19"/>
@@ -1725,6 +1862,9 @@
     <n v="43157"/>
     <n v="53254"/>
     <x v="19"/>
+    <n v="11.9"/>
+    <n v="707"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="20"/>
@@ -1740,6 +1880,9 @@
     <n v="442"/>
     <n v="64818"/>
     <x v="20"/>
+    <n v="3.4"/>
+    <n v="242"/>
+    <x v="19"/>
   </r>
   <r>
     <x v="21"/>
@@ -1755,6 +1898,9 @@
     <n v="29"/>
     <n v="679"/>
     <x v="21"/>
+    <n v="12.3"/>
+    <n v="1230"/>
+    <x v="20"/>
   </r>
   <r>
     <x v="22"/>
@@ -1770,6 +1916,9 @@
     <n v="18849"/>
     <n v="5677"/>
     <x v="22"/>
+    <n v="7.6"/>
+    <n v="432"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="23"/>
@@ -1785,6 +1934,9 @@
     <n v="2837"/>
     <n v="14755"/>
     <x v="23"/>
+    <n v="19.899999999999999"/>
+    <n v="587"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="24"/>
@@ -1800,6 +1952,9 @@
     <n v="64"/>
     <n v="882"/>
     <x v="24"/>
+    <n v="19"/>
+    <n v="1144"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="25"/>
@@ -1815,6 +1970,9 @@
     <n v="3"/>
     <n v="18632"/>
     <x v="25"/>
+    <n v="18.899999999999999"/>
+    <n v="194"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="26"/>
@@ -1830,6 +1988,9 @@
     <n v="108395"/>
     <n v="292210"/>
     <x v="26"/>
+    <n v="9.1"/>
+    <n v="171"/>
+    <x v="25"/>
   </r>
   <r>
     <x v="27"/>
@@ -1845,6 +2006,9 @@
     <n v="9"/>
     <n v="185"/>
     <x v="27"/>
+    <n v="16.8"/>
+    <n v="498"/>
+    <x v="26"/>
   </r>
   <r>
     <x v="28"/>
@@ -1860,6 +2024,9 @@
     <n v="59"/>
     <n v="110"/>
     <x v="28"/>
+    <n v="9.3000000000000007"/>
+    <n v="132"/>
+    <x v="20"/>
   </r>
   <r>
     <x v="29"/>
@@ -1875,6 +2042,9 @@
     <n v="602392"/>
     <n v="799368"/>
     <x v="29"/>
+    <n v="5.5"/>
+    <n v="485"/>
+    <x v="27"/>
   </r>
   <r>
     <x v="30"/>
@@ -1890,6 +2060,9 @@
     <n v="1"/>
     <n v="258568"/>
     <x v="30"/>
+    <n v="18.100000000000001"/>
+    <n v="383"/>
+    <x v="28"/>
   </r>
   <r>
     <x v="31"/>
@@ -1905,6 +2078,9 @@
     <n v="16"/>
     <n v="183"/>
     <x v="31"/>
+    <n v="4.4000000000000004"/>
+    <n v="900"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="32"/>
@@ -1920,6 +2096,9 @@
     <n v="37138"/>
     <n v="1884"/>
     <x v="32"/>
+    <n v="13.7"/>
+    <n v="1409"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="33"/>
@@ -1935,6 +2114,9 @@
     <n v="230843"/>
     <n v="652077"/>
     <x v="33"/>
+    <n v="11.9"/>
+    <n v="90"/>
+    <x v="29"/>
   </r>
   <r>
     <x v="34"/>
@@ -1950,6 +2132,9 @@
     <n v="147579"/>
     <n v="73014"/>
     <x v="34"/>
+    <n v="12.9"/>
+    <n v="1524"/>
+    <x v="30"/>
   </r>
   <r>
     <x v="35"/>
@@ -1965,6 +2150,9 @@
     <n v="78"/>
     <n v="1245"/>
     <x v="35"/>
+    <n v="19.600000000000001"/>
+    <n v="766"/>
+    <x v="31"/>
   </r>
   <r>
     <x v="36"/>
@@ -1980,6 +2168,9 @@
     <n v="501"/>
     <n v="8790"/>
     <x v="36"/>
+    <n v="11.9"/>
+    <n v="513"/>
+    <x v="32"/>
   </r>
   <r>
     <x v="37"/>
@@ -1990,11 +2181,14 @@
     <n v="0"/>
     <n v="706455.20000000007"/>
     <n v="173955.1"/>
-    <n v="0"/>
+    <m/>
     <x v="37"/>
     <n v="1152"/>
     <n v="83704"/>
     <x v="37"/>
+    <n v="12"/>
+    <n v="1555"/>
+    <x v="33"/>
   </r>
   <r>
     <x v="38"/>
@@ -2010,6 +2204,9 @@
     <n v="0"/>
     <n v="12"/>
     <x v="38"/>
+    <m/>
+    <m/>
+    <x v="34"/>
   </r>
   <r>
     <x v="39"/>
@@ -2025,6 +2222,9 @@
     <n v="1257"/>
     <n v="301"/>
     <x v="39"/>
+    <n v="4.0999999999999996"/>
+    <n v="49"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="40"/>
@@ -2040,6 +2240,9 @@
     <n v="6057"/>
     <n v="121352"/>
     <x v="40"/>
+    <n v="17.7"/>
+    <n v="891"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="41"/>
@@ -2055,6 +2258,9 @@
     <n v="9"/>
     <n v="185150"/>
     <x v="41"/>
+    <n v="13.4"/>
+    <n v="108"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="42"/>
@@ -2070,6 +2276,9 @@
     <n v="1439"/>
     <n v="7995"/>
     <x v="42"/>
+    <n v="17.100000000000001"/>
+    <n v="1148"/>
+    <x v="37"/>
   </r>
   <r>
     <x v="43"/>
@@ -2085,6 +2294,9 @@
     <n v="31071"/>
     <n v="548347"/>
     <x v="43"/>
+    <n v="12.1"/>
+    <n v="3353"/>
+    <x v="26"/>
   </r>
   <r>
     <x v="44"/>
@@ -2100,6 +2312,9 @@
     <n v="57396"/>
     <n v="71015"/>
     <x v="44"/>
+    <n v="12.9"/>
+    <n v="370"/>
+    <x v="38"/>
   </r>
   <r>
     <x v="45"/>
@@ -2115,6 +2330,9 @@
     <n v="5294"/>
     <n v="6931"/>
     <x v="45"/>
+    <n v="11.1"/>
+    <n v="78"/>
+    <x v="39"/>
   </r>
   <r>
     <x v="46"/>
@@ -2130,6 +2348,9 @@
     <n v="3435"/>
     <n v="90140"/>
     <x v="46"/>
+    <n v="12.1"/>
+    <n v="1049"/>
+    <x v="31"/>
   </r>
   <r>
     <x v="47"/>
@@ -2145,6 +2366,9 @@
     <n v="310"/>
     <n v="16270"/>
     <x v="47"/>
+    <n v="9"/>
+    <n v="686"/>
+    <x v="40"/>
   </r>
   <r>
     <x v="48"/>
@@ -2160,6 +2384,9 @@
     <n v="374"/>
     <n v="35499"/>
     <x v="48"/>
+    <n v="17.5"/>
+    <n v="332"/>
+    <x v="41"/>
   </r>
   <r>
     <x v="49"/>
@@ -2175,6 +2402,9 @@
     <n v="29"/>
     <n v="713"/>
     <x v="49"/>
+    <n v="11.4"/>
+    <n v="664"/>
+    <x v="42"/>
   </r>
   <r>
     <x v="50"/>
@@ -2190,6 +2420,9 @@
     <n v="26"/>
     <n v="1753"/>
     <x v="50"/>
+    <n v="17.399999999999999"/>
+    <n v="101"/>
+    <x v="43"/>
   </r>
   <r>
     <x v="51"/>
@@ -2205,933 +2438,884 @@
     <m/>
     <m/>
     <x v="51"/>
+    <m/>
+    <m/>
+    <x v="34"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="52">
-  <r>
-    <s v="AK"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="52">
+  <r>
     <x v="0"/>
+    <s v="West"/>
     <s v="Pacific"/>
     <n v="37491"/>
     <n v="36887"/>
     <n v="2316"/>
-    <n v="41240.100000000006"/>
-    <n v="40575.700000000004"/>
-    <n v="4632"/>
-    <n v="86447.800000000017"/>
+    <n v="76694"/>
+    <n v="104"/>
     <n v="3"/>
-    <n v="112"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="78"/>
+    <n v="193"/>
     <x v="0"/>
-    <n v="21.5"/>
-    <n v="1046"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="AL"/>
     <x v="1"/>
+    <s v="South"/>
     <s v="East South Central"/>
     <n v="153123"/>
     <n v="121963"/>
     <n v="6545"/>
-    <n v="168435.30000000002"/>
-    <n v="134159.30000000002"/>
-    <n v="13090"/>
-    <n v="315684.60000000003"/>
+    <n v="281631"/>
+    <n v="290699"/>
     <n v="84903"/>
-    <n v="337063"/>
+    <n v="46364"/>
+    <n v="0"/>
+    <n v="428"/>
+    <n v="422394"/>
     <x v="1"/>
-    <n v="23.3"/>
-    <n v="177"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="AR"/>
-    <x v="1"/>
+    <x v="2"/>
+    <s v="South"/>
     <s v="West South Central"/>
     <n v="80244"/>
     <n v="82120"/>
     <n v="4400"/>
-    <n v="88268.400000000009"/>
-    <n v="90332.000000000015"/>
-    <n v="8800"/>
-    <n v="187400.40000000002"/>
+    <n v="166764"/>
+    <n v="2978"/>
     <n v="13456"/>
-    <n v="3325"/>
+    <n v="347"/>
+    <n v="0"/>
+    <n v="4316"/>
+    <n v="21097"/>
     <x v="2"/>
-    <n v="15.2"/>
-    <n v="1094"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="AZ"/>
-    <x v="0"/>
+    <x v="3"/>
+    <s v="West"/>
     <s v="Mountain"/>
     <n v="166784"/>
     <n v="108988"/>
     <n v="7908"/>
-    <n v="183462.40000000002"/>
-    <n v="119886.8"/>
-    <n v="15816"/>
-    <n v="319165.2"/>
+    <n v="283680"/>
+    <n v="12974"/>
     <n v="904147"/>
-    <n v="12995"/>
+    <n v="7"/>
+    <n v="14"/>
+    <n v="19298"/>
+    <n v="936440"/>
     <x v="3"/>
-    <n v="17.8"/>
-    <n v="541"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="CA"/>
-    <x v="0"/>
+    <x v="4"/>
+    <s v="West"/>
     <s v="Pacific"/>
     <n v="560355"/>
     <n v="554550"/>
     <n v="0"/>
-    <n v="616390.5"/>
-    <n v="610005"/>
+    <n v="1114905"/>
+    <n v="17742"/>
+    <n v="54242"/>
     <n v="0"/>
-    <n v="1226395.5"/>
-    <n v="54242"/>
-    <n v="17742"/>
+    <n v="0"/>
+    <n v="18149"/>
+    <n v="90133"/>
     <x v="4"/>
-    <n v="7.9"/>
-    <n v="3184"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="CO"/>
-    <x v="0"/>
+    <x v="5"/>
+    <s v="West"/>
     <s v="Mountain"/>
     <n v="242502"/>
     <n v="180026"/>
     <n v="14293"/>
-    <n v="266752.2"/>
-    <n v="198028.6"/>
-    <n v="28586"/>
-    <n v="493366.80000000005"/>
+    <n v="436821"/>
+    <n v="878"/>
     <n v="109"/>
-    <n v="878"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="660"/>
+    <n v="1647"/>
     <x v="5"/>
-    <n v="14.3"/>
-    <n v="812"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="CT"/>
-    <x v="2"/>
+    <x v="6"/>
+    <s v="Northeast"/>
     <s v="New England"/>
     <n v="122375"/>
     <n v="43813"/>
     <n v="0"/>
-    <n v="134612.5"/>
-    <n v="48194.3"/>
-    <n v="0"/>
-    <n v="182806.8"/>
+    <n v="166188"/>
+    <n v="187224"/>
     <n v="77246"/>
-    <n v="242074"/>
+    <n v="9756"/>
+    <n v="45094"/>
+    <n v="178"/>
+    <n v="319498"/>
     <x v="6"/>
-    <n v="4.5999999999999996"/>
-    <n v="172"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="DE"/>
-    <x v="1"/>
+    <x v="7"/>
+    <s v="South"/>
     <s v="South Atlantic"/>
     <n v="25574"/>
     <n v="21746"/>
     <n v="1034"/>
-    <n v="28131.4"/>
-    <n v="23920.600000000002"/>
-    <n v="2068"/>
-    <n v="54120"/>
+    <n v="48354"/>
+    <n v="48"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="48"/>
     <x v="7"/>
-    <n v="11"/>
-    <n v="111"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="FL"/>
-    <x v="1"/>
+    <x v="8"/>
+    <s v="South"/>
     <s v="South Atlantic"/>
     <n v="662308"/>
     <n v="316232"/>
     <n v="25142"/>
-    <n v="728538.8"/>
-    <n v="347855.2"/>
-    <n v="50284"/>
-    <n v="1126678"/>
+    <n v="1003682"/>
+    <n v="49257"/>
     <n v="344806"/>
-    <n v="278511"/>
+    <n v="29342"/>
+    <n v="199912"/>
+    <n v="99046"/>
+    <n v="722363"/>
     <x v="8"/>
-    <n v="12.6"/>
-    <n v="2704"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="GA"/>
-    <x v="1"/>
+    <x v="9"/>
+    <s v="South"/>
     <s v="South Atlantic"/>
     <n v="194800"/>
     <n v="128277"/>
     <n v="7478"/>
-    <n v="214280.00000000003"/>
-    <n v="141104.70000000001"/>
-    <n v="14956"/>
-    <n v="370340.70000000007"/>
+    <n v="330555"/>
+    <n v="3928"/>
     <n v="379516"/>
-    <n v="3958"/>
+    <n v="14"/>
+    <n v="16"/>
+    <n v="1070"/>
+    <n v="384544"/>
     <x v="9"/>
-    <n v="15"/>
-    <n v="1571"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="HI"/>
-    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="West"/>
     <s v="Pacific"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="42"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="42"/>
     <x v="10"/>
-    <n v="4.5"/>
-    <n v="66"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="IA"/>
-    <x v="3"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Midwest"/>
     <s v="West North Central"/>
     <n v="2790"/>
     <n v="35254"/>
     <n v="70"/>
-    <n v="3069.0000000000005"/>
-    <n v="38779.4"/>
-    <n v="140"/>
-    <n v="41988.4"/>
+    <n v="38114"/>
+    <n v="2222"/>
     <n v="4107"/>
-    <n v="2248"/>
+    <n v="21"/>
+    <n v="5"/>
+    <n v="1486"/>
+    <n v="7841"/>
     <x v="11"/>
-    <n v="14.6"/>
-    <n v="242"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="ID"/>
-    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="West"/>
     <s v="Mountain"/>
     <n v="46523"/>
     <n v="55591"/>
     <n v="2406"/>
-    <n v="51175.3"/>
-    <n v="61150.100000000006"/>
-    <n v="4812"/>
-    <n v="117137.40000000001"/>
+    <n v="104520"/>
+    <n v="11375"/>
     <n v="1147"/>
-    <n v="12091"/>
+    <n v="716"/>
+    <n v="0"/>
+    <n v="9975"/>
+    <n v="23213"/>
     <x v="12"/>
-    <n v="11.7"/>
-    <n v="1490"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="IL"/>
-    <x v="3"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Midwest"/>
     <s v="East North Central"/>
     <n v="352411"/>
     <n v="177255"/>
     <n v="12133"/>
-    <n v="387652.10000000003"/>
-    <n v="194980.50000000003"/>
-    <n v="24266"/>
-    <n v="606898.60000000009"/>
+    <n v="541799"/>
+    <n v="119578"/>
     <n v="79966"/>
-    <n v="122506"/>
+    <n v="2927"/>
+    <n v="1"/>
+    <n v="3818"/>
+    <n v="206290"/>
+    <x v="9"/>
     <x v="13"/>
-    <n v="15"/>
-    <n v="997"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="IN"/>
-    <x v="3"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Midwest"/>
     <s v="East North Central"/>
     <n v="278182"/>
     <n v="177218"/>
     <n v="9082"/>
-    <n v="306000.2"/>
-    <n v="194939.80000000002"/>
-    <n v="18164"/>
-    <n v="519104"/>
+    <n v="464482"/>
+    <n v="2225"/>
     <n v="378"/>
-    <n v="2726"/>
+    <n v="501"/>
+    <n v="0"/>
+    <n v="2639"/>
+    <n v="5743"/>
+    <x v="13"/>
     <x v="14"/>
-    <n v="9.1999999999999993"/>
-    <n v="288"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="KS"/>
-    <x v="3"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Midwest"/>
     <s v="West North Central"/>
     <n v="81116"/>
     <n v="73748"/>
     <n v="4271"/>
-    <n v="89227.6"/>
-    <n v="81122.8"/>
-    <n v="8542"/>
-    <n v="178892.40000000002"/>
+    <n v="159135"/>
+    <n v="270"/>
     <n v="145"/>
-    <n v="271"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3500"/>
+    <n v="3916"/>
+    <x v="14"/>
     <x v="15"/>
-    <n v="13.4"/>
-    <n v="383"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <s v="KY"/>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="South"/>
     <s v="East South Central"/>
     <n v="140721"/>
     <n v="109030"/>
     <n v="6943"/>
-    <n v="154793.1"/>
-    <n v="119933.00000000001"/>
-    <n v="13886"/>
-    <n v="288612.10000000003"/>
+    <n v="256694"/>
+    <n v="454881"/>
     <n v="3748"/>
-    <n v="454891"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="1542"/>
+    <n v="460181"/>
+    <x v="15"/>
     <x v="16"/>
-    <n v="17.5"/>
-    <n v="772"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <s v="LA"/>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="South"/>
     <s v="West South Central"/>
     <n v="171588"/>
     <n v="139122"/>
     <n v="8609"/>
-    <n v="188746.80000000002"/>
-    <n v="153034.20000000001"/>
-    <n v="17218"/>
-    <n v="358999"/>
+    <n v="319319"/>
+    <n v="251"/>
     <n v="19"/>
-    <n v="253"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="39"/>
+    <n v="311"/>
+    <x v="16"/>
     <x v="17"/>
-    <n v="21.3"/>
-    <n v="987"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <s v="MA"/>
-    <x v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Northeast"/>
     <s v="New England"/>
     <n v="75977"/>
     <n v="41931"/>
     <n v="2480"/>
-    <n v="83574.700000000012"/>
-    <n v="46124.100000000006"/>
-    <n v="4960"/>
-    <n v="134658.80000000002"/>
+    <n v="120388"/>
+    <n v="726077"/>
     <n v="1471896"/>
-    <n v="1036996"/>
+    <n v="16239"/>
+    <n v="294680"/>
+    <n v="125148"/>
+    <n v="2634040"/>
+    <x v="17"/>
     <x v="18"/>
-    <n v="8.3000000000000007"/>
-    <n v="123"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <s v="MD"/>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="South"/>
     <s v="South Atlantic"/>
     <n v="52305"/>
     <n v="71892"/>
     <n v="337"/>
-    <n v="57535.500000000007"/>
-    <n v="79081.200000000012"/>
-    <n v="674"/>
-    <n v="137290.70000000001"/>
+    <n v="124534"/>
+    <n v="25156"/>
     <n v="43157"/>
-    <n v="53254"/>
+    <n v="28098"/>
+    <n v="0"/>
+    <n v="1456"/>
+    <n v="97867"/>
+    <x v="18"/>
     <x v="19"/>
-    <n v="11.9"/>
-    <n v="707"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <s v="ME"/>
-    <x v="2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Northeast"/>
     <s v="New England"/>
     <n v="48845"/>
     <n v="46780"/>
     <n v="2458"/>
-    <n v="53729.500000000007"/>
-    <n v="51458.000000000007"/>
-    <n v="4916"/>
-    <n v="110103.50000000001"/>
+    <n v="98083"/>
+    <n v="64818"/>
     <n v="442"/>
-    <n v="64818"/>
-    <x v="20"/>
-    <n v="3.4"/>
-    <n v="242"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="14"/>
+    <n v="65274"/>
     <x v="19"/>
-  </r>
-  <r>
-    <s v="MI"/>
-    <x v="3"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="Midwest"/>
     <s v="East North Central"/>
     <n v="164878"/>
     <n v="129089"/>
     <n v="2815"/>
-    <n v="181365.80000000002"/>
-    <n v="141997.90000000002"/>
-    <n v="5630"/>
-    <n v="328993.70000000007"/>
+    <n v="296782"/>
+    <n v="679"/>
     <n v="29"/>
-    <n v="679"/>
-    <x v="21"/>
-    <n v="12.3"/>
-    <n v="1230"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1903"/>
+    <n v="2611"/>
     <x v="20"/>
-  </r>
-  <r>
-    <s v="MN"/>
-    <x v="3"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="Midwest"/>
     <s v="West North Central"/>
     <n v="133962"/>
     <n v="143543"/>
     <n v="5046"/>
-    <n v="147358.20000000001"/>
-    <n v="157897.30000000002"/>
-    <n v="10092"/>
-    <n v="315347.5"/>
+    <n v="282551"/>
+    <n v="4605"/>
     <n v="18849"/>
-    <n v="5677"/>
-    <x v="22"/>
-    <n v="7.6"/>
-    <n v="432"/>
+    <n v="0"/>
+    <n v="1072"/>
+    <n v="18243"/>
+    <n v="42769"/>
     <x v="21"/>
-  </r>
-  <r>
-    <s v="MO"/>
-    <x v="3"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="Midwest"/>
     <s v="West North Central"/>
     <n v="274754"/>
     <n v="202708"/>
     <n v="12753"/>
-    <n v="302229.40000000002"/>
-    <n v="222978.80000000002"/>
-    <n v="25506"/>
-    <n v="550714.20000000007"/>
+    <n v="490215"/>
+    <n v="11732"/>
     <n v="2837"/>
-    <n v="14755"/>
-    <x v="23"/>
-    <n v="19.899999999999999"/>
-    <n v="587"/>
+    <n v="3023"/>
+    <n v="0"/>
+    <n v="21591"/>
+    <n v="39183"/>
     <x v="22"/>
-  </r>
-  <r>
-    <s v="MS"/>
-    <x v="1"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="South"/>
     <s v="East South Central"/>
     <n v="119050"/>
     <n v="92822"/>
     <n v="5263"/>
-    <n v="130955.00000000001"/>
-    <n v="102104.20000000001"/>
-    <n v="10526"/>
-    <n v="243585.2"/>
+    <n v="217135"/>
+    <n v="877"/>
     <n v="64"/>
-    <n v="882"/>
-    <x v="24"/>
-    <n v="19"/>
-    <n v="1144"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="629"/>
+    <n v="1575"/>
     <x v="23"/>
-  </r>
-  <r>
-    <s v="MT"/>
-    <x v="0"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="West"/>
     <s v="Mountain"/>
     <n v="37547"/>
     <n v="56834"/>
     <n v="2678"/>
-    <n v="41301.700000000004"/>
-    <n v="62517.4"/>
-    <n v="5356"/>
-    <n v="109175.1"/>
+    <n v="97059"/>
+    <n v="18632"/>
     <n v="3"/>
-    <n v="18632"/>
-    <x v="25"/>
-    <n v="18.899999999999999"/>
-    <n v="194"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2206"/>
+    <n v="20841"/>
     <x v="24"/>
-  </r>
-  <r>
-    <s v="NC"/>
-    <x v="1"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="South"/>
     <s v="South Atlantic"/>
     <n v="16595"/>
     <n v="176919"/>
     <n v="2812"/>
-    <n v="18254.5"/>
-    <n v="194610.90000000002"/>
-    <n v="5624"/>
-    <n v="218489.40000000002"/>
+    <n v="196326"/>
+    <n v="292210"/>
     <n v="108395"/>
-    <n v="292210"/>
-    <x v="26"/>
-    <n v="9.1"/>
-    <n v="171"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="26919"/>
+    <n v="427524"/>
     <x v="25"/>
-  </r>
-  <r>
-    <s v="ND"/>
-    <x v="3"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="Midwest"/>
     <s v="West North Central"/>
     <n v="19975"/>
     <n v="34013"/>
     <n v="972"/>
-    <n v="21972.5"/>
-    <n v="37414.300000000003"/>
-    <n v="1944"/>
-    <n v="61330.8"/>
+    <n v="54960"/>
+    <n v="185"/>
     <n v="9"/>
-    <n v="185"/>
-    <x v="27"/>
-    <n v="16.8"/>
-    <n v="498"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="120"/>
+    <n v="314"/>
     <x v="26"/>
-  </r>
-  <r>
-    <s v="NE"/>
-    <x v="3"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="Midwest"/>
     <s v="West North Central"/>
     <n v="1717"/>
     <n v="26494"/>
     <n v="82"/>
-    <n v="1888.7"/>
-    <n v="29143.4"/>
-    <n v="164"/>
-    <n v="31196.100000000002"/>
+    <n v="28293"/>
+    <n v="107"/>
     <n v="59"/>
-    <n v="110"/>
-    <x v="28"/>
-    <n v="9.3000000000000007"/>
-    <n v="132"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <s v="NH"/>
-    <x v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="378"/>
+    <n v="547"/>
+    <x v="27"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="Northeast"/>
     <s v="New England"/>
     <n v="68529"/>
     <n v="44681"/>
     <n v="55"/>
-    <n v="75381.900000000009"/>
-    <n v="49149.100000000006"/>
-    <n v="110"/>
-    <n v="124641.00000000001"/>
+    <n v="113265"/>
+    <n v="550719"/>
     <n v="602392"/>
-    <n v="799368"/>
-    <x v="29"/>
-    <n v="5.5"/>
-    <n v="485"/>
-    <x v="27"/>
-  </r>
-  <r>
-    <s v="NJ"/>
-    <x v="2"/>
+    <n v="179"/>
+    <n v="248470"/>
+    <n v="92043"/>
+    <n v="1493803"/>
+    <x v="28"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="Northeast"/>
     <s v="Middle Atlantic"/>
     <n v="70249"/>
     <n v="49099"/>
     <n v="0"/>
-    <n v="77273.900000000009"/>
-    <n v="54008.9"/>
+    <n v="119348"/>
+    <n v="258568"/>
+    <n v="1"/>
     <n v="0"/>
-    <n v="131282.80000000002"/>
-    <n v="1"/>
-    <n v="258568"/>
-    <x v="30"/>
-    <n v="18.100000000000001"/>
-    <n v="383"/>
-    <x v="28"/>
-  </r>
-  <r>
-    <s v="NM"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="37"/>
+    <n v="258606"/>
+    <x v="29"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="West"/>
     <s v="Mountain"/>
     <n v="69434"/>
     <n v="55664"/>
     <n v="3732"/>
-    <n v="76377.400000000009"/>
-    <n v="61230.400000000001"/>
-    <n v="7464"/>
-    <n v="145071.80000000002"/>
+    <n v="128830"/>
+    <n v="183"/>
     <n v="16"/>
-    <n v="183"/>
-    <x v="31"/>
-    <n v="4.4000000000000004"/>
-    <n v="900"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="NV"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="200"/>
+    <x v="30"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="West"/>
     <s v="Mountain"/>
     <n v="66158"/>
     <n v="38105"/>
     <n v="3723"/>
-    <n v="72773.8"/>
-    <n v="41915.5"/>
-    <n v="7446"/>
-    <n v="122135.3"/>
+    <n v="107986"/>
+    <n v="1787"/>
     <n v="37138"/>
-    <n v="1884"/>
-    <x v="32"/>
-    <n v="13.7"/>
-    <n v="1409"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="NY"/>
-    <x v="2"/>
+    <n v="80"/>
+    <n v="17"/>
+    <n v="28730"/>
+    <n v="67752"/>
+    <x v="31"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <s v="Northeast"/>
     <s v="Middle Atlantic"/>
     <n v="133285"/>
     <n v="197670"/>
     <n v="2466"/>
-    <n v="146613.5"/>
-    <n v="217437.00000000003"/>
-    <n v="4932"/>
-    <n v="368982.5"/>
+    <n v="333421"/>
+    <n v="309229"/>
     <n v="230843"/>
-    <n v="652077"/>
-    <x v="33"/>
-    <n v="11.9"/>
-    <n v="90"/>
-    <x v="29"/>
-  </r>
-  <r>
-    <s v="OH"/>
-    <x v="3"/>
+    <n v="339508"/>
+    <n v="3340"/>
+    <n v="5204"/>
+    <n v="888124"/>
+    <x v="18"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="Midwest"/>
     <s v="East North Central"/>
     <n v="394570"/>
     <n v="243963"/>
     <n v="16333"/>
-    <n v="434027.00000000006"/>
-    <n v="268359.30000000005"/>
-    <n v="32666"/>
-    <n v="735052.3"/>
+    <n v="654866"/>
+    <n v="71484"/>
     <n v="147579"/>
-    <n v="73014"/>
-    <x v="34"/>
-    <n v="12.9"/>
-    <n v="1524"/>
-    <x v="30"/>
-  </r>
-  <r>
-    <s v="OK"/>
-    <x v="3"/>
+    <n v="1530"/>
+    <n v="0"/>
+    <n v="10695"/>
+    <n v="231288"/>
+    <x v="32"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="Midwest"/>
     <s v="West South Central"/>
     <n v="166181"/>
     <n v="130514"/>
     <n v="10661"/>
-    <n v="182799.1"/>
-    <n v="143565.40000000002"/>
-    <n v="21322"/>
-    <n v="347686.5"/>
+    <n v="307356"/>
+    <n v="1235"/>
     <n v="78"/>
-    <n v="1245"/>
-    <x v="35"/>
-    <n v="19.600000000000001"/>
-    <n v="766"/>
-    <x v="31"/>
-  </r>
-  <r>
-    <s v="OR"/>
-    <x v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="1868"/>
+    <n v="3191"/>
+    <x v="33"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <s v="West"/>
     <s v="Pacific"/>
     <n v="178716"/>
     <n v="143029"/>
     <n v="0"/>
-    <n v="196587.6"/>
-    <n v="157331.90000000002"/>
+    <n v="321745"/>
+    <n v="8788"/>
+    <n v="501"/>
+    <n v="2"/>
     <n v="0"/>
-    <n v="353919.5"/>
-    <n v="501"/>
-    <n v="8790"/>
-    <x v="36"/>
-    <n v="11.9"/>
-    <n v="513"/>
-    <x v="32"/>
-  </r>
-  <r>
-    <s v="PA"/>
-    <x v="2"/>
+    <n v="1877"/>
+    <n v="11168"/>
+    <x v="18"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="Northeast"/>
     <s v="Middle Atlantic"/>
     <n v="642232"/>
     <n v="158141"/>
     <n v="0"/>
-    <n v="706455.20000000007"/>
-    <n v="173955.1"/>
-    <m/>
-    <n v="880410.3"/>
+    <n v="800373"/>
+    <n v="83688"/>
     <n v="1152"/>
-    <n v="83704"/>
-    <x v="37"/>
-    <n v="12"/>
-    <n v="1555"/>
-    <x v="33"/>
-  </r>
-  <r>
-    <s v="PR"/>
-    <x v="4"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="733"/>
+    <n v="85589"/>
+    <x v="34"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <s v="Territory"/>
     <s v="Territory"/>
     <n v="12779"/>
     <n v="2416"/>
     <n v="275"/>
-    <n v="14056.900000000001"/>
-    <n v="2657.6000000000004"/>
-    <n v="550"/>
-    <n v="17264.5"/>
+    <n v="15470"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="12"/>
-    <x v="38"/>
-    <m/>
-    <m/>
-    <x v="34"/>
-  </r>
-  <r>
-    <s v="RI"/>
-    <x v="2"/>
+    <x v="35"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="Northeast"/>
     <s v="New England"/>
     <n v="14262"/>
     <n v="10204"/>
     <n v="1999"/>
-    <n v="15688.2"/>
-    <n v="11224.400000000001"/>
-    <n v="3998"/>
-    <n v="30910.600000000002"/>
+    <n v="26465"/>
+    <n v="301"/>
     <n v="1257"/>
-    <n v="301"/>
-    <x v="39"/>
-    <n v="4.0999999999999996"/>
-    <n v="49"/>
-    <x v="35"/>
-  </r>
-  <r>
-    <s v="SC"/>
-    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1558"/>
+    <x v="36"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="South"/>
     <s v="South Atlantic"/>
     <n v="132473"/>
     <n v="87413"/>
     <n v="4490"/>
-    <n v="145720.30000000002"/>
-    <n v="96154.3"/>
-    <n v="8980"/>
-    <n v="250854.60000000003"/>
+    <n v="224376"/>
+    <n v="119335"/>
     <n v="6057"/>
-    <n v="121352"/>
-    <x v="40"/>
-    <n v="17.7"/>
-    <n v="891"/>
-    <x v="36"/>
-  </r>
-  <r>
-    <s v="SD"/>
-    <x v="3"/>
+    <n v="2017"/>
+    <n v="0"/>
+    <n v="137890"/>
+    <n v="265299"/>
+    <x v="37"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="Midwest"/>
     <s v="West North Central"/>
     <n v="36520"/>
     <n v="49522"/>
     <n v="2184"/>
-    <n v="40172"/>
-    <n v="54474.200000000004"/>
-    <n v="4368"/>
-    <n v="99014.200000000012"/>
+    <n v="88226"/>
+    <n v="185150"/>
     <n v="9"/>
-    <n v="185150"/>
-    <x v="41"/>
-    <n v="13.4"/>
-    <n v="108"/>
-    <x v="22"/>
-  </r>
-  <r>
-    <s v="TN"/>
-    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="98"/>
+    <n v="185257"/>
+    <x v="14"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="South"/>
     <s v="East South Central"/>
     <n v="319169"/>
     <n v="210161"/>
     <n v="11092"/>
-    <n v="351085.9"/>
-    <n v="231177.1"/>
-    <n v="22184"/>
-    <n v="604447"/>
+    <n v="540422"/>
+    <n v="7943"/>
     <n v="1439"/>
-    <n v="7995"/>
-    <x v="42"/>
-    <n v="17.100000000000001"/>
-    <n v="1148"/>
-    <x v="37"/>
-  </r>
-  <r>
-    <s v="TX"/>
-    <x v="1"/>
+    <n v="10"/>
+    <n v="42"/>
+    <n v="17857"/>
+    <n v="27291"/>
+    <x v="38"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="South"/>
     <s v="West South Central"/>
     <n v="637476"/>
     <n v="481609"/>
     <n v="33102"/>
-    <n v="701223.60000000009"/>
-    <n v="529769.9"/>
-    <n v="66204"/>
-    <n v="1297197.5"/>
+    <n v="1152187"/>
+    <n v="180795"/>
     <n v="31071"/>
-    <n v="548347"/>
-    <x v="43"/>
-    <n v="12.1"/>
-    <n v="3353"/>
-    <x v="26"/>
-  </r>
-  <r>
-    <s v="UT"/>
-    <x v="0"/>
+    <n v="367550"/>
+    <n v="2"/>
+    <n v="6947"/>
+    <n v="586365"/>
+    <x v="39"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="West"/>
     <s v="Mountain"/>
     <n v="47401"/>
     <n v="54133"/>
     <n v="1191"/>
-    <n v="52141.100000000006"/>
-    <n v="59546.3"/>
-    <n v="2382"/>
-    <n v="114069.40000000001"/>
+    <n v="102725"/>
+    <n v="7931"/>
     <n v="57396"/>
-    <n v="71015"/>
-    <x v="44"/>
-    <n v="12.9"/>
-    <n v="370"/>
-    <x v="38"/>
-  </r>
-  <r>
-    <s v="VA"/>
-    <x v="1"/>
+    <n v="0"/>
+    <n v="63084"/>
+    <n v="20765"/>
+    <n v="149176"/>
+    <x v="32"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <s v="South"/>
     <s v="South Atlantic"/>
     <n v="295963"/>
     <n v="209975"/>
     <n v="0"/>
-    <n v="325559.30000000005"/>
-    <n v="230972.50000000003"/>
-    <n v="0"/>
-    <n v="556531.80000000005"/>
+    <n v="505938"/>
+    <n v="6925"/>
     <n v="5294"/>
-    <n v="6931"/>
-    <x v="45"/>
-    <n v="11.1"/>
-    <n v="78"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <s v="VT"/>
-    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="1774"/>
+    <n v="13999"/>
+    <x v="40"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <s v="Northeast"/>
     <s v="New England"/>
     <n v="18320"/>
     <n v="18853"/>
     <n v="885"/>
-    <n v="20152"/>
-    <n v="20738.300000000003"/>
-    <n v="1770"/>
-    <n v="42660.3"/>
+    <n v="38058"/>
+    <n v="90140"/>
     <n v="3435"/>
-    <n v="90140"/>
-    <x v="46"/>
-    <n v="12.1"/>
-    <n v="1049"/>
-    <x v="31"/>
-  </r>
-  <r>
-    <s v="WA"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="54235"/>
+    <n v="147810"/>
+    <x v="39"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <s v="West"/>
     <s v="Pacific"/>
     <n v="214106"/>
     <n v="151029"/>
     <n v="8028"/>
-    <n v="235516.6"/>
-    <n v="166131.90000000002"/>
-    <n v="16056"/>
-    <n v="417704.5"/>
+    <n v="373163"/>
+    <n v="16252"/>
     <n v="310"/>
-    <n v="16270"/>
-    <x v="47"/>
-    <n v="9"/>
-    <n v="686"/>
-    <x v="40"/>
-  </r>
-  <r>
-    <s v="WI"/>
-    <x v="3"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="86312"/>
+    <n v="102892"/>
+    <x v="41"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <s v="Midwest"/>
     <s v="East North Central"/>
     <n v="186300"/>
     <n v="159784"/>
     <n v="523"/>
-    <n v="204930.00000000003"/>
-    <n v="175762.40000000002"/>
-    <n v="1046"/>
-    <n v="381738.4"/>
+    <n v="346607"/>
+    <n v="35177"/>
     <n v="374"/>
-    <n v="35499"/>
-    <x v="48"/>
-    <n v="17.5"/>
-    <n v="332"/>
-    <x v="41"/>
-  </r>
-  <r>
-    <s v="WV"/>
-    <x v="1"/>
+    <n v="322"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="35898"/>
+    <x v="15"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <s v="South"/>
     <s v="South Atlantic"/>
     <n v="92124"/>
     <n v="81105"/>
     <n v="5283"/>
-    <n v="101336.40000000001"/>
-    <n v="89215.5"/>
-    <n v="10566"/>
-    <n v="201117.90000000002"/>
+    <n v="178512"/>
+    <n v="712"/>
     <n v="29"/>
-    <n v="713"/>
-    <x v="49"/>
-    <n v="11.4"/>
-    <n v="664"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1185"/>
+    <n v="1927"/>
     <x v="42"/>
-  </r>
-  <r>
-    <s v="WY"/>
-    <x v="0"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <s v="West"/>
     <s v="Mountain"/>
     <n v="22569"/>
     <n v="25815"/>
     <n v="1295"/>
-    <n v="24825.9"/>
-    <n v="28396.500000000004"/>
-    <n v="2590"/>
-    <n v="55812.400000000009"/>
+    <n v="49679"/>
+    <n v="1227"/>
     <n v="26"/>
-    <n v="1753"/>
-    <x v="50"/>
-    <n v="17.399999999999999"/>
-    <n v="101"/>
+    <n v="9"/>
+    <n v="517"/>
+    <n v="18"/>
+    <n v="1797"/>
     <x v="43"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="51"/>
     <m/>
     <m/>
     <m/>
@@ -3142,196 +3326,375 @@
     <m/>
     <m/>
     <m/>
-    <x v="51"/>
     <m/>
     <m/>
-    <x v="34"/>
+    <x v="35"/>
+    <x v="36"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="65" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
-  <location ref="A3:D11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <items count="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{816EE528-5E18-EB4D-91C8-78DB145A349C}" name="PivotTable18" cacheId="85" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="53">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="45">
+        <item x="19"/>
+        <item x="36"/>
+        <item x="30"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="28"/>
+        <item x="21"/>
+        <item x="4"/>
+        <item x="17"/>
+        <item x="41"/>
+        <item x="25"/>
+        <item x="13"/>
+        <item x="27"/>
+        <item x="7"/>
+        <item x="40"/>
+        <item x="42"/>
+        <item x="12"/>
+        <item x="18"/>
+        <item x="34"/>
+        <item x="39"/>
+        <item x="20"/>
+        <item x="8"/>
+        <item x="32"/>
+        <item x="14"/>
+        <item x="31"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="9"/>
         <item x="2"/>
+        <item x="26"/>
+        <item x="38"/>
+        <item x="43"/>
+        <item x="15"/>
+        <item x="37"/>
+        <item x="3"/>
+        <item x="29"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="33"/>
+        <item x="22"/>
+        <item x="16"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
+        <item x="35"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <items count="53">
-        <item x="38"/>
+    <pivotField showAll="0">
+      <items count="50">
+        <item x="37"/>
         <item x="10"/>
+        <item x="43"/>
+        <item x="31"/>
+        <item x="48"/>
+        <item x="39"/>
         <item x="7"/>
-        <item x="0"/>
-        <item x="28"/>
+        <item x="18"/>
         <item x="27"/>
-        <item x="31"/>
-        <item x="17"/>
+        <item x="25"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="46"/>
+        <item x="42"/>
         <item x="15"/>
         <item x="21"/>
-        <item x="49"/>
-        <item x="24"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="34"/>
+        <item x="3"/>
+        <item x="22"/>
+        <item x="47"/>
+        <item x="45"/>
+        <item x="19"/>
+        <item x="33"/>
+        <item x="16"/>
         <item x="5"/>
-        <item x="35"/>
-        <item x="39"/>
-        <item x="50"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="45"/>
-        <item x="12"/>
-        <item x="47"/>
+        <item x="38"/>
+        <item x="29"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item x="44"/>
         <item x="2"/>
         <item x="23"/>
-        <item x="25"/>
-        <item x="22"/>
-        <item x="48"/>
+        <item x="40"/>
+        <item x="20"/>
+        <item x="30"/>
+        <item x="12"/>
         <item x="32"/>
-        <item x="20"/>
+        <item x="35"/>
+        <item x="9"/>
+        <item x="8"/>
         <item x="4"/>
-        <item x="37"/>
-        <item x="46"/>
-        <item x="19"/>
-        <item x="40"/>
-        <item x="44"/>
         <item x="41"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="30"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="26"/>
-        <item x="1"/>
-        <item x="16"/>
-        <item x="43"/>
-        <item x="8"/>
-        <item x="33"/>
-        <item x="3"/>
-        <item x="29"/>
-        <item x="18"/>
-        <item x="51"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <items count="45">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="43"/>
-        <item x="16"/>
-        <item x="24"/>
-        <item x="2"/>
-        <item x="39"/>
-        <item x="15"/>
-        <item x="8"/>
-        <item x="19"/>
-        <item x="23"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="31"/>
         <item x="36"/>
-        <item x="42"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="37"/>
-        <item x="22"/>
-        <item x="38"/>
-        <item x="27"/>
-        <item x="30"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="32"/>
-        <item x="20"/>
-        <item x="41"/>
-        <item x="10"/>
-        <item x="21"/>
-        <item x="5"/>
-        <item x="33"/>
-        <item x="40"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="35"/>
-        <item x="18"/>
-        <item x="9"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="17"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="34"/>
         <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="53">
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
     </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of Total Manufactured" fld="12" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-    <dataField name="Average of Gun Deaths Per 100,000" fld="13" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Brady Score" fld="15" subtotal="average" baseField="0" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Sum of Gun Violence Per 100,000" fld="13" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
     </ext>
@@ -3340,10 +3703,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
-  <location ref="A3:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
-  <pivotFields count="13">
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable15" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+  <location ref="A4:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="3"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
       <items count="53">
         <item x="0"/>
         <item x="1"/>
@@ -3400,25 +3763,16 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1" sortType="descending">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
       <items count="7">
         <item sd="0" x="3"/>
         <item sd="0" x="2"/>
         <item sd="0" x="1"/>
-        <item sd="0" x="4"/>
+        <item h="1" sd="0" x="4"/>
         <item sd="0" x="0"/>
-        <item x="5"/>
+        <item sd="0" x="5"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
       <items count="12">
@@ -3558,32 +3912,77 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
+      <items count="45">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="43"/>
+        <item x="16"/>
+        <item x="24"/>
+        <item x="2"/>
+        <item x="39"/>
+        <item x="15"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="23"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="31"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="37"/>
+        <item x="22"/>
+        <item x="38"/>
+        <item x="27"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="32"/>
+        <item x="20"/>
+        <item x="41"/>
+        <item x="10"/>
+        <item x="21"/>
+        <item x="5"/>
+        <item x="33"/>
+        <item x="40"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="35"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="34"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="3">
     <field x="1"/>
     <field x="2"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="10"/>
-    </i>
-    <i t="default">
       <x v="5"/>
     </i>
     <i t="grand">
@@ -3593,17 +3992,25 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="4">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
   </colItems>
-  <dataFields count="2">
+  <dataFields count="4">
+    <dataField name="Sum of Total Manufactured" fld="12" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
     <dataField name="Sum of Total Estimated Gun Sales" fld="9" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-    <dataField name="Sum of Total Manufactured" fld="12" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Average of Gun Deaths Per 100,000" fld="13" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Brady Score" fld="15" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3910,11 +4317,467 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A83E8-F83E-BE4E-A79A-0FD02FEB141F}">
+  <dimension ref="A3:B56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" start="10" max="53" activeRow="13" previousRow="13" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="1">
+              <x v="18"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="15"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="15">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="15">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="15">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="15">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="15">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="15">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="15">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="15">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="15">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="15">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="15">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="15">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="15">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="15">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="15">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="15">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="15">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="15">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="15">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="15">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="15">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="15">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="15">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="15">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="15">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="15">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="15">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="15">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="15">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="15">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="15">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="15">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="15">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="15">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="15">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="15">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="15">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="15">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="15">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="15">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="15">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="15">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="15">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="15">
+        <v>652.69999999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O65536"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3960,10 +4823,10 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.2">
@@ -4006,10 +4869,10 @@
       <c r="M2">
         <v>193</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="11">
         <v>21.5</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="12">
         <v>1046</v>
       </c>
     </row>
@@ -4053,10 +4916,10 @@
       <c r="M3">
         <v>422394</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="11">
         <v>23.3</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="11">
         <v>177</v>
       </c>
     </row>
@@ -4100,10 +4963,10 @@
       <c r="M4">
         <v>21097</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="11">
         <v>15.2</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="12">
         <v>1094</v>
       </c>
     </row>
@@ -4147,10 +5010,10 @@
       <c r="M5">
         <v>936440</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="11">
         <v>17.8</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="11">
         <v>541</v>
       </c>
     </row>
@@ -4194,10 +5057,10 @@
       <c r="M6">
         <v>90133</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="11">
         <v>7.9</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="12">
         <v>3184</v>
       </c>
     </row>
@@ -4241,10 +5104,10 @@
       <c r="M7">
         <v>1647</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="11">
         <v>14.3</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="11">
         <v>812</v>
       </c>
     </row>
@@ -4288,10 +5151,10 @@
       <c r="M8">
         <v>319498</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="11">
         <v>172</v>
       </c>
     </row>
@@ -4335,10 +5198,10 @@
       <c r="M9">
         <v>48</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="11">
         <v>11</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="11">
         <v>111</v>
       </c>
     </row>
@@ -4382,10 +5245,10 @@
       <c r="M10">
         <v>722363</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="11">
         <v>12.6</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="12">
         <v>2704</v>
       </c>
     </row>
@@ -4429,10 +5292,10 @@
       <c r="M11">
         <v>384544</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="11">
         <v>15</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="12">
         <v>1571</v>
       </c>
     </row>
@@ -4476,10 +5339,10 @@
       <c r="M12">
         <v>42</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="11">
         <v>4.5</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="11">
         <v>66</v>
       </c>
     </row>
@@ -4523,10 +5386,10 @@
       <c r="M13">
         <v>7841</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="11">
         <v>14.6</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="11">
         <v>242</v>
       </c>
     </row>
@@ -4570,10 +5433,10 @@
       <c r="M14">
         <v>23213</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="11">
         <v>11.7</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="12">
         <v>1490</v>
       </c>
     </row>
@@ -4617,10 +5480,10 @@
       <c r="M15">
         <v>206290</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="11">
         <v>15</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="11">
         <v>997</v>
       </c>
     </row>
@@ -4664,10 +5527,10 @@
       <c r="M16">
         <v>5743</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="11">
         <v>9.1999999999999993</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="11">
         <v>288</v>
       </c>
     </row>
@@ -4711,10 +5574,10 @@
       <c r="M17">
         <v>3916</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="11">
         <v>13.4</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="11">
         <v>383</v>
       </c>
     </row>
@@ -4758,10 +5621,10 @@
       <c r="M18">
         <v>460181</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="11">
         <v>17.5</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="11">
         <v>772</v>
       </c>
     </row>
@@ -4805,10 +5668,10 @@
       <c r="M19">
         <v>311</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="11">
         <v>21.3</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="11">
         <v>987</v>
       </c>
     </row>
@@ -4852,10 +5715,10 @@
       <c r="M20">
         <v>2634040</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="11">
         <v>8.3000000000000007</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20" s="11">
         <v>123</v>
       </c>
     </row>
@@ -4899,10 +5762,10 @@
       <c r="M21">
         <v>97867</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="11">
         <v>11.9</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="11">
         <v>707</v>
       </c>
     </row>
@@ -4946,10 +5809,10 @@
       <c r="M22">
         <v>65274</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="11">
         <v>3.4</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="11">
         <v>242</v>
       </c>
     </row>
@@ -4993,10 +5856,10 @@
       <c r="M23">
         <v>2611</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="11">
         <v>12.3</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O23" s="12">
         <v>1230</v>
       </c>
     </row>
@@ -5040,10 +5903,10 @@
       <c r="M24">
         <v>42769</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="11">
         <v>7.6</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="11">
         <v>432</v>
       </c>
     </row>
@@ -5087,10 +5950,10 @@
       <c r="M25">
         <v>39183</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="11">
         <v>19.899999999999999</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="11">
         <v>587</v>
       </c>
     </row>
@@ -5134,10 +5997,10 @@
       <c r="M26">
         <v>1575</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="11">
         <v>19</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26" s="12">
         <v>1144</v>
       </c>
     </row>
@@ -5181,10 +6044,10 @@
       <c r="M27">
         <v>20841</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="11">
         <v>18.899999999999999</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O27" s="11">
         <v>194</v>
       </c>
     </row>
@@ -5228,10 +6091,10 @@
       <c r="M28">
         <v>427524</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N28" s="11">
         <v>9.1</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O28" s="11">
         <v>171</v>
       </c>
     </row>
@@ -5275,10 +6138,10 @@
       <c r="M29">
         <v>314</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="11">
         <v>16.8</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O29" s="11">
         <v>498</v>
       </c>
     </row>
@@ -5322,10 +6185,10 @@
       <c r="M30">
         <v>547</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="11">
         <v>9.3000000000000007</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O30" s="11">
         <v>132</v>
       </c>
     </row>
@@ -5369,10 +6232,10 @@
       <c r="M31">
         <v>1493803</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N31" s="11">
         <v>5.5</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O31" s="11">
         <v>485</v>
       </c>
     </row>
@@ -5416,10 +6279,10 @@
       <c r="M32">
         <v>258606</v>
       </c>
-      <c r="N32" s="18">
+      <c r="N32" s="11">
         <v>18.100000000000001</v>
       </c>
-      <c r="O32" s="18">
+      <c r="O32" s="11">
         <v>383</v>
       </c>
     </row>
@@ -5463,10 +6326,10 @@
       <c r="M33">
         <v>200</v>
       </c>
-      <c r="N33" s="18">
+      <c r="N33" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="O33" s="18">
+      <c r="O33" s="11">
         <v>900</v>
       </c>
     </row>
@@ -5510,10 +6373,10 @@
       <c r="M34">
         <v>67752</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N34" s="11">
         <v>13.7</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O34" s="12">
         <v>1409</v>
       </c>
     </row>
@@ -5557,10 +6420,10 @@
       <c r="M35">
         <v>888124</v>
       </c>
-      <c r="N35" s="18">
+      <c r="N35" s="11">
         <v>11.9</v>
       </c>
-      <c r="O35" s="18">
+      <c r="O35" s="11">
         <v>90</v>
       </c>
     </row>
@@ -5604,10 +6467,10 @@
       <c r="M36">
         <v>231288</v>
       </c>
-      <c r="N36" s="18">
+      <c r="N36" s="11">
         <v>12.9</v>
       </c>
-      <c r="O36" s="19">
+      <c r="O36" s="12">
         <v>1524</v>
       </c>
     </row>
@@ -5651,10 +6514,10 @@
       <c r="M37">
         <v>3191</v>
       </c>
-      <c r="N37" s="18">
+      <c r="N37" s="11">
         <v>19.600000000000001</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O37" s="11">
         <v>766</v>
       </c>
     </row>
@@ -5698,14 +6561,14 @@
       <c r="M38">
         <v>11168</v>
       </c>
-      <c r="N38" s="18">
+      <c r="N38" s="11">
         <v>11.9</v>
       </c>
-      <c r="O38" s="18">
+      <c r="O38" s="11">
         <v>513</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -5745,8 +6608,14 @@
       <c r="M39">
         <v>85589</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="N39" s="11">
+        <v>12</v>
+      </c>
+      <c r="O39" s="12">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -5785,12 +6654,6 @@
       </c>
       <c r="M40">
         <v>12</v>
-      </c>
-      <c r="N40" s="18">
-        <v>12</v>
-      </c>
-      <c r="O40" s="19">
-        <v>1555</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.2">
@@ -5833,10 +6696,10 @@
       <c r="M41">
         <v>1558</v>
       </c>
-      <c r="N41" s="18">
+      <c r="N41" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O41" s="18">
+      <c r="O41" s="11">
         <v>49</v>
       </c>
     </row>
@@ -5880,10 +6743,10 @@
       <c r="M42">
         <v>265299</v>
       </c>
-      <c r="N42" s="18">
+      <c r="N42" s="11">
         <v>17.7</v>
       </c>
-      <c r="O42" s="18">
+      <c r="O42" s="11">
         <v>891</v>
       </c>
     </row>
@@ -5927,10 +6790,10 @@
       <c r="M43">
         <v>185257</v>
       </c>
-      <c r="N43" s="18">
+      <c r="N43" s="11">
         <v>13.4</v>
       </c>
-      <c r="O43" s="18">
+      <c r="O43" s="11">
         <v>108</v>
       </c>
     </row>
@@ -5974,10 +6837,10 @@
       <c r="M44">
         <v>27291</v>
       </c>
-      <c r="N44" s="18">
+      <c r="N44" s="11">
         <v>17.100000000000001</v>
       </c>
-      <c r="O44" s="19">
+      <c r="O44" s="12">
         <v>1148</v>
       </c>
     </row>
@@ -6021,10 +6884,10 @@
       <c r="M45">
         <v>586365</v>
       </c>
-      <c r="N45" s="18">
+      <c r="N45" s="11">
         <v>12.1</v>
       </c>
-      <c r="O45" s="19">
+      <c r="O45" s="12">
         <v>3353</v>
       </c>
     </row>
@@ -6068,10 +6931,10 @@
       <c r="M46">
         <v>149176</v>
       </c>
-      <c r="N46" s="18">
+      <c r="N46" s="11">
         <v>12.9</v>
       </c>
-      <c r="O46" s="18">
+      <c r="O46" s="11">
         <v>370</v>
       </c>
     </row>
@@ -6115,10 +6978,10 @@
       <c r="M47">
         <v>13999</v>
       </c>
-      <c r="N47" s="18">
+      <c r="N47" s="11">
         <v>11.1</v>
       </c>
-      <c r="O47" s="18">
+      <c r="O47" s="11">
         <v>78</v>
       </c>
     </row>
@@ -6162,10 +7025,10 @@
       <c r="M48">
         <v>147810</v>
       </c>
-      <c r="N48" s="18">
+      <c r="N48" s="11">
         <v>12.1</v>
       </c>
-      <c r="O48" s="19">
+      <c r="O48" s="12">
         <v>1049</v>
       </c>
     </row>
@@ -6209,10 +7072,10 @@
       <c r="M49">
         <v>102892</v>
       </c>
-      <c r="N49" s="18">
+      <c r="N49" s="11">
         <v>9</v>
       </c>
-      <c r="O49" s="18">
+      <c r="O49" s="11">
         <v>686</v>
       </c>
     </row>
@@ -6256,10 +7119,10 @@
       <c r="M50">
         <v>35898</v>
       </c>
-      <c r="N50" s="18">
+      <c r="N50" s="11">
         <v>17.5</v>
       </c>
-      <c r="O50" s="18">
+      <c r="O50" s="11">
         <v>332</v>
       </c>
     </row>
@@ -6303,10 +7166,10 @@
       <c r="M51">
         <v>1927</v>
       </c>
-      <c r="N51" s="18">
+      <c r="N51" s="11">
         <v>11.4</v>
       </c>
-      <c r="O51" s="18">
+      <c r="O51" s="11">
         <v>664</v>
       </c>
     </row>
@@ -6350,10 +7213,10 @@
       <c r="M52">
         <v>1797</v>
       </c>
-      <c r="N52" s="18">
+      <c r="N52" s="11">
         <v>17.399999999999999</v>
       </c>
-      <c r="O52" s="18">
+      <c r="O52" s="11">
         <v>101</v>
       </c>
     </row>
@@ -6362,146 +7225,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="9">
-        <v>6.5497296686014048E-2</v>
-      </c>
-      <c r="C5" s="21">
-        <v>13.961538461538462</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.26923076923076922</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="11">
-        <v>0.52668253140988486</v>
-      </c>
-      <c r="C6" s="22">
-        <v>8.8888888888888893</v>
-      </c>
-      <c r="D6" s="12">
-        <v>34.611111111111114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="11">
-        <v>0.29366031658095715</v>
-      </c>
-      <c r="C7" s="22">
-        <v>15.02</v>
-      </c>
-      <c r="D7" s="12">
-        <v>-8.1333333333333329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="11">
-        <v>1.1252477654923644E-6</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="11">
-        <v>0.11415873007537847</v>
-      </c>
-      <c r="C9" s="22">
-        <v>12.761538461538462</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.30769230769230771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="11">
-        <v>0</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="13">
-        <v>1</v>
-      </c>
-      <c r="C11" s="23">
-        <v>13.053999999999998</v>
-      </c>
-      <c r="D11" s="14">
-        <v>3.94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:IV65536"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6552,13 +7282,13 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.2">
@@ -6581,19 +7311,19 @@
         <v>2316</v>
       </c>
       <c r="G2">
-        <f>(D2*1.1)</f>
+        <f t="shared" ref="G2:G33" si="0">(D2*1.1)</f>
         <v>41240.100000000006</v>
       </c>
       <c r="H2">
-        <f>(E2*1.1)</f>
+        <f t="shared" ref="H2:H33" si="1">(E2*1.1)</f>
         <v>40575.700000000004</v>
       </c>
       <c r="I2">
-        <f>(F2*2)</f>
+        <f t="shared" ref="I2:I38" si="2">(F2*2)</f>
         <v>4632</v>
       </c>
       <c r="J2">
-        <f>SUM(G2:I2)</f>
+        <f t="shared" ref="J2:J33" si="3">SUM(G2:I2)</f>
         <v>86447.800000000017</v>
       </c>
       <c r="K2">
@@ -6605,10 +7335,10 @@
       <c r="M2">
         <v>115</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="11">
         <v>21.5</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="12">
         <v>1046</v>
       </c>
       <c r="P2">
@@ -6635,19 +7365,19 @@
         <v>6545</v>
       </c>
       <c r="G3">
-        <f>(D3*1.1)</f>
+        <f t="shared" si="0"/>
         <v>168435.30000000002</v>
       </c>
       <c r="H3">
-        <f>(E3*1.1)</f>
+        <f t="shared" si="1"/>
         <v>134159.30000000002</v>
       </c>
       <c r="I3">
-        <f>(F3*2)</f>
+        <f t="shared" si="2"/>
         <v>13090</v>
       </c>
       <c r="J3">
-        <f>SUM(G3:I3)</f>
+        <f t="shared" si="3"/>
         <v>315684.60000000003</v>
       </c>
       <c r="K3">
@@ -6659,16 +7389,16 @@
       <c r="M3">
         <v>421966</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="11">
         <v>23.3</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="11">
         <v>177</v>
       </c>
       <c r="P3">
         <v>-18</v>
       </c>
-      <c r="Q3" s="17"/>
+      <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -6690,19 +7420,19 @@
         <v>4400</v>
       </c>
       <c r="G4">
-        <f>(D4*1.1)</f>
+        <f t="shared" si="0"/>
         <v>88268.400000000009</v>
       </c>
       <c r="H4">
-        <f>(E4*1.1)</f>
+        <f t="shared" si="1"/>
         <v>90332.000000000015</v>
       </c>
       <c r="I4">
-        <f>(F4*2)</f>
+        <f t="shared" si="2"/>
         <v>8800</v>
       </c>
       <c r="J4">
-        <f>SUM(G4:I4)</f>
+        <f t="shared" si="3"/>
         <v>187400.40000000002</v>
       </c>
       <c r="K4">
@@ -6714,16 +7444,16 @@
       <c r="M4">
         <v>16781</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="11">
         <v>15.2</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="12">
         <v>1094</v>
       </c>
       <c r="P4">
         <v>-24</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -6745,19 +7475,19 @@
         <v>7908</v>
       </c>
       <c r="G5">
-        <f>(D5*1.1)</f>
+        <f t="shared" si="0"/>
         <v>183462.40000000002</v>
       </c>
       <c r="H5">
-        <f>(E5*1.1)</f>
+        <f t="shared" si="1"/>
         <v>119886.8</v>
       </c>
       <c r="I5">
-        <f>(F5*2)</f>
+        <f t="shared" si="2"/>
         <v>15816</v>
       </c>
       <c r="J5">
-        <f>SUM(G5:I5)</f>
+        <f t="shared" si="3"/>
         <v>319165.2</v>
       </c>
       <c r="K5">
@@ -6769,16 +7499,16 @@
       <c r="M5">
         <v>917142</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="11">
         <v>17.8</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="11">
         <v>541</v>
       </c>
       <c r="P5">
         <v>-39</v>
       </c>
-      <c r="Q5" s="17"/>
+      <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -6800,19 +7530,19 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <f>(D6*1.1)</f>
+        <f t="shared" si="0"/>
         <v>616390.5</v>
       </c>
       <c r="H6">
-        <f>(E6*1.1)</f>
+        <f t="shared" si="1"/>
         <v>610005</v>
       </c>
       <c r="I6">
-        <f>(F6*2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUM(G6:I6)</f>
+        <f t="shared" si="3"/>
         <v>1226395.5</v>
       </c>
       <c r="K6">
@@ -6824,16 +7554,16 @@
       <c r="M6">
         <v>71984</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="11">
         <v>7.9</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="12">
         <v>3184</v>
       </c>
       <c r="P6">
         <v>76</v>
       </c>
-      <c r="Q6" s="17"/>
+      <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -6855,19 +7585,19 @@
         <v>14293</v>
       </c>
       <c r="G7">
-        <f>(D7*1.1)</f>
+        <f t="shared" si="0"/>
         <v>266752.2</v>
       </c>
       <c r="H7">
-        <f>(E7*1.1)</f>
+        <f t="shared" si="1"/>
         <v>198028.6</v>
       </c>
       <c r="I7">
-        <f>(F7*2)</f>
+        <f t="shared" si="2"/>
         <v>28586</v>
       </c>
       <c r="J7">
-        <f>SUM(G7:I7)</f>
+        <f t="shared" si="3"/>
         <v>493366.80000000005</v>
       </c>
       <c r="K7">
@@ -6879,16 +7609,16 @@
       <c r="M7">
         <v>987</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="11">
         <v>14.3</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="11">
         <v>812</v>
       </c>
       <c r="P7">
         <v>22</v>
       </c>
-      <c r="Q7" s="17"/>
+      <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -6910,19 +7640,19 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <f>(D8*1.1)</f>
+        <f t="shared" si="0"/>
         <v>134612.5</v>
       </c>
       <c r="H8">
-        <f>(E8*1.1)</f>
+        <f t="shared" si="1"/>
         <v>48194.3</v>
       </c>
       <c r="I8">
-        <f>(F8*2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>SUM(G8:I8)</f>
+        <f t="shared" si="3"/>
         <v>182806.8</v>
       </c>
       <c r="K8">
@@ -6934,16 +7664,16 @@
       <c r="M8">
         <v>319320</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="11">
         <v>172</v>
       </c>
       <c r="P8">
         <v>73</v>
       </c>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -6965,19 +7695,19 @@
         <v>1034</v>
       </c>
       <c r="G9">
-        <f>(D9*1.1)</f>
+        <f t="shared" si="0"/>
         <v>28131.4</v>
       </c>
       <c r="H9">
-        <f>(E9*1.1)</f>
+        <f t="shared" si="1"/>
         <v>23920.600000000002</v>
       </c>
       <c r="I9">
-        <f>(F9*2)</f>
+        <f t="shared" si="2"/>
         <v>2068</v>
       </c>
       <c r="J9">
-        <f>SUM(G9:I9)</f>
+        <f t="shared" si="3"/>
         <v>54120</v>
       </c>
       <c r="K9">
@@ -6989,16 +7719,16 @@
       <c r="M9">
         <v>48</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="11">
         <v>11</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="11">
         <v>111</v>
       </c>
       <c r="P9">
         <v>41</v>
       </c>
-      <c r="Q9" s="17"/>
+      <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -7020,19 +7750,19 @@
         <v>25142</v>
       </c>
       <c r="G10">
-        <f>(D10*1.1)</f>
+        <f t="shared" si="0"/>
         <v>728538.8</v>
       </c>
       <c r="H10">
-        <f>(E10*1.1)</f>
+        <f t="shared" si="1"/>
         <v>347855.2</v>
       </c>
       <c r="I10">
-        <f>(F10*2)</f>
+        <f t="shared" si="2"/>
         <v>50284</v>
       </c>
       <c r="J10">
-        <f>SUM(G10:I10)</f>
+        <f t="shared" si="3"/>
         <v>1126678</v>
       </c>
       <c r="K10">
@@ -7044,16 +7774,16 @@
       <c r="M10">
         <v>623317</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="11">
         <v>12.6</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="12">
         <v>2704</v>
       </c>
       <c r="P10">
         <v>-20.5</v>
       </c>
-      <c r="Q10" s="17"/>
+      <c r="Q10" s="10"/>
     </row>
     <row r="11" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -7075,19 +7805,19 @@
         <v>7478</v>
       </c>
       <c r="G11">
-        <f>(D11*1.1)</f>
+        <f t="shared" si="0"/>
         <v>214280.00000000003</v>
       </c>
       <c r="H11">
-        <f>(E11*1.1)</f>
+        <f t="shared" si="1"/>
         <v>141104.70000000001</v>
       </c>
       <c r="I11">
-        <f>(F11*2)</f>
+        <f t="shared" si="2"/>
         <v>14956</v>
       </c>
       <c r="J11">
-        <f>SUM(G11:I11)</f>
+        <f t="shared" si="3"/>
         <v>370340.70000000007</v>
       </c>
       <c r="K11">
@@ -7099,16 +7829,16 @@
       <c r="M11">
         <v>383474</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="11">
         <v>15</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="12">
         <v>1571</v>
       </c>
       <c r="P11">
         <v>-18</v>
       </c>
-      <c r="Q11" s="17"/>
+      <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -7130,19 +7860,19 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <f>(D12*1.1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>(E12*1.1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>(F12*2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>SUM(G12:I12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12">
@@ -7154,16 +7884,16 @@
       <c r="M12">
         <v>42</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="11">
         <v>4.5</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="11">
         <v>66</v>
       </c>
       <c r="P12">
         <v>62</v>
       </c>
-      <c r="Q12" s="17"/>
+      <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -7185,19 +7915,19 @@
         <v>70</v>
       </c>
       <c r="G13">
-        <f>(D13*1.1)</f>
+        <f t="shared" si="0"/>
         <v>3069.0000000000005</v>
       </c>
       <c r="H13">
-        <f>(E13*1.1)</f>
+        <f t="shared" si="1"/>
         <v>38779.4</v>
       </c>
       <c r="I13">
-        <f>(F13*2)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="J13">
-        <f>SUM(G13:I13)</f>
+        <f t="shared" si="3"/>
         <v>41988.4</v>
       </c>
       <c r="K13">
@@ -7209,16 +7939,16 @@
       <c r="M13">
         <v>6355</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="11">
         <v>14.6</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="11">
         <v>242</v>
       </c>
       <c r="P13">
         <v>8</v>
       </c>
-      <c r="Q13" s="17"/>
+      <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -7240,19 +7970,19 @@
         <v>2406</v>
       </c>
       <c r="G14">
-        <f>(D14*1.1)</f>
+        <f t="shared" si="0"/>
         <v>51175.3</v>
       </c>
       <c r="H14">
-        <f>(E14*1.1)</f>
+        <f t="shared" si="1"/>
         <v>61150.100000000006</v>
       </c>
       <c r="I14">
-        <f>(F14*2)</f>
+        <f t="shared" si="2"/>
         <v>4812</v>
       </c>
       <c r="J14">
-        <f>SUM(G14:I14)</f>
+        <f t="shared" si="3"/>
         <v>117137.40000000001</v>
       </c>
       <c r="K14">
@@ -7264,16 +7994,16 @@
       <c r="M14">
         <v>13238</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="11">
         <v>11.7</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="12">
         <v>1490</v>
       </c>
       <c r="P14">
         <v>-19</v>
       </c>
-      <c r="Q14" s="17"/>
+      <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -7295,19 +8025,19 @@
         <v>12133</v>
       </c>
       <c r="G15">
-        <f>(D15*1.1)</f>
+        <f t="shared" si="0"/>
         <v>387652.10000000003</v>
       </c>
       <c r="H15">
-        <f>(E15*1.1)</f>
+        <f t="shared" si="1"/>
         <v>194980.50000000003</v>
       </c>
       <c r="I15">
-        <f>(F15*2)</f>
+        <f t="shared" si="2"/>
         <v>24266</v>
       </c>
       <c r="J15">
-        <f>SUM(G15:I15)</f>
+        <f t="shared" si="3"/>
         <v>606898.60000000009</v>
       </c>
       <c r="K15">
@@ -7319,16 +8049,16 @@
       <c r="M15">
         <v>202472</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="11">
         <v>15</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="11">
         <v>997</v>
       </c>
       <c r="P15">
         <v>40.5</v>
       </c>
-      <c r="Q15" s="17"/>
+      <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -7350,19 +8080,19 @@
         <v>9082</v>
       </c>
       <c r="G16">
-        <f>(D16*1.1)</f>
+        <f t="shared" si="0"/>
         <v>306000.2</v>
       </c>
       <c r="H16">
-        <f>(E16*1.1)</f>
+        <f t="shared" si="1"/>
         <v>194939.80000000002</v>
       </c>
       <c r="I16">
-        <f>(F16*2)</f>
+        <f t="shared" si="2"/>
         <v>18164</v>
       </c>
       <c r="J16">
-        <f>SUM(G16:I16)</f>
+        <f t="shared" si="3"/>
         <v>519104</v>
       </c>
       <c r="K16">
@@ -7374,16 +8104,16 @@
       <c r="M16">
         <v>3104</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="11">
         <v>9.1999999999999993</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="11">
         <v>288</v>
       </c>
       <c r="P16">
         <v>-14.5</v>
       </c>
-      <c r="Q16" s="17"/>
+      <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -7405,19 +8135,19 @@
         <v>4271</v>
       </c>
       <c r="G17">
-        <f>(D17*1.1)</f>
+        <f t="shared" si="0"/>
         <v>89227.6</v>
       </c>
       <c r="H17">
-        <f>(E17*1.1)</f>
+        <f t="shared" si="1"/>
         <v>81122.8</v>
       </c>
       <c r="I17">
-        <f>(F17*2)</f>
+        <f t="shared" si="2"/>
         <v>8542</v>
       </c>
       <c r="J17">
-        <f>SUM(G17:I17)</f>
+        <f t="shared" si="3"/>
         <v>178892.40000000002</v>
       </c>
       <c r="K17">
@@ -7429,16 +8159,16 @@
       <c r="M17">
         <v>416</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="11">
         <v>13.4</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="11">
         <v>383</v>
       </c>
       <c r="P17">
         <v>-12</v>
       </c>
-      <c r="Q17" s="17"/>
+      <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -7460,19 +8190,19 @@
         <v>6943</v>
       </c>
       <c r="G18">
-        <f>(D18*1.1)</f>
+        <f t="shared" si="0"/>
         <v>154793.1</v>
       </c>
       <c r="H18">
-        <f>(E18*1.1)</f>
+        <f t="shared" si="1"/>
         <v>119933.00000000001</v>
       </c>
       <c r="I18">
-        <f>(F18*2)</f>
+        <f t="shared" si="2"/>
         <v>13886</v>
       </c>
       <c r="J18">
-        <f>SUM(G18:I18)</f>
+        <f t="shared" si="3"/>
         <v>288612.10000000003</v>
       </c>
       <c r="K18">
@@ -7484,16 +8214,16 @@
       <c r="M18">
         <v>458639</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="11">
         <v>17.5</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="11">
         <v>772</v>
       </c>
       <c r="P18">
         <v>-22</v>
       </c>
-      <c r="Q18" s="17"/>
+      <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -7515,19 +8245,19 @@
         <v>8609</v>
       </c>
       <c r="G19">
-        <f>(D19*1.1)</f>
+        <f t="shared" si="0"/>
         <v>188746.80000000002</v>
       </c>
       <c r="H19">
-        <f>(E19*1.1)</f>
+        <f t="shared" si="1"/>
         <v>153034.20000000001</v>
       </c>
       <c r="I19">
-        <f>(F19*2)</f>
+        <f t="shared" si="2"/>
         <v>17218</v>
       </c>
       <c r="J19">
-        <f>SUM(G19:I19)</f>
+        <f t="shared" si="3"/>
         <v>358999</v>
       </c>
       <c r="K19">
@@ -7539,16 +8269,16 @@
       <c r="M19">
         <v>272</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="11">
         <v>21.3</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="11">
         <v>987</v>
       </c>
       <c r="P19">
         <v>-27</v>
       </c>
-      <c r="Q19" s="17"/>
+      <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -7570,19 +8300,19 @@
         <v>2480</v>
       </c>
       <c r="G20">
-        <f>(D20*1.1)</f>
+        <f t="shared" si="0"/>
         <v>83574.700000000012</v>
       </c>
       <c r="H20">
-        <f>(E20*1.1)</f>
+        <f t="shared" si="1"/>
         <v>46124.100000000006</v>
       </c>
       <c r="I20">
-        <f>(F20*2)</f>
+        <f t="shared" si="2"/>
         <v>4960</v>
       </c>
       <c r="J20">
-        <f>SUM(G20:I20)</f>
+        <f t="shared" si="3"/>
         <v>134658.80000000002</v>
       </c>
       <c r="K20">
@@ -7594,16 +8324,16 @@
       <c r="M20">
         <v>2508892</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="11">
         <v>8.3000000000000007</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20" s="11">
         <v>123</v>
       </c>
       <c r="P20">
         <v>70</v>
       </c>
-      <c r="Q20" s="17"/>
+      <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -7625,19 +8355,19 @@
         <v>337</v>
       </c>
       <c r="G21">
-        <f>(D21*1.1)</f>
+        <f t="shared" si="0"/>
         <v>57535.500000000007</v>
       </c>
       <c r="H21">
-        <f>(E21*1.1)</f>
+        <f t="shared" si="1"/>
         <v>79081.200000000012</v>
       </c>
       <c r="I21">
-        <f>(F21*2)</f>
+        <f t="shared" si="2"/>
         <v>674</v>
       </c>
       <c r="J21">
-        <f>SUM(G21:I21)</f>
+        <f t="shared" si="3"/>
         <v>137290.70000000001</v>
       </c>
       <c r="K21">
@@ -7649,16 +8379,16 @@
       <c r="M21">
         <v>96411</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="11">
         <v>11.9</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="11">
         <v>707</v>
       </c>
       <c r="P21">
         <v>56</v>
       </c>
-      <c r="Q21" s="17"/>
+      <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -7680,19 +8410,19 @@
         <v>2458</v>
       </c>
       <c r="G22">
-        <f>(D22*1.1)</f>
+        <f t="shared" si="0"/>
         <v>53729.500000000007</v>
       </c>
       <c r="H22">
-        <f>(E22*1.1)</f>
+        <f t="shared" si="1"/>
         <v>51458.000000000007</v>
       </c>
       <c r="I22">
-        <f>(F22*2)</f>
+        <f t="shared" si="2"/>
         <v>4916</v>
       </c>
       <c r="J22">
-        <f>SUM(G22:I22)</f>
+        <f t="shared" si="3"/>
         <v>110103.50000000001</v>
       </c>
       <c r="K22">
@@ -7704,16 +8434,16 @@
       <c r="M22">
         <v>65260</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="11">
         <v>3.4</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="11">
         <v>242</v>
       </c>
       <c r="P22">
         <v>-20</v>
       </c>
-      <c r="Q22" s="17"/>
+      <c r="Q22" s="10"/>
     </row>
     <row r="23" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -7735,19 +8465,19 @@
         <v>2815</v>
       </c>
       <c r="G23">
-        <f>(D23*1.1)</f>
+        <f t="shared" si="0"/>
         <v>181365.80000000002</v>
       </c>
       <c r="H23">
-        <f>(E23*1.1)</f>
+        <f t="shared" si="1"/>
         <v>141997.90000000002</v>
       </c>
       <c r="I23">
-        <f>(F23*2)</f>
+        <f t="shared" si="2"/>
         <v>5630</v>
       </c>
       <c r="J23">
-        <f>SUM(G23:I23)</f>
+        <f t="shared" si="3"/>
         <v>328993.70000000007</v>
       </c>
       <c r="K23">
@@ -7759,16 +8489,16 @@
       <c r="M23">
         <v>708</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="11">
         <v>12.3</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O23" s="12">
         <v>1230</v>
       </c>
       <c r="P23">
         <v>3</v>
       </c>
-      <c r="Q23" s="17"/>
+      <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -7790,19 +8520,19 @@
         <v>5046</v>
       </c>
       <c r="G24">
-        <f>(D24*1.1)</f>
+        <f t="shared" si="0"/>
         <v>147358.20000000001</v>
       </c>
       <c r="H24">
-        <f>(E24*1.1)</f>
+        <f t="shared" si="1"/>
         <v>157897.30000000002</v>
       </c>
       <c r="I24">
-        <f>(F24*2)</f>
+        <f t="shared" si="2"/>
         <v>10092</v>
       </c>
       <c r="J24">
-        <f>SUM(G24:I24)</f>
+        <f t="shared" si="3"/>
         <v>315347.5</v>
       </c>
       <c r="K24">
@@ -7814,16 +8544,16 @@
       <c r="M24">
         <v>24526</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="11">
         <v>7.6</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="11">
         <v>432</v>
       </c>
       <c r="P24">
         <v>12.5</v>
       </c>
-      <c r="Q24" s="17"/>
+      <c r="Q24" s="10"/>
     </row>
     <row r="25" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -7845,19 +8575,19 @@
         <v>12753</v>
       </c>
       <c r="G25">
-        <f>(D25*1.1)</f>
+        <f t="shared" si="0"/>
         <v>302229.40000000002</v>
       </c>
       <c r="H25">
-        <f>(E25*1.1)</f>
+        <f t="shared" si="1"/>
         <v>222978.80000000002</v>
       </c>
       <c r="I25">
-        <f>(F25*2)</f>
+        <f t="shared" si="2"/>
         <v>25506</v>
       </c>
       <c r="J25">
-        <f>SUM(G25:I25)</f>
+        <f t="shared" si="3"/>
         <v>550714.20000000007</v>
       </c>
       <c r="K25">
@@ -7869,16 +8599,16 @@
       <c r="M25">
         <v>17592</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="11">
         <v>19.899999999999999</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="11">
         <v>587</v>
       </c>
       <c r="P25">
         <v>-9</v>
       </c>
-      <c r="Q25" s="17"/>
+      <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -7900,19 +8630,19 @@
         <v>5263</v>
       </c>
       <c r="G26">
-        <f>(D26*1.1)</f>
+        <f t="shared" si="0"/>
         <v>130955.00000000001</v>
       </c>
       <c r="H26">
-        <f>(E26*1.1)</f>
+        <f t="shared" si="1"/>
         <v>102104.20000000001</v>
       </c>
       <c r="I26">
-        <f>(F26*2)</f>
+        <f t="shared" si="2"/>
         <v>10526</v>
       </c>
       <c r="J26">
-        <f>SUM(G26:I26)</f>
+        <f t="shared" si="3"/>
         <v>243585.2</v>
       </c>
       <c r="K26">
@@ -7924,16 +8654,16 @@
       <c r="M26">
         <v>946</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="11">
         <v>19</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26" s="12">
         <v>1144</v>
       </c>
       <c r="P26">
         <v>-19.5</v>
       </c>
-      <c r="Q26" s="17"/>
+      <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -7955,19 +8685,19 @@
         <v>2678</v>
       </c>
       <c r="G27">
-        <f>(D27*1.1)</f>
+        <f t="shared" si="0"/>
         <v>41301.700000000004</v>
       </c>
       <c r="H27">
-        <f>(E27*1.1)</f>
+        <f t="shared" si="1"/>
         <v>62517.4</v>
       </c>
       <c r="I27">
-        <f>(F27*2)</f>
+        <f t="shared" si="2"/>
         <v>5356</v>
       </c>
       <c r="J27">
-        <f>SUM(G27:I27)</f>
+        <f t="shared" si="3"/>
         <v>109175.1</v>
       </c>
       <c r="K27">
@@ -7979,16 +8709,16 @@
       <c r="M27">
         <v>18635</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="11">
         <v>18.899999999999999</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O27" s="11">
         <v>194</v>
       </c>
       <c r="P27">
         <v>-25</v>
       </c>
-      <c r="Q27" s="17"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -8010,19 +8740,19 @@
         <v>2812</v>
       </c>
       <c r="G28">
-        <f>(D28*1.1)</f>
+        <f t="shared" si="0"/>
         <v>18254.5</v>
       </c>
       <c r="H28">
-        <f>(E28*1.1)</f>
+        <f t="shared" si="1"/>
         <v>194610.90000000002</v>
       </c>
       <c r="I28">
-        <f>(F28*2)</f>
+        <f t="shared" si="2"/>
         <v>5624</v>
       </c>
       <c r="J28">
-        <f>SUM(G28:I28)</f>
+        <f t="shared" si="3"/>
         <v>218489.40000000002</v>
       </c>
       <c r="K28">
@@ -8034,16 +8764,16 @@
       <c r="M28">
         <v>400605</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N28" s="11">
         <v>9.1</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O28" s="11">
         <v>171</v>
       </c>
       <c r="P28">
         <v>-2.5</v>
       </c>
-      <c r="Q28" s="17"/>
+      <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -8065,19 +8795,19 @@
         <v>972</v>
       </c>
       <c r="G29">
-        <f>(D29*1.1)</f>
+        <f t="shared" si="0"/>
         <v>21972.5</v>
       </c>
       <c r="H29">
-        <f>(E29*1.1)</f>
+        <f t="shared" si="1"/>
         <v>37414.300000000003</v>
       </c>
       <c r="I29">
-        <f>(F29*2)</f>
+        <f t="shared" si="2"/>
         <v>1944</v>
       </c>
       <c r="J29">
-        <f>SUM(G29:I29)</f>
+        <f t="shared" si="3"/>
         <v>61330.8</v>
       </c>
       <c r="K29">
@@ -8089,16 +8819,16 @@
       <c r="M29">
         <v>194</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="11">
         <v>16.8</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O29" s="11">
         <v>498</v>
       </c>
       <c r="P29">
         <v>-3</v>
       </c>
-      <c r="Q29" s="17"/>
+      <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -8120,19 +8850,19 @@
         <v>82</v>
       </c>
       <c r="G30">
-        <f>(D30*1.1)</f>
+        <f t="shared" si="0"/>
         <v>1888.7</v>
       </c>
       <c r="H30">
-        <f>(E30*1.1)</f>
+        <f t="shared" si="1"/>
         <v>29143.4</v>
       </c>
       <c r="I30">
-        <f>(F30*2)</f>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="J30">
-        <f>SUM(G30:I30)</f>
+        <f t="shared" si="3"/>
         <v>31196.100000000002</v>
       </c>
       <c r="K30">
@@ -8144,16 +8874,16 @@
       <c r="M30">
         <v>169</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="11">
         <v>9.3000000000000007</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O30" s="11">
         <v>132</v>
       </c>
       <c r="P30">
         <v>3</v>
       </c>
-      <c r="Q30" s="17"/>
+      <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -8175,19 +8905,19 @@
         <v>55</v>
       </c>
       <c r="G31">
-        <f>(D31*1.1)</f>
+        <f t="shared" si="0"/>
         <v>75381.900000000009</v>
       </c>
       <c r="H31">
-        <f>(E31*1.1)</f>
+        <f t="shared" si="1"/>
         <v>49149.100000000006</v>
       </c>
       <c r="I31">
-        <f>(F31*2)</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="J31">
-        <f>SUM(G31:I31)</f>
+        <f t="shared" si="3"/>
         <v>124641.00000000001</v>
       </c>
       <c r="K31">
@@ -8199,16 +8929,16 @@
       <c r="M31">
         <v>1401760</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N31" s="11">
         <v>5.5</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O31" s="11">
         <v>485</v>
       </c>
       <c r="P31">
         <v>-7</v>
       </c>
-      <c r="Q31" s="17"/>
+      <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -8230,19 +8960,19 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <f>(D32*1.1)</f>
+        <f t="shared" si="0"/>
         <v>77273.900000000009</v>
       </c>
       <c r="H32">
-        <f>(E32*1.1)</f>
+        <f t="shared" si="1"/>
         <v>54008.9</v>
       </c>
       <c r="I32">
-        <f>(F32*2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J32">
-        <f>SUM(G32:I32)</f>
+        <f t="shared" si="3"/>
         <v>131282.80000000002</v>
       </c>
       <c r="K32">
@@ -8254,16 +8984,16 @@
       <c r="M32">
         <v>258569</v>
       </c>
-      <c r="N32" s="18">
+      <c r="N32" s="11">
         <v>18.100000000000001</v>
       </c>
-      <c r="O32" s="18">
+      <c r="O32" s="11">
         <v>383</v>
       </c>
       <c r="P32">
         <v>69</v>
       </c>
-      <c r="Q32" s="17"/>
+      <c r="Q32" s="10"/>
     </row>
     <row r="33" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -8285,19 +9015,19 @@
         <v>3732</v>
       </c>
       <c r="G33">
-        <f>(D33*1.1)</f>
+        <f t="shared" si="0"/>
         <v>76377.400000000009</v>
       </c>
       <c r="H33">
-        <f>(E33*1.1)</f>
+        <f t="shared" si="1"/>
         <v>61230.400000000001</v>
       </c>
       <c r="I33">
-        <f>(F33*2)</f>
+        <f t="shared" si="2"/>
         <v>7464</v>
       </c>
       <c r="J33">
-        <f>SUM(G33:I33)</f>
+        <f t="shared" si="3"/>
         <v>145071.80000000002</v>
       </c>
       <c r="K33">
@@ -8309,16 +9039,16 @@
       <c r="M33">
         <v>199</v>
       </c>
-      <c r="N33" s="18">
+      <c r="N33" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="O33" s="18">
+      <c r="O33" s="11">
         <v>900</v>
       </c>
       <c r="P33">
         <v>-19</v>
       </c>
-      <c r="Q33" s="17"/>
+      <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -8340,19 +9070,19 @@
         <v>3723</v>
       </c>
       <c r="G34">
-        <f>(D34*1.1)</f>
+        <f t="shared" ref="G34:G52" si="4">(D34*1.1)</f>
         <v>72773.8</v>
       </c>
       <c r="H34">
-        <f>(E34*1.1)</f>
+        <f t="shared" ref="H34:H52" si="5">(E34*1.1)</f>
         <v>41915.5</v>
       </c>
       <c r="I34">
-        <f>(F34*2)</f>
+        <f t="shared" si="2"/>
         <v>7446</v>
       </c>
       <c r="J34">
-        <f>SUM(G34:I34)</f>
+        <f t="shared" ref="J34:J65" si="6">SUM(G34:I34)</f>
         <v>122135.3</v>
       </c>
       <c r="K34">
@@ -8364,16 +9094,16 @@
       <c r="M34">
         <v>39022</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N34" s="11">
         <v>13.7</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O34" s="12">
         <v>1409</v>
       </c>
       <c r="P34">
         <v>-20.5</v>
       </c>
-      <c r="Q34" s="17"/>
+      <c r="Q34" s="10"/>
     </row>
     <row r="35" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -8395,19 +9125,19 @@
         <v>2466</v>
       </c>
       <c r="G35">
-        <f>(D35*1.1)</f>
+        <f t="shared" si="4"/>
         <v>146613.5</v>
       </c>
       <c r="H35">
-        <f>(E35*1.1)</f>
+        <f t="shared" si="5"/>
         <v>217437.00000000003</v>
       </c>
       <c r="I35">
-        <f>(F35*2)</f>
+        <f t="shared" si="2"/>
         <v>4932</v>
       </c>
       <c r="J35">
-        <f>SUM(G35:I35)</f>
+        <f t="shared" si="6"/>
         <v>368982.5</v>
       </c>
       <c r="K35">
@@ -8419,16 +9149,16 @@
       <c r="M35">
         <v>882920</v>
       </c>
-      <c r="N35" s="18">
+      <c r="N35" s="11">
         <v>11.9</v>
       </c>
-      <c r="O35" s="18">
+      <c r="O35" s="11">
         <v>90</v>
       </c>
       <c r="P35">
         <v>65.5</v>
       </c>
-      <c r="Q35" s="17"/>
+      <c r="Q35" s="10"/>
     </row>
     <row r="36" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -8450,19 +9180,19 @@
         <v>16333</v>
       </c>
       <c r="G36">
-        <f>(D36*1.1)</f>
+        <f t="shared" si="4"/>
         <v>434027.00000000006</v>
       </c>
       <c r="H36">
-        <f>(E36*1.1)</f>
+        <f t="shared" si="5"/>
         <v>268359.30000000005</v>
       </c>
       <c r="I36">
-        <f>(F36*2)</f>
+        <f t="shared" si="2"/>
         <v>32666</v>
       </c>
       <c r="J36">
-        <f>SUM(G36:I36)</f>
+        <f t="shared" si="6"/>
         <v>735052.3</v>
       </c>
       <c r="K36">
@@ -8474,16 +9204,16 @@
       <c r="M36">
         <v>220593</v>
       </c>
-      <c r="N36" s="18">
+      <c r="N36" s="11">
         <v>12.9</v>
       </c>
-      <c r="O36" s="19">
+      <c r="O36" s="12">
         <v>1524</v>
       </c>
       <c r="P36">
         <v>-5</v>
       </c>
-      <c r="Q36" s="17"/>
+      <c r="Q36" s="10"/>
     </row>
     <row r="37" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -8505,19 +9235,19 @@
         <v>10661</v>
       </c>
       <c r="G37">
-        <f>(D37*1.1)</f>
+        <f t="shared" si="4"/>
         <v>182799.1</v>
       </c>
       <c r="H37">
-        <f>(E37*1.1)</f>
+        <f t="shared" si="5"/>
         <v>143565.40000000002</v>
       </c>
       <c r="I37">
-        <f>(F37*2)</f>
+        <f t="shared" si="2"/>
         <v>21322</v>
       </c>
       <c r="J37">
-        <f>SUM(G37:I37)</f>
+        <f t="shared" si="6"/>
         <v>347686.5</v>
       </c>
       <c r="K37">
@@ -8529,16 +9259,16 @@
       <c r="M37">
         <v>1323</v>
       </c>
-      <c r="N37" s="18">
+      <c r="N37" s="11">
         <v>19.600000000000001</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O37" s="11">
         <v>766</v>
       </c>
       <c r="P37">
         <v>-17</v>
       </c>
-      <c r="Q37" s="17"/>
+      <c r="Q37" s="10"/>
     </row>
     <row r="38" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -8560,19 +9290,19 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <f>(D38*1.1)</f>
+        <f t="shared" si="4"/>
         <v>196587.6</v>
       </c>
       <c r="H38">
-        <f>(E38*1.1)</f>
+        <f t="shared" si="5"/>
         <v>157331.90000000002</v>
       </c>
       <c r="I38">
-        <f>(F38*2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J38">
-        <f>SUM(G38:I38)</f>
+        <f t="shared" si="6"/>
         <v>353919.5</v>
       </c>
       <c r="K38">
@@ -8584,16 +9314,16 @@
       <c r="M38">
         <v>9291</v>
       </c>
-      <c r="N38" s="18">
+      <c r="N38" s="11">
         <v>11.9</v>
       </c>
-      <c r="O38" s="18">
+      <c r="O38" s="11">
         <v>513</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
-      <c r="Q38" s="17"/>
+      <c r="Q38" s="10"/>
     </row>
     <row r="39" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -8615,15 +9345,15 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <f>(D39*1.1)</f>
+        <f t="shared" si="4"/>
         <v>706455.20000000007</v>
       </c>
       <c r="H39">
-        <f>(E39*1.1)</f>
+        <f t="shared" si="5"/>
         <v>173955.1</v>
       </c>
       <c r="J39">
-        <f>SUM(G39:I39)</f>
+        <f t="shared" si="6"/>
         <v>880410.3</v>
       </c>
       <c r="K39">
@@ -8635,16 +9365,16 @@
       <c r="M39">
         <v>84856</v>
       </c>
-      <c r="N39" s="18">
+      <c r="N39" s="11">
         <v>12</v>
       </c>
-      <c r="O39" s="19">
+      <c r="O39" s="12">
         <v>1555</v>
       </c>
       <c r="P39">
         <v>23</v>
       </c>
-      <c r="Q39" s="17"/>
+      <c r="Q39" s="10"/>
     </row>
     <row r="40" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -8666,19 +9396,19 @@
         <v>275</v>
       </c>
       <c r="G40">
-        <f>(D40*1.1)</f>
+        <f t="shared" si="4"/>
         <v>14056.900000000001</v>
       </c>
       <c r="H40">
-        <f>(E40*1.1)</f>
+        <f t="shared" si="5"/>
         <v>2657.6000000000004</v>
       </c>
       <c r="I40">
-        <f>(F40*2)</f>
+        <f t="shared" ref="I40:I52" si="7">(F40*2)</f>
         <v>550</v>
       </c>
       <c r="J40">
-        <f>SUM(G40:I40)</f>
+        <f t="shared" si="6"/>
         <v>17264.5</v>
       </c>
       <c r="K40">
@@ -8690,7 +9420,7 @@
       <c r="M40">
         <v>12</v>
       </c>
-      <c r="Q40" s="17"/>
+      <c r="Q40" s="10"/>
     </row>
     <row r="41" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -8712,19 +9442,19 @@
         <v>1999</v>
       </c>
       <c r="G41">
-        <f>(D41*1.1)</f>
+        <f t="shared" si="4"/>
         <v>15688.2</v>
       </c>
       <c r="H41">
-        <f>(E41*1.1)</f>
+        <f t="shared" si="5"/>
         <v>11224.400000000001</v>
       </c>
       <c r="I41">
-        <f>(F41*2)</f>
+        <f t="shared" si="7"/>
         <v>3998</v>
       </c>
       <c r="J41">
-        <f>SUM(G41:I41)</f>
+        <f t="shared" si="6"/>
         <v>30910.600000000002</v>
       </c>
       <c r="K41">
@@ -8736,16 +9466,16 @@
       <c r="M41">
         <v>1558</v>
       </c>
-      <c r="N41" s="18">
+      <c r="N41" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O41" s="18">
+      <c r="O41" s="11">
         <v>49</v>
       </c>
       <c r="P41">
         <v>55</v>
       </c>
-      <c r="Q41" s="17"/>
+      <c r="Q41" s="10"/>
     </row>
     <row r="42" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -8767,19 +9497,19 @@
         <v>4490</v>
       </c>
       <c r="G42">
-        <f>(D42*1.1)</f>
+        <f t="shared" si="4"/>
         <v>145720.30000000002</v>
       </c>
       <c r="H42">
-        <f>(E42*1.1)</f>
+        <f t="shared" si="5"/>
         <v>96154.3</v>
       </c>
       <c r="I42">
-        <f>(F42*2)</f>
+        <f t="shared" si="7"/>
         <v>8980</v>
       </c>
       <c r="J42">
-        <f>SUM(G42:I42)</f>
+        <f t="shared" si="6"/>
         <v>250854.60000000003</v>
       </c>
       <c r="K42">
@@ -8791,16 +9521,16 @@
       <c r="M42">
         <v>127409</v>
       </c>
-      <c r="N42" s="18">
+      <c r="N42" s="11">
         <v>17.7</v>
       </c>
-      <c r="O42" s="18">
+      <c r="O42" s="11">
         <v>891</v>
       </c>
       <c r="P42">
         <v>-16</v>
       </c>
-      <c r="Q42" s="17"/>
+      <c r="Q42" s="10"/>
     </row>
     <row r="43" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -8822,19 +9552,19 @@
         <v>2184</v>
       </c>
       <c r="G43">
-        <f>(D43*1.1)</f>
+        <f t="shared" si="4"/>
         <v>40172</v>
       </c>
       <c r="H43">
-        <f>(E43*1.1)</f>
+        <f t="shared" si="5"/>
         <v>54474.200000000004</v>
       </c>
       <c r="I43">
-        <f>(F43*2)</f>
+        <f t="shared" si="7"/>
         <v>4368</v>
       </c>
       <c r="J43">
-        <f>SUM(G43:I43)</f>
+        <f t="shared" si="6"/>
         <v>99014.200000000012</v>
       </c>
       <c r="K43">
@@ -8846,16 +9576,16 @@
       <c r="M43">
         <v>185159</v>
       </c>
-      <c r="N43" s="18">
+      <c r="N43" s="11">
         <v>13.4</v>
       </c>
-      <c r="O43" s="18">
+      <c r="O43" s="11">
         <v>108</v>
       </c>
       <c r="P43">
         <v>-9</v>
       </c>
-      <c r="Q43" s="17"/>
+      <c r="Q43" s="10"/>
     </row>
     <row r="44" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -8877,19 +9607,19 @@
         <v>11092</v>
       </c>
       <c r="G44">
-        <f>(D44*1.1)</f>
+        <f t="shared" si="4"/>
         <v>351085.9</v>
       </c>
       <c r="H44">
-        <f>(E44*1.1)</f>
+        <f t="shared" si="5"/>
         <v>231177.1</v>
       </c>
       <c r="I44">
-        <f>(F44*2)</f>
+        <f t="shared" si="7"/>
         <v>22184</v>
       </c>
       <c r="J44">
-        <f>SUM(G44:I44)</f>
+        <f t="shared" si="6"/>
         <v>604447</v>
       </c>
       <c r="K44">
@@ -8901,16 +9631,16 @@
       <c r="M44">
         <v>9434</v>
       </c>
-      <c r="N44" s="18">
+      <c r="N44" s="11">
         <v>17.100000000000001</v>
       </c>
-      <c r="O44" s="19">
+      <c r="O44" s="12">
         <v>1148</v>
       </c>
       <c r="P44">
         <v>-11</v>
       </c>
-      <c r="Q44" s="17"/>
+      <c r="Q44" s="10"/>
     </row>
     <row r="45" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -8932,19 +9662,19 @@
         <v>33102</v>
       </c>
       <c r="G45">
-        <f>(D45*1.1)</f>
+        <f t="shared" si="4"/>
         <v>701223.60000000009</v>
       </c>
       <c r="H45">
-        <f>(E45*1.1)</f>
+        <f t="shared" si="5"/>
         <v>529769.9</v>
       </c>
       <c r="I45">
-        <f>(F45*2)</f>
+        <f t="shared" si="7"/>
         <v>66204</v>
       </c>
       <c r="J45">
-        <f>SUM(G45:I45)</f>
+        <f t="shared" si="6"/>
         <v>1297197.5</v>
       </c>
       <c r="K45">
@@ -8956,16 +9686,16 @@
       <c r="M45">
         <v>579418</v>
       </c>
-      <c r="N45" s="18">
+      <c r="N45" s="11">
         <v>12.1</v>
       </c>
-      <c r="O45" s="19">
+      <c r="O45" s="12">
         <v>3353</v>
       </c>
       <c r="P45">
         <v>-3</v>
       </c>
-      <c r="Q45" s="17"/>
+      <c r="Q45" s="10"/>
     </row>
     <row r="46" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -8987,19 +9717,19 @@
         <v>1191</v>
       </c>
       <c r="G46">
-        <f>(D46*1.1)</f>
+        <f t="shared" si="4"/>
         <v>52141.100000000006</v>
       </c>
       <c r="H46">
-        <f>(E46*1.1)</f>
+        <f t="shared" si="5"/>
         <v>59546.3</v>
       </c>
       <c r="I46">
-        <f>(F46*2)</f>
+        <f t="shared" si="7"/>
         <v>2382</v>
       </c>
       <c r="J46">
-        <f>SUM(G46:I46)</f>
+        <f t="shared" si="6"/>
         <v>114069.40000000001</v>
       </c>
       <c r="K46">
@@ -9011,16 +9741,16 @@
       <c r="M46">
         <v>128411</v>
       </c>
-      <c r="N46" s="18">
+      <c r="N46" s="11">
         <v>12.9</v>
       </c>
-      <c r="O46" s="18">
+      <c r="O46" s="11">
         <v>370</v>
       </c>
       <c r="P46">
         <v>-8.5</v>
       </c>
-      <c r="Q46" s="17"/>
+      <c r="Q46" s="10"/>
     </row>
     <row r="47" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -9042,19 +9772,19 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <f>(D47*1.1)</f>
+        <f t="shared" si="4"/>
         <v>325559.30000000005</v>
       </c>
       <c r="H47">
-        <f>(E47*1.1)</f>
+        <f t="shared" si="5"/>
         <v>230972.50000000003</v>
       </c>
       <c r="I47">
-        <f>(F47*2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J47">
-        <f>SUM(G47:I47)</f>
+        <f t="shared" si="6"/>
         <v>556531.80000000005</v>
       </c>
       <c r="K47">
@@ -9066,16 +9796,16 @@
       <c r="M47">
         <v>12225</v>
       </c>
-      <c r="N47" s="18">
+      <c r="N47" s="11">
         <v>11.1</v>
       </c>
-      <c r="O47" s="18">
+      <c r="O47" s="11">
         <v>78</v>
       </c>
       <c r="P47">
         <v>-22.5</v>
       </c>
-      <c r="Q47" s="17"/>
+      <c r="Q47" s="10"/>
     </row>
     <row r="48" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -9097,19 +9827,19 @@
         <v>885</v>
       </c>
       <c r="G48">
-        <f>(D48*1.1)</f>
+        <f t="shared" si="4"/>
         <v>20152</v>
       </c>
       <c r="H48">
-        <f>(E48*1.1)</f>
+        <f t="shared" si="5"/>
         <v>20738.300000000003</v>
       </c>
       <c r="I48">
-        <f>(F48*2)</f>
+        <f t="shared" si="7"/>
         <v>1770</v>
       </c>
       <c r="J48">
-        <f>SUM(G48:I48)</f>
+        <f t="shared" si="6"/>
         <v>42660.3</v>
       </c>
       <c r="K48">
@@ -9121,16 +9851,16 @@
       <c r="M48">
         <v>93575</v>
       </c>
-      <c r="N48" s="18">
+      <c r="N48" s="11">
         <v>12.1</v>
       </c>
-      <c r="O48" s="19">
+      <c r="O48" s="12">
         <v>1049</v>
       </c>
       <c r="P48">
         <v>-17</v>
       </c>
-      <c r="Q48" s="17"/>
+      <c r="Q48" s="10"/>
     </row>
     <row r="49" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -9152,19 +9882,19 @@
         <v>8028</v>
       </c>
       <c r="G49">
-        <f>(D49*1.1)</f>
+        <f t="shared" si="4"/>
         <v>235516.6</v>
       </c>
       <c r="H49">
-        <f>(E49*1.1)</f>
+        <f t="shared" si="5"/>
         <v>166131.90000000002</v>
       </c>
       <c r="I49">
-        <f>(F49*2)</f>
+        <f t="shared" si="7"/>
         <v>16056</v>
       </c>
       <c r="J49">
-        <f>SUM(G49:I49)</f>
+        <f t="shared" si="6"/>
         <v>417704.5</v>
       </c>
       <c r="K49">
@@ -9176,16 +9906,16 @@
       <c r="M49">
         <v>16580</v>
       </c>
-      <c r="N49" s="18">
+      <c r="N49" s="11">
         <v>9</v>
       </c>
-      <c r="O49" s="18">
+      <c r="O49" s="11">
         <v>686</v>
       </c>
       <c r="P49">
         <v>33</v>
       </c>
-      <c r="Q49" s="17"/>
+      <c r="Q49" s="10"/>
     </row>
     <row r="50" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -9207,19 +9937,19 @@
         <v>523</v>
       </c>
       <c r="G50">
-        <f>(D50*1.1)</f>
+        <f t="shared" si="4"/>
         <v>204930.00000000003</v>
       </c>
       <c r="H50">
-        <f>(E50*1.1)</f>
+        <f t="shared" si="5"/>
         <v>175762.40000000002</v>
       </c>
       <c r="I50">
-        <f>(F50*2)</f>
+        <f t="shared" si="7"/>
         <v>1046</v>
       </c>
       <c r="J50">
-        <f>SUM(G50:I50)</f>
+        <f t="shared" si="6"/>
         <v>381738.4</v>
       </c>
       <c r="K50">
@@ -9231,16 +9961,16 @@
       <c r="M50">
         <v>35873</v>
       </c>
-      <c r="N50" s="18">
+      <c r="N50" s="11">
         <v>17.5</v>
       </c>
-      <c r="O50" s="18">
+      <c r="O50" s="11">
         <v>332</v>
       </c>
       <c r="P50">
         <v>6</v>
       </c>
-      <c r="Q50" s="17"/>
+      <c r="Q50" s="10"/>
     </row>
     <row r="51" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -9262,19 +9992,19 @@
         <v>5283</v>
       </c>
       <c r="G51">
-        <f>(D51*1.1)</f>
+        <f t="shared" si="4"/>
         <v>101336.40000000001</v>
       </c>
       <c r="H51">
-        <f>(E51*1.1)</f>
+        <f t="shared" si="5"/>
         <v>89215.5</v>
       </c>
       <c r="I51">
-        <f>(F51*2)</f>
+        <f t="shared" si="7"/>
         <v>10566</v>
       </c>
       <c r="J51">
-        <f>SUM(G51:I51)</f>
+        <f t="shared" si="6"/>
         <v>201117.90000000002</v>
       </c>
       <c r="K51">
@@ -9286,16 +10016,16 @@
       <c r="M51">
         <v>742</v>
       </c>
-      <c r="N51" s="18">
+      <c r="N51" s="11">
         <v>11.4</v>
       </c>
-      <c r="O51" s="18">
+      <c r="O51" s="11">
         <v>664</v>
       </c>
       <c r="P51">
         <v>-15</v>
       </c>
-      <c r="Q51" s="17"/>
+      <c r="Q51" s="10"/>
     </row>
     <row r="52" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -9317,19 +10047,19 @@
         <v>1295</v>
       </c>
       <c r="G52">
-        <f>(D52*1.1)</f>
+        <f t="shared" si="4"/>
         <v>24825.9</v>
       </c>
       <c r="H52">
-        <f>(E52*1.1)</f>
+        <f t="shared" si="5"/>
         <v>28396.500000000004</v>
       </c>
       <c r="I52">
-        <f>(F52*2)</f>
+        <f t="shared" si="7"/>
         <v>2590</v>
       </c>
       <c r="J52">
-        <f>SUM(G52:I52)</f>
+        <f t="shared" si="6"/>
         <v>55812.400000000009</v>
       </c>
       <c r="K52">
@@ -9341,10 +10071,10 @@
       <c r="M52">
         <v>1779</v>
       </c>
-      <c r="N52" s="18">
+      <c r="N52" s="11">
         <v>17.399999999999999</v>
       </c>
-      <c r="O52" s="18">
+      <c r="O52" s="11">
         <v>101</v>
       </c>
       <c r="P52">
@@ -9360,139 +10090,165 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A4:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="9">
-        <v>0.38836883360301294</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0.29366031658095715</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="9">
-        <v>0.26248013574675971</v>
-      </c>
-      <c r="D6" s="15">
-        <v>6.5497296686014048E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+      <c r="D6" s="19">
+        <v>6.5497370386783729E-2</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.26276378259103045</v>
+      </c>
+      <c r="F6" s="14">
+        <v>13.961538461538462</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.26923076923076922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="19">
+        <v>0.52668312405889328</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.12559064165299311</v>
+      </c>
+      <c r="F7" s="14">
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="G7" s="8">
+        <v>34.611111111111114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="19">
+        <v>0.29366064702194405</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.3887885209585959</v>
+      </c>
+      <c r="F8" s="14">
+        <v>15.02</v>
+      </c>
+      <c r="G8" s="8">
+        <v>-8.1333333333333329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="9">
-        <v>0.22261648625443503</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0.11415873007537847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="9">
-        <v>0.12545506973808329</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0.52668253140988486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="9">
-        <v>1.0794746577090873E-3</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1.1252477654923644E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+      <c r="D9" s="19">
+        <v>0.11415885853237895</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.22285705479738047</v>
+      </c>
+      <c r="F9" s="14">
+        <v>12.761538461538462</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="19">
         <v>0</v>
       </c>
-      <c r="D10" s="15">
+      <c r="E10" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="13">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="20">
         <v>1</v>
       </c>
-      <c r="D12" s="16">
+      <c r="E11" s="22">
         <v>1</v>
+      </c>
+      <c r="F11" s="16">
+        <v>13.053999999999998</v>
+      </c>
+      <c r="G11" s="9">
+        <v>3.94</v>
       </c>
     </row>
   </sheetData>

--- a/data/2016 Sales, Manufacturing Workbook.xlsx
+++ b/data/2016 Sales, Manufacturing Workbook.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dieterholger/Desktop/Git/US-Gun-Manufacturing-Interactive/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA38DC98-2E78-2749-AD67-BCEDBF561468}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8E2433-AE85-1A4F-BA54-8935F1FCFB2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2016 State Manufacturing vs Che" sheetId="1" r:id="rId1"/>
+    <sheet name="2016 State Checks vs Manufactur" sheetId="1" r:id="rId1"/>
     <sheet name="Estimated Sales vs Manufacturin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -1298,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -3911,9 +3911,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/2016 Sales, Manufacturing Workbook.xlsx
+++ b/data/2016 Sales, Manufacturing Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dieterholger/Desktop/Git/US-Gun-Manufacturing-Interactive/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8E2433-AE85-1A4F-BA54-8935F1FCFB2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9F00E2-DF1E-F444-AF86-5198E10B5BC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016 State Checks vs Manufactur" sheetId="1" r:id="rId1"/>
@@ -444,10 +444,10 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Mississipi</t>
-  </si>
-  <si>
     <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
   </si>
 </sst>
 </file>
@@ -1298,9 +1298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
         <v>64</v>
@@ -3911,9 +3911,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3999,19 +3999,19 @@
         <v>6545</v>
       </c>
       <c r="H2">
-        <f>(E2*1.1)</f>
+        <f t="shared" ref="H2:H33" si="0">(E2*1.1)</f>
         <v>168435.30000000002</v>
       </c>
       <c r="I2">
-        <f>(F2*1.1)</f>
+        <f t="shared" ref="I2:I33" si="1">(F2*1.1)</f>
         <v>134159.30000000002</v>
       </c>
       <c r="J2">
-        <f>(G2*2)</f>
+        <f t="shared" ref="J2:J38" si="2">(G2*2)</f>
         <v>13090</v>
       </c>
       <c r="K2">
-        <f>SUM(H2:J2)</f>
+        <f t="shared" ref="K2:K33" si="3">SUM(H2:J2)</f>
         <v>315684.60000000003</v>
       </c>
       <c r="L2">
@@ -4056,19 +4056,19 @@
         <v>2316</v>
       </c>
       <c r="H3">
-        <f>(E3*1.1)</f>
+        <f t="shared" si="0"/>
         <v>41240.100000000006</v>
       </c>
       <c r="I3">
-        <f>(F3*1.1)</f>
+        <f t="shared" si="1"/>
         <v>40575.700000000004</v>
       </c>
       <c r="J3">
-        <f>(G3*2)</f>
+        <f t="shared" si="2"/>
         <v>4632</v>
       </c>
       <c r="K3">
-        <f>SUM(H3:J3)</f>
+        <f t="shared" si="3"/>
         <v>86447.800000000017</v>
       </c>
       <c r="L3">
@@ -4113,19 +4113,19 @@
         <v>7908</v>
       </c>
       <c r="H4">
-        <f>(E4*1.1)</f>
+        <f t="shared" si="0"/>
         <v>183462.40000000002</v>
       </c>
       <c r="I4">
-        <f>(F4*1.1)</f>
+        <f t="shared" si="1"/>
         <v>119886.8</v>
       </c>
       <c r="J4">
-        <f>(G4*2)</f>
+        <f t="shared" si="2"/>
         <v>15816</v>
       </c>
       <c r="K4">
-        <f>SUM(H4:J4)</f>
+        <f t="shared" si="3"/>
         <v>319165.2</v>
       </c>
       <c r="L4">
@@ -4170,19 +4170,19 @@
         <v>4400</v>
       </c>
       <c r="H5">
-        <f>(E5*1.1)</f>
+        <f t="shared" si="0"/>
         <v>88268.400000000009</v>
       </c>
       <c r="I5">
-        <f>(F5*1.1)</f>
+        <f t="shared" si="1"/>
         <v>90332.000000000015</v>
       </c>
       <c r="J5">
-        <f>(G5*2)</f>
+        <f t="shared" si="2"/>
         <v>8800</v>
       </c>
       <c r="K5">
-        <f>SUM(H5:J5)</f>
+        <f t="shared" si="3"/>
         <v>187400.40000000002</v>
       </c>
       <c r="L5">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f>(E6*1.1)</f>
+        <f t="shared" si="0"/>
         <v>616390.5</v>
       </c>
       <c r="I6">
-        <f>(F6*1.1)</f>
+        <f t="shared" si="1"/>
         <v>610005</v>
       </c>
       <c r="J6">
-        <f>(G6*2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>SUM(H6:J6)</f>
+        <f t="shared" si="3"/>
         <v>1226395.5</v>
       </c>
       <c r="L6">
@@ -4284,19 +4284,19 @@
         <v>14293</v>
       </c>
       <c r="H7">
-        <f>(E7*1.1)</f>
+        <f t="shared" si="0"/>
         <v>266752.2</v>
       </c>
       <c r="I7">
-        <f>(F7*1.1)</f>
+        <f t="shared" si="1"/>
         <v>198028.6</v>
       </c>
       <c r="J7">
-        <f>(G7*2)</f>
+        <f t="shared" si="2"/>
         <v>28586</v>
       </c>
       <c r="K7">
-        <f>SUM(H7:J7)</f>
+        <f t="shared" si="3"/>
         <v>493366.80000000005</v>
       </c>
       <c r="L7">
@@ -4341,19 +4341,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f>(E8*1.1)</f>
+        <f t="shared" si="0"/>
         <v>134612.5</v>
       </c>
       <c r="I8">
-        <f>(F8*1.1)</f>
+        <f t="shared" si="1"/>
         <v>48194.3</v>
       </c>
       <c r="J8">
-        <f>(G8*2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>SUM(H8:J8)</f>
+        <f t="shared" si="3"/>
         <v>182806.8</v>
       </c>
       <c r="L8">
@@ -4398,19 +4398,19 @@
         <v>1034</v>
       </c>
       <c r="H9">
-        <f>(E9*1.1)</f>
+        <f t="shared" si="0"/>
         <v>28131.4</v>
       </c>
       <c r="I9">
-        <f>(F9*1.1)</f>
+        <f t="shared" si="1"/>
         <v>23920.600000000002</v>
       </c>
       <c r="J9">
-        <f>(G9*2)</f>
+        <f t="shared" si="2"/>
         <v>2068</v>
       </c>
       <c r="K9">
-        <f>SUM(H9:J9)</f>
+        <f t="shared" si="3"/>
         <v>54120</v>
       </c>
       <c r="L9">
@@ -4455,19 +4455,19 @@
         <v>25142</v>
       </c>
       <c r="H10">
-        <f>(E10*1.1)</f>
+        <f t="shared" si="0"/>
         <v>728538.8</v>
       </c>
       <c r="I10">
-        <f>(F10*1.1)</f>
+        <f t="shared" si="1"/>
         <v>347855.2</v>
       </c>
       <c r="J10">
-        <f>(G10*2)</f>
+        <f t="shared" si="2"/>
         <v>50284</v>
       </c>
       <c r="K10">
-        <f>SUM(H10:J10)</f>
+        <f t="shared" si="3"/>
         <v>1126678</v>
       </c>
       <c r="L10">
@@ -4512,19 +4512,19 @@
         <v>7478</v>
       </c>
       <c r="H11">
-        <f>(E11*1.1)</f>
+        <f t="shared" si="0"/>
         <v>214280.00000000003</v>
       </c>
       <c r="I11">
-        <f>(F11*1.1)</f>
+        <f t="shared" si="1"/>
         <v>141104.70000000001</v>
       </c>
       <c r="J11">
-        <f>(G11*2)</f>
+        <f t="shared" si="2"/>
         <v>14956</v>
       </c>
       <c r="K11">
-        <f>SUM(H11:J11)</f>
+        <f t="shared" si="3"/>
         <v>370340.70000000007</v>
       </c>
       <c r="L11">
@@ -4569,19 +4569,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <f>(E12*1.1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>(F12*1.1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>(G12*2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>SUM(H12:J12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L12">
@@ -4626,19 +4626,19 @@
         <v>2406</v>
       </c>
       <c r="H13">
-        <f>(E13*1.1)</f>
+        <f t="shared" si="0"/>
         <v>51175.3</v>
       </c>
       <c r="I13">
-        <f>(F13*1.1)</f>
+        <f t="shared" si="1"/>
         <v>61150.100000000006</v>
       </c>
       <c r="J13">
-        <f>(G13*2)</f>
+        <f t="shared" si="2"/>
         <v>4812</v>
       </c>
       <c r="K13">
-        <f>SUM(H13:J13)</f>
+        <f t="shared" si="3"/>
         <v>117137.40000000001</v>
       </c>
       <c r="L13">
@@ -4683,19 +4683,19 @@
         <v>12133</v>
       </c>
       <c r="H14">
-        <f>(E14*1.1)</f>
+        <f t="shared" si="0"/>
         <v>387652.10000000003</v>
       </c>
       <c r="I14">
-        <f>(F14*1.1)</f>
+        <f t="shared" si="1"/>
         <v>194980.50000000003</v>
       </c>
       <c r="J14">
-        <f>(G14*2)</f>
+        <f t="shared" si="2"/>
         <v>24266</v>
       </c>
       <c r="K14">
-        <f>SUM(H14:J14)</f>
+        <f t="shared" si="3"/>
         <v>606898.60000000009</v>
       </c>
       <c r="L14">
@@ -4740,19 +4740,19 @@
         <v>9082</v>
       </c>
       <c r="H15">
-        <f>(E15*1.1)</f>
+        <f t="shared" si="0"/>
         <v>306000.2</v>
       </c>
       <c r="I15">
-        <f>(F15*1.1)</f>
+        <f t="shared" si="1"/>
         <v>194939.80000000002</v>
       </c>
       <c r="J15">
-        <f>(G15*2)</f>
+        <f t="shared" si="2"/>
         <v>18164</v>
       </c>
       <c r="K15">
-        <f>SUM(H15:J15)</f>
+        <f t="shared" si="3"/>
         <v>519104</v>
       </c>
       <c r="L15">
@@ -4797,19 +4797,19 @@
         <v>70</v>
       </c>
       <c r="H16">
-        <f>(E16*1.1)</f>
+        <f t="shared" si="0"/>
         <v>3069.0000000000005</v>
       </c>
       <c r="I16">
-        <f>(F16*1.1)</f>
+        <f t="shared" si="1"/>
         <v>38779.4</v>
       </c>
       <c r="J16">
-        <f>(G16*2)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K16">
-        <f>SUM(H16:J16)</f>
+        <f t="shared" si="3"/>
         <v>41988.4</v>
       </c>
       <c r="L16">
@@ -4854,19 +4854,19 @@
         <v>4271</v>
       </c>
       <c r="H17">
-        <f>(E17*1.1)</f>
+        <f t="shared" si="0"/>
         <v>89227.6</v>
       </c>
       <c r="I17">
-        <f>(F17*1.1)</f>
+        <f t="shared" si="1"/>
         <v>81122.8</v>
       </c>
       <c r="J17">
-        <f>(G17*2)</f>
+        <f t="shared" si="2"/>
         <v>8542</v>
       </c>
       <c r="K17">
-        <f>SUM(H17:J17)</f>
+        <f t="shared" si="3"/>
         <v>178892.40000000002</v>
       </c>
       <c r="L17">
@@ -4911,19 +4911,19 @@
         <v>6943</v>
       </c>
       <c r="H18">
-        <f>(E18*1.1)</f>
+        <f t="shared" si="0"/>
         <v>154793.1</v>
       </c>
       <c r="I18">
-        <f>(F18*1.1)</f>
+        <f t="shared" si="1"/>
         <v>119933.00000000001</v>
       </c>
       <c r="J18">
-        <f>(G18*2)</f>
+        <f t="shared" si="2"/>
         <v>13886</v>
       </c>
       <c r="K18">
-        <f>SUM(H18:J18)</f>
+        <f t="shared" si="3"/>
         <v>288612.10000000003</v>
       </c>
       <c r="L18">
@@ -4968,19 +4968,19 @@
         <v>8609</v>
       </c>
       <c r="H19">
-        <f>(E19*1.1)</f>
+        <f t="shared" si="0"/>
         <v>188746.80000000002</v>
       </c>
       <c r="I19">
-        <f>(F19*1.1)</f>
+        <f t="shared" si="1"/>
         <v>153034.20000000001</v>
       </c>
       <c r="J19">
-        <f>(G19*2)</f>
+        <f t="shared" si="2"/>
         <v>17218</v>
       </c>
       <c r="K19">
-        <f>SUM(H19:J19)</f>
+        <f t="shared" si="3"/>
         <v>358999</v>
       </c>
       <c r="L19">
@@ -5025,19 +5025,19 @@
         <v>2458</v>
       </c>
       <c r="H20">
-        <f>(E20*1.1)</f>
+        <f t="shared" si="0"/>
         <v>53729.500000000007</v>
       </c>
       <c r="I20">
-        <f>(F20*1.1)</f>
+        <f t="shared" si="1"/>
         <v>51458.000000000007</v>
       </c>
       <c r="J20">
-        <f>(G20*2)</f>
+        <f t="shared" si="2"/>
         <v>4916</v>
       </c>
       <c r="K20">
-        <f>SUM(H20:J20)</f>
+        <f t="shared" si="3"/>
         <v>110103.50000000001</v>
       </c>
       <c r="L20">
@@ -5082,19 +5082,19 @@
         <v>337</v>
       </c>
       <c r="H21">
-        <f>(E21*1.1)</f>
+        <f t="shared" si="0"/>
         <v>57535.500000000007</v>
       </c>
       <c r="I21">
-        <f>(F21*1.1)</f>
+        <f t="shared" si="1"/>
         <v>79081.200000000012</v>
       </c>
       <c r="J21">
-        <f>(G21*2)</f>
+        <f t="shared" si="2"/>
         <v>674</v>
       </c>
       <c r="K21">
-        <f>SUM(H21:J21)</f>
+        <f t="shared" si="3"/>
         <v>137290.70000000001</v>
       </c>
       <c r="L21">
@@ -5139,19 +5139,19 @@
         <v>2480</v>
       </c>
       <c r="H22">
-        <f>(E22*1.1)</f>
+        <f t="shared" si="0"/>
         <v>83574.700000000012</v>
       </c>
       <c r="I22">
-        <f>(F22*1.1)</f>
+        <f t="shared" si="1"/>
         <v>46124.100000000006</v>
       </c>
       <c r="J22">
-        <f>(G22*2)</f>
+        <f t="shared" si="2"/>
         <v>4960</v>
       </c>
       <c r="K22">
-        <f>SUM(H22:J22)</f>
+        <f t="shared" si="3"/>
         <v>134658.80000000002</v>
       </c>
       <c r="L22">
@@ -5196,19 +5196,19 @@
         <v>2815</v>
       </c>
       <c r="H23">
-        <f>(E23*1.1)</f>
+        <f t="shared" si="0"/>
         <v>181365.80000000002</v>
       </c>
       <c r="I23">
-        <f>(F23*1.1)</f>
+        <f t="shared" si="1"/>
         <v>141997.90000000002</v>
       </c>
       <c r="J23">
-        <f>(G23*2)</f>
+        <f t="shared" si="2"/>
         <v>5630</v>
       </c>
       <c r="K23">
-        <f>SUM(H23:J23)</f>
+        <f t="shared" si="3"/>
         <v>328993.70000000007</v>
       </c>
       <c r="L23">
@@ -5253,19 +5253,19 @@
         <v>5046</v>
       </c>
       <c r="H24">
-        <f>(E24*1.1)</f>
+        <f t="shared" si="0"/>
         <v>147358.20000000001</v>
       </c>
       <c r="I24">
-        <f>(F24*1.1)</f>
+        <f t="shared" si="1"/>
         <v>157897.30000000002</v>
       </c>
       <c r="J24">
-        <f>(G24*2)</f>
+        <f t="shared" si="2"/>
         <v>10092</v>
       </c>
       <c r="K24">
-        <f>SUM(H24:J24)</f>
+        <f t="shared" si="3"/>
         <v>315347.5</v>
       </c>
       <c r="L24">
@@ -5289,7 +5289,7 @@
     </row>
     <row r="25" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -5310,19 +5310,19 @@
         <v>5263</v>
       </c>
       <c r="H25">
-        <f>(E25*1.1)</f>
+        <f t="shared" si="0"/>
         <v>130955.00000000001</v>
       </c>
       <c r="I25">
-        <f>(F25*1.1)</f>
+        <f t="shared" si="1"/>
         <v>102104.20000000001</v>
       </c>
       <c r="J25">
-        <f>(G25*2)</f>
+        <f t="shared" si="2"/>
         <v>10526</v>
       </c>
       <c r="K25">
-        <f>SUM(H25:J25)</f>
+        <f t="shared" si="3"/>
         <v>243585.2</v>
       </c>
       <c r="L25">
@@ -5367,19 +5367,19 @@
         <v>12753</v>
       </c>
       <c r="H26">
-        <f>(E26*1.1)</f>
+        <f t="shared" si="0"/>
         <v>302229.40000000002</v>
       </c>
       <c r="I26">
-        <f>(F26*1.1)</f>
+        <f t="shared" si="1"/>
         <v>222978.80000000002</v>
       </c>
       <c r="J26">
-        <f>(G26*2)</f>
+        <f t="shared" si="2"/>
         <v>25506</v>
       </c>
       <c r="K26">
-        <f>SUM(H26:J26)</f>
+        <f t="shared" si="3"/>
         <v>550714.20000000007</v>
       </c>
       <c r="L26">
@@ -5424,19 +5424,19 @@
         <v>2678</v>
       </c>
       <c r="H27">
-        <f>(E27*1.1)</f>
+        <f t="shared" si="0"/>
         <v>41301.700000000004</v>
       </c>
       <c r="I27">
-        <f>(F27*1.1)</f>
+        <f t="shared" si="1"/>
         <v>62517.4</v>
       </c>
       <c r="J27">
-        <f>(G27*2)</f>
+        <f t="shared" si="2"/>
         <v>5356</v>
       </c>
       <c r="K27">
-        <f>SUM(H27:J27)</f>
+        <f t="shared" si="3"/>
         <v>109175.1</v>
       </c>
       <c r="L27">
@@ -5481,19 +5481,19 @@
         <v>82</v>
       </c>
       <c r="H28">
-        <f>(E28*1.1)</f>
+        <f t="shared" si="0"/>
         <v>1888.7</v>
       </c>
       <c r="I28">
-        <f>(F28*1.1)</f>
+        <f t="shared" si="1"/>
         <v>29143.4</v>
       </c>
       <c r="J28">
-        <f>(G28*2)</f>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="K28">
-        <f>SUM(H28:J28)</f>
+        <f t="shared" si="3"/>
         <v>31196.100000000002</v>
       </c>
       <c r="L28">
@@ -5538,19 +5538,19 @@
         <v>3723</v>
       </c>
       <c r="H29">
-        <f>(E29*1.1)</f>
+        <f t="shared" si="0"/>
         <v>72773.8</v>
       </c>
       <c r="I29">
-        <f>(F29*1.1)</f>
+        <f t="shared" si="1"/>
         <v>41915.5</v>
       </c>
       <c r="J29">
-        <f>(G29*2)</f>
+        <f t="shared" si="2"/>
         <v>7446</v>
       </c>
       <c r="K29">
-        <f>SUM(H29:J29)</f>
+        <f t="shared" si="3"/>
         <v>122135.3</v>
       </c>
       <c r="L29">
@@ -5595,19 +5595,19 @@
         <v>55</v>
       </c>
       <c r="H30">
-        <f>(E30*1.1)</f>
+        <f t="shared" si="0"/>
         <v>75381.900000000009</v>
       </c>
       <c r="I30">
-        <f>(F30*1.1)</f>
+        <f t="shared" si="1"/>
         <v>49149.100000000006</v>
       </c>
       <c r="J30">
-        <f>(G30*2)</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K30">
-        <f>SUM(H30:J30)</f>
+        <f t="shared" si="3"/>
         <v>124641.00000000001</v>
       </c>
       <c r="L30">
@@ -5652,19 +5652,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <f>(E31*1.1)</f>
+        <f t="shared" si="0"/>
         <v>77273.900000000009</v>
       </c>
       <c r="I31">
-        <f>(F31*1.1)</f>
+        <f t="shared" si="1"/>
         <v>54008.9</v>
       </c>
       <c r="J31">
-        <f>(G31*2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f>SUM(H31:J31)</f>
+        <f t="shared" si="3"/>
         <v>131282.80000000002</v>
       </c>
       <c r="L31">
@@ -5709,19 +5709,19 @@
         <v>3732</v>
       </c>
       <c r="H32">
-        <f>(E32*1.1)</f>
+        <f t="shared" si="0"/>
         <v>76377.400000000009</v>
       </c>
       <c r="I32">
-        <f>(F32*1.1)</f>
+        <f t="shared" si="1"/>
         <v>61230.400000000001</v>
       </c>
       <c r="J32">
-        <f>(G32*2)</f>
+        <f t="shared" si="2"/>
         <v>7464</v>
       </c>
       <c r="K32">
-        <f>SUM(H32:J32)</f>
+        <f t="shared" si="3"/>
         <v>145071.80000000002</v>
       </c>
       <c r="L32">
@@ -5766,19 +5766,19 @@
         <v>2466</v>
       </c>
       <c r="H33">
-        <f>(E33*1.1)</f>
+        <f t="shared" si="0"/>
         <v>146613.5</v>
       </c>
       <c r="I33">
-        <f>(F33*1.1)</f>
+        <f t="shared" si="1"/>
         <v>217437.00000000003</v>
       </c>
       <c r="J33">
-        <f>(G33*2)</f>
+        <f t="shared" si="2"/>
         <v>4932</v>
       </c>
       <c r="K33">
-        <f>SUM(H33:J33)</f>
+        <f t="shared" si="3"/>
         <v>368982.5</v>
       </c>
       <c r="L33">
@@ -5823,19 +5823,19 @@
         <v>2812</v>
       </c>
       <c r="H34">
-        <f>(E34*1.1)</f>
+        <f t="shared" ref="H34:H52" si="4">(E34*1.1)</f>
         <v>18254.5</v>
       </c>
       <c r="I34">
-        <f>(F34*1.1)</f>
+        <f t="shared" ref="I34:I52" si="5">(F34*1.1)</f>
         <v>194610.90000000002</v>
       </c>
       <c r="J34">
-        <f>(G34*2)</f>
+        <f t="shared" si="2"/>
         <v>5624</v>
       </c>
       <c r="K34">
-        <f>SUM(H34:J34)</f>
+        <f t="shared" ref="K34:K65" si="6">SUM(H34:J34)</f>
         <v>218489.40000000002</v>
       </c>
       <c r="L34">
@@ -5880,19 +5880,19 @@
         <v>972</v>
       </c>
       <c r="H35">
-        <f>(E35*1.1)</f>
+        <f t="shared" si="4"/>
         <v>21972.5</v>
       </c>
       <c r="I35">
-        <f>(F35*1.1)</f>
+        <f t="shared" si="5"/>
         <v>37414.300000000003</v>
       </c>
       <c r="J35">
-        <f>(G35*2)</f>
+        <f t="shared" si="2"/>
         <v>1944</v>
       </c>
       <c r="K35">
-        <f>SUM(H35:J35)</f>
+        <f t="shared" si="6"/>
         <v>61330.8</v>
       </c>
       <c r="L35">
@@ -5937,19 +5937,19 @@
         <v>16333</v>
       </c>
       <c r="H36">
-        <f>(E36*1.1)</f>
+        <f t="shared" si="4"/>
         <v>434027.00000000006</v>
       </c>
       <c r="I36">
-        <f>(F36*1.1)</f>
+        <f t="shared" si="5"/>
         <v>268359.30000000005</v>
       </c>
       <c r="J36">
-        <f>(G36*2)</f>
+        <f t="shared" si="2"/>
         <v>32666</v>
       </c>
       <c r="K36">
-        <f>SUM(H36:J36)</f>
+        <f t="shared" si="6"/>
         <v>735052.3</v>
       </c>
       <c r="L36">
@@ -5994,19 +5994,19 @@
         <v>10661</v>
       </c>
       <c r="H37">
-        <f>(E37*1.1)</f>
+        <f t="shared" si="4"/>
         <v>182799.1</v>
       </c>
       <c r="I37">
-        <f>(F37*1.1)</f>
+        <f t="shared" si="5"/>
         <v>143565.40000000002</v>
       </c>
       <c r="J37">
-        <f>(G37*2)</f>
+        <f t="shared" si="2"/>
         <v>21322</v>
       </c>
       <c r="K37">
-        <f>SUM(H37:J37)</f>
+        <f t="shared" si="6"/>
         <v>347686.5</v>
       </c>
       <c r="L37">
@@ -6051,19 +6051,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f>(E38*1.1)</f>
+        <f t="shared" si="4"/>
         <v>196587.6</v>
       </c>
       <c r="I38">
-        <f>(F38*1.1)</f>
+        <f t="shared" si="5"/>
         <v>157331.90000000002</v>
       </c>
       <c r="J38">
-        <f>(G38*2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K38">
-        <f>SUM(H38:J38)</f>
+        <f t="shared" si="6"/>
         <v>353919.5</v>
       </c>
       <c r="L38">
@@ -6108,15 +6108,15 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <f>(E39*1.1)</f>
+        <f t="shared" si="4"/>
         <v>706455.20000000007</v>
       </c>
       <c r="I39">
-        <f>(F39*1.1)</f>
+        <f t="shared" si="5"/>
         <v>173955.1</v>
       </c>
       <c r="K39">
-        <f>SUM(H39:J39)</f>
+        <f t="shared" si="6"/>
         <v>880410.3</v>
       </c>
       <c r="L39">
@@ -6140,7 +6140,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
         <v>64</v>
@@ -6161,19 +6161,19 @@
         <v>275</v>
       </c>
       <c r="H40">
-        <f>(E40*1.1)</f>
+        <f t="shared" si="4"/>
         <v>14056.900000000001</v>
       </c>
       <c r="I40">
-        <f>(F40*1.1)</f>
+        <f t="shared" si="5"/>
         <v>2657.6000000000004</v>
       </c>
       <c r="J40">
-        <f>(G40*2)</f>
+        <f t="shared" ref="J40:J52" si="7">(G40*2)</f>
         <v>550</v>
       </c>
       <c r="K40">
-        <f>SUM(H40:J40)</f>
+        <f t="shared" si="6"/>
         <v>17264.5</v>
       </c>
       <c r="L40">
@@ -6209,19 +6209,19 @@
         <v>1999</v>
       </c>
       <c r="H41">
-        <f>(E41*1.1)</f>
+        <f t="shared" si="4"/>
         <v>15688.2</v>
       </c>
       <c r="I41">
-        <f>(F41*1.1)</f>
+        <f t="shared" si="5"/>
         <v>11224.400000000001</v>
       </c>
       <c r="J41">
-        <f>(G41*2)</f>
+        <f t="shared" si="7"/>
         <v>3998</v>
       </c>
       <c r="K41">
-        <f>SUM(H41:J41)</f>
+        <f t="shared" si="6"/>
         <v>30910.600000000002</v>
       </c>
       <c r="L41">
@@ -6266,19 +6266,19 @@
         <v>4490</v>
       </c>
       <c r="H42">
-        <f>(E42*1.1)</f>
+        <f t="shared" si="4"/>
         <v>145720.30000000002</v>
       </c>
       <c r="I42">
-        <f>(F42*1.1)</f>
+        <f t="shared" si="5"/>
         <v>96154.3</v>
       </c>
       <c r="J42">
-        <f>(G42*2)</f>
+        <f t="shared" si="7"/>
         <v>8980</v>
       </c>
       <c r="K42">
-        <f>SUM(H42:J42)</f>
+        <f t="shared" si="6"/>
         <v>250854.60000000003</v>
       </c>
       <c r="L42">
@@ -6323,19 +6323,19 @@
         <v>2184</v>
       </c>
       <c r="H43">
-        <f>(E43*1.1)</f>
+        <f t="shared" si="4"/>
         <v>40172</v>
       </c>
       <c r="I43">
-        <f>(F43*1.1)</f>
+        <f t="shared" si="5"/>
         <v>54474.200000000004</v>
       </c>
       <c r="J43">
-        <f>(G43*2)</f>
+        <f t="shared" si="7"/>
         <v>4368</v>
       </c>
       <c r="K43">
-        <f>SUM(H43:J43)</f>
+        <f t="shared" si="6"/>
         <v>99014.200000000012</v>
       </c>
       <c r="L43">
@@ -6380,19 +6380,19 @@
         <v>11092</v>
       </c>
       <c r="H44">
-        <f>(E44*1.1)</f>
+        <f t="shared" si="4"/>
         <v>351085.9</v>
       </c>
       <c r="I44">
-        <f>(F44*1.1)</f>
+        <f t="shared" si="5"/>
         <v>231177.1</v>
       </c>
       <c r="J44">
-        <f>(G44*2)</f>
+        <f t="shared" si="7"/>
         <v>22184</v>
       </c>
       <c r="K44">
-        <f>SUM(H44:J44)</f>
+        <f t="shared" si="6"/>
         <v>604447</v>
       </c>
       <c r="L44">
@@ -6437,19 +6437,19 @@
         <v>33102</v>
       </c>
       <c r="H45">
-        <f>(E45*1.1)</f>
+        <f t="shared" si="4"/>
         <v>701223.60000000009</v>
       </c>
       <c r="I45">
-        <f>(F45*1.1)</f>
+        <f t="shared" si="5"/>
         <v>529769.9</v>
       </c>
       <c r="J45">
-        <f>(G45*2)</f>
+        <f t="shared" si="7"/>
         <v>66204</v>
       </c>
       <c r="K45">
-        <f>SUM(H45:J45)</f>
+        <f t="shared" si="6"/>
         <v>1297197.5</v>
       </c>
       <c r="L45">
@@ -6494,19 +6494,19 @@
         <v>1191</v>
       </c>
       <c r="H46">
-        <f>(E46*1.1)</f>
+        <f t="shared" si="4"/>
         <v>52141.100000000006</v>
       </c>
       <c r="I46">
-        <f>(F46*1.1)</f>
+        <f t="shared" si="5"/>
         <v>59546.3</v>
       </c>
       <c r="J46">
-        <f>(G46*2)</f>
+        <f t="shared" si="7"/>
         <v>2382</v>
       </c>
       <c r="K46">
-        <f>SUM(H46:J46)</f>
+        <f t="shared" si="6"/>
         <v>114069.40000000001</v>
       </c>
       <c r="L46">
@@ -6551,19 +6551,19 @@
         <v>885</v>
       </c>
       <c r="H47">
-        <f>(E47*1.1)</f>
+        <f t="shared" si="4"/>
         <v>20152</v>
       </c>
       <c r="I47">
-        <f>(F47*1.1)</f>
+        <f t="shared" si="5"/>
         <v>20738.300000000003</v>
       </c>
       <c r="J47">
-        <f>(G47*2)</f>
+        <f t="shared" si="7"/>
         <v>1770</v>
       </c>
       <c r="K47">
-        <f>SUM(H47:J47)</f>
+        <f t="shared" si="6"/>
         <v>42660.3</v>
       </c>
       <c r="L47">
@@ -6608,19 +6608,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <f>(E48*1.1)</f>
+        <f t="shared" si="4"/>
         <v>325559.30000000005</v>
       </c>
       <c r="I48">
-        <f>(F48*1.1)</f>
+        <f t="shared" si="5"/>
         <v>230972.50000000003</v>
       </c>
       <c r="J48">
-        <f>(G48*2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K48">
-        <f>SUM(H48:J48)</f>
+        <f t="shared" si="6"/>
         <v>556531.80000000005</v>
       </c>
       <c r="L48">
@@ -6665,19 +6665,19 @@
         <v>8028</v>
       </c>
       <c r="H49">
-        <f>(E49*1.1)</f>
+        <f t="shared" si="4"/>
         <v>235516.6</v>
       </c>
       <c r="I49">
-        <f>(F49*1.1)</f>
+        <f t="shared" si="5"/>
         <v>166131.90000000002</v>
       </c>
       <c r="J49">
-        <f>(G49*2)</f>
+        <f t="shared" si="7"/>
         <v>16056</v>
       </c>
       <c r="K49">
-        <f>SUM(H49:J49)</f>
+        <f t="shared" si="6"/>
         <v>417704.5</v>
       </c>
       <c r="L49">
@@ -6722,19 +6722,19 @@
         <v>5283</v>
       </c>
       <c r="H50">
-        <f>(E50*1.1)</f>
+        <f t="shared" si="4"/>
         <v>101336.40000000001</v>
       </c>
       <c r="I50">
-        <f>(F50*1.1)</f>
+        <f t="shared" si="5"/>
         <v>89215.5</v>
       </c>
       <c r="J50">
-        <f>(G50*2)</f>
+        <f t="shared" si="7"/>
         <v>10566</v>
       </c>
       <c r="K50">
-        <f>SUM(H50:J50)</f>
+        <f t="shared" si="6"/>
         <v>201117.90000000002</v>
       </c>
       <c r="L50">
@@ -6779,19 +6779,19 @@
         <v>523</v>
       </c>
       <c r="H51">
-        <f>(E51*1.1)</f>
+        <f t="shared" si="4"/>
         <v>204930.00000000003</v>
       </c>
       <c r="I51">
-        <f>(F51*1.1)</f>
+        <f t="shared" si="5"/>
         <v>175762.40000000002</v>
       </c>
       <c r="J51">
-        <f>(G51*2)</f>
+        <f t="shared" si="7"/>
         <v>1046</v>
       </c>
       <c r="K51">
-        <f>SUM(H51:J51)</f>
+        <f t="shared" si="6"/>
         <v>381738.4</v>
       </c>
       <c r="L51">
@@ -6836,19 +6836,19 @@
         <v>1295</v>
       </c>
       <c r="H52">
-        <f>(E52*1.1)</f>
+        <f t="shared" si="4"/>
         <v>24825.9</v>
       </c>
       <c r="I52">
-        <f>(F52*1.1)</f>
+        <f t="shared" si="5"/>
         <v>28396.500000000004</v>
       </c>
       <c r="J52">
-        <f>(G52*2)</f>
+        <f t="shared" si="7"/>
         <v>2590</v>
       </c>
       <c r="K52">
-        <f>SUM(H52:J52)</f>
+        <f t="shared" si="6"/>
         <v>55812.400000000009</v>
       </c>
       <c r="L52">

--- a/data/2016 Sales, Manufacturing Workbook.xlsx
+++ b/data/2016 Sales, Manufacturing Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dieterholger/Desktop/Git/US-Gun-Manufacturing-Interactive/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9F00E2-DF1E-F444-AF86-5198E10B5BC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20174026-A5D5-7C4C-BAD6-C5287E2EDA4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/2016 Sales, Manufacturing Workbook.xlsx
+++ b/data/2016 Sales, Manufacturing Workbook.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dieterholger/Desktop/Git/US-Gun-Manufacturing-Interactive/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diete\OneDrive\Desktop\Git\US-Gun-Manufacturing-Interactive\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20174026-A5D5-7C4C-BAD6-C5287E2EDA4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFADD397-D429-4CFF-AE5C-9112DA208B4C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016 State Checks vs Manufactur" sheetId="1" r:id="rId1"/>
     <sheet name="Estimated Sales vs Manufacturin" sheetId="2" r:id="rId2"/>
+    <sheet name="Regional Production" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <pivotCaches>
+    <pivotCache cacheId="14" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="143">
   <si>
     <t>State</t>
   </si>
@@ -448,6 +452,15 @@
   </si>
   <si>
     <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Total Manufactured</t>
   </si>
 </sst>
 </file>
@@ -937,10 +950,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -997,6 +1018,1226 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dieter Holger" refreshedDate="43415.777180902776" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="52" xr:uid="{D09D6C66-B40A-4D86-9DB4-D543809726E3}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:P1048576" sheet="2016 State Checks vs Manufactur"/>
+  </cacheSource>
+  <cacheFields count="16">
+    <cacheField name="State" numFmtId="0">
+      <sharedItems containsBlank="1" count="52">
+        <s v="Alabama"/>
+        <s v="Alaska"/>
+        <s v="Arizona"/>
+        <s v="Arkansas"/>
+        <s v="California"/>
+        <s v="Colorado"/>
+        <s v="Connecticut"/>
+        <s v="Delaware"/>
+        <s v="Florida"/>
+        <s v="Georgia"/>
+        <s v="Hawaii"/>
+        <s v="Idaho"/>
+        <s v="Illinois"/>
+        <s v="Indiana"/>
+        <s v="Iowa"/>
+        <s v="Kansas"/>
+        <s v="Kentucky"/>
+        <s v="Louisiana"/>
+        <s v="Maine"/>
+        <s v="Maryland"/>
+        <s v="Massachusetts"/>
+        <s v="Michigan"/>
+        <s v="Minnesota"/>
+        <s v="Mississippi"/>
+        <s v="Missouri"/>
+        <s v="Montana"/>
+        <s v="Nebraska"/>
+        <s v="Nevada"/>
+        <s v="New Hampshire"/>
+        <s v="New Jersey"/>
+        <s v="New Mexico"/>
+        <s v="New York"/>
+        <s v="North Carolina"/>
+        <s v="North Dakota"/>
+        <s v="Ohio"/>
+        <s v="Oklahoma"/>
+        <s v="Oregon"/>
+        <s v="Pennsylvania"/>
+        <s v="Puerto Rico"/>
+        <s v="Rhode Island"/>
+        <s v="South Carolina"/>
+        <s v="South Dakota"/>
+        <s v="Tennessee"/>
+        <s v="Texas"/>
+        <s v="Utah"/>
+        <s v="Vermont"/>
+        <s v="Virginia"/>
+        <s v="Washington"/>
+        <s v="West Virginia"/>
+        <s v="Wisconsin"/>
+        <s v="Wyoming"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Abbreviation" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="South"/>
+        <s v="West"/>
+        <s v="Northeast"/>
+        <s v="Midwest"/>
+        <s v="Territory"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Division" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Handgun Checks" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="662308"/>
+    </cacheField>
+    <cacheField name="Long Gun Checks" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="554550"/>
+    </cacheField>
+    <cacheField name="Multiple Checks" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="33102"/>
+    </cacheField>
+    <cacheField name="Total Checks" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1152187"/>
+    </cacheField>
+    <cacheField name="Rifles Manufactured" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12" maxValue="726077"/>
+    </cacheField>
+    <cacheField name="Pistols Manufactured" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1471896"/>
+    </cacheField>
+    <cacheField name="Shotguns Manufactured" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="367550"/>
+    </cacheField>
+    <cacheField name="Revolvers Manufactured" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="294680"/>
+    </cacheField>
+    <cacheField name="Misc Manufactured" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="137890"/>
+    </cacheField>
+    <cacheField name="Total Manufactured" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12" maxValue="2634040"/>
+    </cacheField>
+    <cacheField name="Gun Violence Per 100,000" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="3.4" maxValue="23.3"/>
+    </cacheField>
+    <cacheField name="Gun Deaths" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="49" maxValue="3353"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="52">
+  <r>
+    <x v="0"/>
+    <s v="AL"/>
+    <x v="0"/>
+    <s v="East South Central"/>
+    <n v="153123"/>
+    <n v="121963"/>
+    <n v="6545"/>
+    <n v="281631"/>
+    <n v="290699"/>
+    <n v="84903"/>
+    <n v="46364"/>
+    <n v="0"/>
+    <n v="428"/>
+    <n v="422394"/>
+    <n v="23.3"/>
+    <n v="177"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="AK"/>
+    <x v="1"/>
+    <s v="Pacific"/>
+    <n v="37491"/>
+    <n v="36887"/>
+    <n v="2316"/>
+    <n v="76694"/>
+    <n v="104"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="78"/>
+    <n v="193"/>
+    <n v="21.5"/>
+    <n v="1046"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="AZ"/>
+    <x v="1"/>
+    <s v="Mountain"/>
+    <n v="166784"/>
+    <n v="108988"/>
+    <n v="7908"/>
+    <n v="283680"/>
+    <n v="12974"/>
+    <n v="904147"/>
+    <n v="7"/>
+    <n v="14"/>
+    <n v="19298"/>
+    <n v="936440"/>
+    <n v="17.8"/>
+    <n v="541"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="AR"/>
+    <x v="0"/>
+    <s v="West South Central"/>
+    <n v="80244"/>
+    <n v="82120"/>
+    <n v="4400"/>
+    <n v="166764"/>
+    <n v="2978"/>
+    <n v="13456"/>
+    <n v="347"/>
+    <n v="0"/>
+    <n v="4316"/>
+    <n v="21097"/>
+    <n v="15.2"/>
+    <n v="1094"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="CA"/>
+    <x v="1"/>
+    <s v="Pacific"/>
+    <n v="560355"/>
+    <n v="554550"/>
+    <n v="0"/>
+    <n v="1114905"/>
+    <n v="17742"/>
+    <n v="54242"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="18149"/>
+    <n v="90133"/>
+    <n v="7.9"/>
+    <n v="3184"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="CO"/>
+    <x v="1"/>
+    <s v="Mountain"/>
+    <n v="242502"/>
+    <n v="180026"/>
+    <n v="14293"/>
+    <n v="436821"/>
+    <n v="878"/>
+    <n v="109"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="660"/>
+    <n v="1647"/>
+    <n v="14.3"/>
+    <n v="812"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="CT"/>
+    <x v="2"/>
+    <s v="New England"/>
+    <n v="122375"/>
+    <n v="43813"/>
+    <n v="0"/>
+    <n v="166188"/>
+    <n v="187224"/>
+    <n v="77246"/>
+    <n v="9756"/>
+    <n v="45094"/>
+    <n v="178"/>
+    <n v="319498"/>
+    <n v="4.5999999999999996"/>
+    <n v="172"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="DE"/>
+    <x v="0"/>
+    <s v="South Atlantic"/>
+    <n v="25574"/>
+    <n v="21746"/>
+    <n v="1034"/>
+    <n v="48354"/>
+    <n v="48"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="48"/>
+    <n v="11"/>
+    <n v="111"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="FL"/>
+    <x v="0"/>
+    <s v="South Atlantic"/>
+    <n v="662308"/>
+    <n v="316232"/>
+    <n v="25142"/>
+    <n v="1003682"/>
+    <n v="49257"/>
+    <n v="344806"/>
+    <n v="29342"/>
+    <n v="199912"/>
+    <n v="99046"/>
+    <n v="722363"/>
+    <n v="12.6"/>
+    <n v="2704"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="GA"/>
+    <x v="0"/>
+    <s v="South Atlantic"/>
+    <n v="194800"/>
+    <n v="128277"/>
+    <n v="7478"/>
+    <n v="330555"/>
+    <n v="3928"/>
+    <n v="379516"/>
+    <n v="14"/>
+    <n v="16"/>
+    <n v="1070"/>
+    <n v="384544"/>
+    <n v="15"/>
+    <n v="1571"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="HI"/>
+    <x v="1"/>
+    <s v="Pacific"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="42"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="42"/>
+    <n v="4.5"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="ID"/>
+    <x v="1"/>
+    <s v="Mountain"/>
+    <n v="46523"/>
+    <n v="55591"/>
+    <n v="2406"/>
+    <n v="104520"/>
+    <n v="11375"/>
+    <n v="1147"/>
+    <n v="716"/>
+    <n v="0"/>
+    <n v="9975"/>
+    <n v="23213"/>
+    <n v="11.7"/>
+    <n v="1490"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="IL"/>
+    <x v="3"/>
+    <s v="East North Central"/>
+    <n v="352411"/>
+    <n v="177255"/>
+    <n v="12133"/>
+    <n v="541799"/>
+    <n v="119578"/>
+    <n v="79966"/>
+    <n v="2927"/>
+    <n v="1"/>
+    <n v="3818"/>
+    <n v="206290"/>
+    <n v="15"/>
+    <n v="997"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="IN"/>
+    <x v="3"/>
+    <s v="East North Central"/>
+    <n v="278182"/>
+    <n v="177218"/>
+    <n v="9082"/>
+    <n v="464482"/>
+    <n v="2225"/>
+    <n v="378"/>
+    <n v="501"/>
+    <n v="0"/>
+    <n v="2639"/>
+    <n v="5743"/>
+    <n v="9.1999999999999993"/>
+    <n v="288"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="IA"/>
+    <x v="3"/>
+    <s v="West North Central"/>
+    <n v="2790"/>
+    <n v="35254"/>
+    <n v="70"/>
+    <n v="38114"/>
+    <n v="2222"/>
+    <n v="4107"/>
+    <n v="21"/>
+    <n v="5"/>
+    <n v="1486"/>
+    <n v="7841"/>
+    <n v="14.6"/>
+    <n v="242"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="KS"/>
+    <x v="3"/>
+    <s v="West North Central"/>
+    <n v="81116"/>
+    <n v="73748"/>
+    <n v="4271"/>
+    <n v="159135"/>
+    <n v="270"/>
+    <n v="145"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3500"/>
+    <n v="3916"/>
+    <n v="13.4"/>
+    <n v="383"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="KY"/>
+    <x v="0"/>
+    <s v="East South Central"/>
+    <n v="140721"/>
+    <n v="109030"/>
+    <n v="6943"/>
+    <n v="256694"/>
+    <n v="454881"/>
+    <n v="3748"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="1542"/>
+    <n v="460181"/>
+    <n v="17.5"/>
+    <n v="772"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="LA"/>
+    <x v="0"/>
+    <s v="West South Central"/>
+    <n v="171588"/>
+    <n v="139122"/>
+    <n v="8609"/>
+    <n v="319319"/>
+    <n v="251"/>
+    <n v="19"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="39"/>
+    <n v="311"/>
+    <n v="21.3"/>
+    <n v="987"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="ME"/>
+    <x v="2"/>
+    <s v="New England"/>
+    <n v="48845"/>
+    <n v="46780"/>
+    <n v="2458"/>
+    <n v="98083"/>
+    <n v="64818"/>
+    <n v="442"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="14"/>
+    <n v="65274"/>
+    <n v="3.4"/>
+    <n v="242"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="MD"/>
+    <x v="0"/>
+    <s v="South Atlantic"/>
+    <n v="52305"/>
+    <n v="71892"/>
+    <n v="337"/>
+    <n v="124534"/>
+    <n v="25156"/>
+    <n v="43157"/>
+    <n v="28098"/>
+    <n v="0"/>
+    <n v="1456"/>
+    <n v="97867"/>
+    <n v="11.9"/>
+    <n v="707"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="MA"/>
+    <x v="2"/>
+    <s v="New England"/>
+    <n v="75977"/>
+    <n v="41931"/>
+    <n v="2480"/>
+    <n v="120388"/>
+    <n v="726077"/>
+    <n v="1471896"/>
+    <n v="16239"/>
+    <n v="294680"/>
+    <n v="125148"/>
+    <n v="2634040"/>
+    <n v="8.3000000000000007"/>
+    <n v="123"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="MI"/>
+    <x v="3"/>
+    <s v="East North Central"/>
+    <n v="164878"/>
+    <n v="129089"/>
+    <n v="2815"/>
+    <n v="296782"/>
+    <n v="679"/>
+    <n v="29"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1903"/>
+    <n v="2611"/>
+    <n v="12.3"/>
+    <n v="1230"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="MN"/>
+    <x v="3"/>
+    <s v="West North Central"/>
+    <n v="133962"/>
+    <n v="143543"/>
+    <n v="5046"/>
+    <n v="282551"/>
+    <n v="4605"/>
+    <n v="18849"/>
+    <n v="0"/>
+    <n v="1072"/>
+    <n v="18243"/>
+    <n v="42769"/>
+    <n v="7.6"/>
+    <n v="432"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="MS"/>
+    <x v="0"/>
+    <s v="East South Central"/>
+    <n v="119050"/>
+    <n v="92822"/>
+    <n v="5263"/>
+    <n v="217135"/>
+    <n v="877"/>
+    <n v="64"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="629"/>
+    <n v="1575"/>
+    <n v="19"/>
+    <n v="1144"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="MO"/>
+    <x v="3"/>
+    <s v="West North Central"/>
+    <n v="274754"/>
+    <n v="202708"/>
+    <n v="12753"/>
+    <n v="490215"/>
+    <n v="11732"/>
+    <n v="2837"/>
+    <n v="3023"/>
+    <n v="0"/>
+    <n v="21591"/>
+    <n v="39183"/>
+    <n v="19.899999999999999"/>
+    <n v="587"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="MT"/>
+    <x v="1"/>
+    <s v="Mountain"/>
+    <n v="37547"/>
+    <n v="56834"/>
+    <n v="2678"/>
+    <n v="97059"/>
+    <n v="18632"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2206"/>
+    <n v="20841"/>
+    <n v="18.899999999999999"/>
+    <n v="194"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="NE"/>
+    <x v="3"/>
+    <s v="West North Central"/>
+    <n v="1717"/>
+    <n v="26494"/>
+    <n v="82"/>
+    <n v="28293"/>
+    <n v="107"/>
+    <n v="59"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="378"/>
+    <n v="547"/>
+    <n v="9.3000000000000007"/>
+    <n v="132"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="NV"/>
+    <x v="1"/>
+    <s v="Mountain"/>
+    <n v="66158"/>
+    <n v="38105"/>
+    <n v="3723"/>
+    <n v="107986"/>
+    <n v="1787"/>
+    <n v="37138"/>
+    <n v="80"/>
+    <n v="17"/>
+    <n v="28730"/>
+    <n v="67752"/>
+    <n v="13.7"/>
+    <n v="1409"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="NH"/>
+    <x v="2"/>
+    <s v="New England"/>
+    <n v="68529"/>
+    <n v="44681"/>
+    <n v="55"/>
+    <n v="113265"/>
+    <n v="550719"/>
+    <n v="602392"/>
+    <n v="179"/>
+    <n v="248470"/>
+    <n v="92043"/>
+    <n v="1493803"/>
+    <n v="5.5"/>
+    <n v="485"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="NJ"/>
+    <x v="2"/>
+    <s v="Middle Atlantic"/>
+    <n v="70249"/>
+    <n v="49099"/>
+    <n v="0"/>
+    <n v="119348"/>
+    <n v="258568"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="37"/>
+    <n v="258606"/>
+    <n v="18.100000000000001"/>
+    <n v="383"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="NM"/>
+    <x v="1"/>
+    <s v="Mountain"/>
+    <n v="69434"/>
+    <n v="55664"/>
+    <n v="3732"/>
+    <n v="128830"/>
+    <n v="183"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="200"/>
+    <n v="4.4000000000000004"/>
+    <n v="900"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="NY"/>
+    <x v="2"/>
+    <s v="Middle Atlantic"/>
+    <n v="133285"/>
+    <n v="197670"/>
+    <n v="2466"/>
+    <n v="333421"/>
+    <n v="309229"/>
+    <n v="230843"/>
+    <n v="339508"/>
+    <n v="3340"/>
+    <n v="5204"/>
+    <n v="888124"/>
+    <n v="11.9"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="NC"/>
+    <x v="0"/>
+    <s v="South Atlantic"/>
+    <n v="16595"/>
+    <n v="176919"/>
+    <n v="2812"/>
+    <n v="196326"/>
+    <n v="292210"/>
+    <n v="108395"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="26919"/>
+    <n v="427524"/>
+    <n v="9.1"/>
+    <n v="171"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <s v="ND"/>
+    <x v="3"/>
+    <s v="West North Central"/>
+    <n v="19975"/>
+    <n v="34013"/>
+    <n v="972"/>
+    <n v="54960"/>
+    <n v="185"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="120"/>
+    <n v="314"/>
+    <n v="16.8"/>
+    <n v="498"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="OH"/>
+    <x v="3"/>
+    <s v="East North Central"/>
+    <n v="394570"/>
+    <n v="243963"/>
+    <n v="16333"/>
+    <n v="654866"/>
+    <n v="71484"/>
+    <n v="147579"/>
+    <n v="1530"/>
+    <n v="0"/>
+    <n v="10695"/>
+    <n v="231288"/>
+    <n v="12.9"/>
+    <n v="1524"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="OK"/>
+    <x v="3"/>
+    <s v="West South Central"/>
+    <n v="166181"/>
+    <n v="130514"/>
+    <n v="10661"/>
+    <n v="307356"/>
+    <n v="1235"/>
+    <n v="78"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="1868"/>
+    <n v="3191"/>
+    <n v="19.600000000000001"/>
+    <n v="766"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <s v="OR"/>
+    <x v="1"/>
+    <s v="Pacific"/>
+    <n v="178716"/>
+    <n v="143029"/>
+    <n v="0"/>
+    <n v="321745"/>
+    <n v="8788"/>
+    <n v="501"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1877"/>
+    <n v="11168"/>
+    <n v="11.9"/>
+    <n v="513"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="PA"/>
+    <x v="2"/>
+    <s v="Middle Atlantic"/>
+    <n v="642232"/>
+    <n v="158141"/>
+    <n v="0"/>
+    <n v="800373"/>
+    <n v="83688"/>
+    <n v="1152"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="733"/>
+    <n v="85589"/>
+    <n v="12"/>
+    <n v="1555"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <s v="PR"/>
+    <x v="4"/>
+    <s v="Territory"/>
+    <n v="12779"/>
+    <n v="2416"/>
+    <n v="275"/>
+    <n v="15470"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="12"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="RI"/>
+    <x v="2"/>
+    <s v="New England"/>
+    <n v="14262"/>
+    <n v="10204"/>
+    <n v="1999"/>
+    <n v="26465"/>
+    <n v="301"/>
+    <n v="1257"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1558"/>
+    <n v="4.0999999999999996"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="SC"/>
+    <x v="0"/>
+    <s v="South Atlantic"/>
+    <n v="132473"/>
+    <n v="87413"/>
+    <n v="4490"/>
+    <n v="224376"/>
+    <n v="119335"/>
+    <n v="6057"/>
+    <n v="2017"/>
+    <n v="0"/>
+    <n v="137890"/>
+    <n v="265299"/>
+    <n v="17.7"/>
+    <n v="891"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="SD"/>
+    <x v="3"/>
+    <s v="West North Central"/>
+    <n v="36520"/>
+    <n v="49522"/>
+    <n v="2184"/>
+    <n v="88226"/>
+    <n v="185150"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="98"/>
+    <n v="185257"/>
+    <n v="13.4"/>
+    <n v="108"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="TN"/>
+    <x v="0"/>
+    <s v="East South Central"/>
+    <n v="319169"/>
+    <n v="210161"/>
+    <n v="11092"/>
+    <n v="540422"/>
+    <n v="7943"/>
+    <n v="1439"/>
+    <n v="10"/>
+    <n v="42"/>
+    <n v="17857"/>
+    <n v="27291"/>
+    <n v="17.100000000000001"/>
+    <n v="1148"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="TX"/>
+    <x v="0"/>
+    <s v="West South Central"/>
+    <n v="637476"/>
+    <n v="481609"/>
+    <n v="33102"/>
+    <n v="1152187"/>
+    <n v="180795"/>
+    <n v="31071"/>
+    <n v="367550"/>
+    <n v="2"/>
+    <n v="6947"/>
+    <n v="586365"/>
+    <n v="12.1"/>
+    <n v="3353"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="UT"/>
+    <x v="1"/>
+    <s v="Mountain"/>
+    <n v="47401"/>
+    <n v="54133"/>
+    <n v="1191"/>
+    <n v="102725"/>
+    <n v="7931"/>
+    <n v="57396"/>
+    <n v="0"/>
+    <n v="63084"/>
+    <n v="20765"/>
+    <n v="149176"/>
+    <n v="12.9"/>
+    <n v="370"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <s v="VT"/>
+    <x v="2"/>
+    <s v="New England"/>
+    <n v="18320"/>
+    <n v="18853"/>
+    <n v="885"/>
+    <n v="38058"/>
+    <n v="90140"/>
+    <n v="3435"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="54235"/>
+    <n v="147810"/>
+    <n v="12.1"/>
+    <n v="1049"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <s v="VA"/>
+    <x v="0"/>
+    <s v="South Atlantic"/>
+    <n v="295963"/>
+    <n v="209975"/>
+    <n v="0"/>
+    <n v="505938"/>
+    <n v="6925"/>
+    <n v="5294"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="1774"/>
+    <n v="13999"/>
+    <n v="11.1"/>
+    <n v="78"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <s v="WA"/>
+    <x v="1"/>
+    <s v="Pacific"/>
+    <n v="214106"/>
+    <n v="151029"/>
+    <n v="8028"/>
+    <n v="373163"/>
+    <n v="16252"/>
+    <n v="310"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="86312"/>
+    <n v="102892"/>
+    <n v="9"/>
+    <n v="686"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <s v="WV"/>
+    <x v="0"/>
+    <s v="South Atlantic"/>
+    <n v="92124"/>
+    <n v="81105"/>
+    <n v="5283"/>
+    <n v="178512"/>
+    <n v="712"/>
+    <n v="29"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1185"/>
+    <n v="1927"/>
+    <n v="11.4"/>
+    <n v="664"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <s v="WI"/>
+    <x v="3"/>
+    <s v="East North Central"/>
+    <n v="186300"/>
+    <n v="159784"/>
+    <n v="523"/>
+    <n v="346607"/>
+    <n v="35177"/>
+    <n v="374"/>
+    <n v="322"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="35898"/>
+    <n v="17.5"/>
+    <n v="332"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <s v="WY"/>
+    <x v="1"/>
+    <s v="Mountain"/>
+    <n v="22569"/>
+    <n v="25815"/>
+    <n v="1295"/>
+    <n v="49679"/>
+    <n v="1227"/>
+    <n v="26"/>
+    <n v="9"/>
+    <n v="517"/>
+    <n v="18"/>
+    <n v="1797"/>
+    <n v="17.399999999999999"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F2FC996-DEBF-40F1-8B96-D7626FC18A6D}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="53">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" sd="0" x="0"/>
+        <item h="1" sd="0" x="4"/>
+        <item h="1" sd="0" x="1"/>
+        <item h="1" sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x v="49"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Manufactured" fld="13" baseField="2" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1299,13 +2540,13 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="19.33203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +2596,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -1405,7 +2646,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -1455,7 +2696,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -1505,7 +2746,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -1555,7 +2796,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1605,7 +2846,7 @@
         <v>3184</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -1655,7 +2896,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -1705,7 +2946,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -1755,7 +2996,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -1805,7 +3046,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -1855,7 +3096,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -1905,7 +3146,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -1955,7 +3196,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -2005,7 +3246,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -2055,7 +3296,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -2105,7 +3346,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -2155,7 +3396,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -2205,7 +3446,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>106</v>
       </c>
@@ -2255,7 +3496,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -2305,7 +3546,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>120</v>
       </c>
@@ -2355,7 +3596,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -2405,7 +3646,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -2455,7 +3696,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -2505,7 +3746,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -2555,7 +3796,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -2605,7 +3846,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -2655,7 +3896,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -2705,7 +3946,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2755,7 +3996,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -2805,7 +4046,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -2855,7 +4096,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -2905,7 +4146,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -2955,7 +4196,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -3005,7 +4246,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -3055,7 +4296,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>117</v>
       </c>
@@ -3105,7 +4346,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -3155,7 +4396,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -3205,7 +4446,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -3255,7 +4496,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>138</v>
       </c>
@@ -3299,7 +4540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -3349,7 +4590,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -3399,7 +4640,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>128</v>
       </c>
@@ -3449,7 +4690,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>129</v>
       </c>
@@ -3499,7 +4740,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -3549,7 +4790,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -3599,7 +4840,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>132</v>
       </c>
@@ -3649,7 +4890,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -3699,7 +4940,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>134</v>
       </c>
@@ -3749,7 +4990,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>135</v>
       </c>
@@ -3799,7 +5040,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -3849,7 +5090,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -3911,19 +5152,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="21.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="8" max="8" width="28.5" customWidth="1"/>
     <col min="9" max="9" width="30.5" customWidth="1"/>
     <col min="10" max="10" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3976,7 +5217,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -4033,7 +5274,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -4090,7 +5331,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -4147,7 +5388,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -4204,7 +5445,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -4261,7 +5502,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -4318,7 +5559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -4375,7 +5616,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -4432,7 +5673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -4489,7 +5730,7 @@
         <v>-20.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -4546,7 +5787,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -4603,7 +5844,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -4660,7 +5901,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -4717,7 +5958,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -4774,7 +6015,7 @@
         <v>-14.5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -4831,7 +6072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -4888,7 +6129,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -4945,7 +6186,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>106</v>
       </c>
@@ -5002,7 +6243,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -5059,7 +6300,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>120</v>
       </c>
@@ -5116,7 +6357,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -5173,7 +6414,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -5230,7 +6471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -5287,7 +6528,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -5344,7 +6585,7 @@
         <v>-19.5</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -5401,7 +6642,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -5458,7 +6699,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -5515,7 +6756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -5572,7 +6813,7 @@
         <v>-20.5</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -5629,7 +6870,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -5686,7 +6927,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -5743,7 +6984,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -5800,7 +7041,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -5835,7 +7076,7 @@
         <v>5624</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K65" si="6">SUM(H34:J34)</f>
+        <f t="shared" ref="K34:K52" si="6">SUM(H34:J34)</f>
         <v>218489.40000000002</v>
       </c>
       <c r="L34">
@@ -5857,7 +7098,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -5914,7 +7155,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>117</v>
       </c>
@@ -5971,7 +7212,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -6028,7 +7269,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -6085,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -6138,7 +7379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>138</v>
       </c>
@@ -6186,7 +7427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -6243,7 +7484,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -6300,7 +7541,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>128</v>
       </c>
@@ -6357,7 +7598,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>129</v>
       </c>
@@ -6414,7 +7655,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -6471,7 +7712,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -6528,7 +7769,7 @@
         <v>-8.5</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>132</v>
       </c>
@@ -6585,7 +7826,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -6642,7 +7883,7 @@
         <v>-22.5</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>134</v>
       </c>
@@ -6699,7 +7940,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>135</v>
       </c>
@@ -6756,7 +7997,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -6813,7 +8054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -6876,4 +8117,151 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50736D91-FE88-40EE-AE9E-3E2CBAC447E5}">
+  <dimension ref="A3:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5">
+        <v>764848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="5">
+        <v>206290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="5">
+        <v>42769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="5">
+        <v>39183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="5">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="5">
+        <v>231288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="5">
+        <v>185257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="5">
+        <v>35898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="5">
+        <v>764848</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/2016 Sales, Manufacturing Workbook.xlsx
+++ b/data/2016 Sales, Manufacturing Workbook.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diete\OneDrive\Desktop\Git\US-Gun-Manufacturing-Interactive\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFADD397-D429-4CFF-AE5C-9112DA208B4C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9FA911-B50C-4349-B69A-40E11BC27E3B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016 State Checks vs Manufactur" sheetId="1" r:id="rId1"/>
     <sheet name="Estimated Sales vs Manufacturin" sheetId="2" r:id="rId2"/>
-    <sheet name="Regional Production" sheetId="3" r:id="rId3"/>
+    <sheet name="Regional Table" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="19" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="145">
   <si>
     <t>State</t>
   </si>
@@ -461,6 +461,12 @@
   </si>
   <si>
     <t>Sum of Total Manufactured</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Sum of Total Estimated Gun Sales</t>
   </si>
 </sst>
 </file>
@@ -950,7 +956,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -959,9 +965,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1021,11 +1024,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dieter Holger" refreshedDate="43415.777180902776" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="52" xr:uid="{D09D6C66-B40A-4D86-9DB4-D543809726E3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dieter Holger" refreshedDate="43420.70182905093" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="52" xr:uid="{720CB99E-C60F-4507-8BC7-14685056EA1A}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:P1048576" sheet="2016 State Checks vs Manufactur"/>
+    <worksheetSource ref="A1:Q1048576" sheet="Estimated Sales vs Manufacturin"/>
   </cacheSource>
-  <cacheFields count="16">
+  <cacheFields count="17">
     <cacheField name="State" numFmtId="0">
       <sharedItems containsBlank="1" count="52">
         <s v="Alabama"/>
@@ -1086,14 +1089,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Region" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
-        <s v="South"/>
-        <s v="West"/>
-        <s v="Northeast"/>
-        <s v="Midwest"/>
-        <s v="Territory"/>
-        <m/>
-      </sharedItems>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Division" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1107,32 +1103,35 @@
     <cacheField name="Multiple Checks" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="33102"/>
     </cacheField>
-    <cacheField name="Total Checks" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1152187"/>
+    <cacheField name="Estimated Handgun Sales (x1.1 Checks)" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="728538.8"/>
     </cacheField>
-    <cacheField name="Rifles Manufactured" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12" maxValue="726077"/>
+    <cacheField name="Estimated Long Gun Sales (x1.1 Checks)" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="610005"/>
     </cacheField>
-    <cacheField name="Pistols Manufactured" numFmtId="0">
+    <cacheField name="Estimated Multiple Guns Sold (x2 Checks)" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="66204"/>
+    </cacheField>
+    <cacheField name="Total Estimated Gun Sales" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1297197.5"/>
+    </cacheField>
+    <cacheField name="Handguns Manufactured" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1471896"/>
     </cacheField>
-    <cacheField name="Shotguns Manufactured" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="367550"/>
-    </cacheField>
-    <cacheField name="Revolvers Manufactured" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="294680"/>
-    </cacheField>
-    <cacheField name="Misc Manufactured" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="137890"/>
+    <cacheField name="Long Guns Manufactured" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12" maxValue="1036996"/>
     </cacheField>
     <cacheField name="Total Manufactured" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12" maxValue="2634040"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12" maxValue="2508892"/>
     </cacheField>
-    <cacheField name="Gun Violence Per 100,000" numFmtId="0">
+    <cacheField name="Gun Deaths Per 100,000" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="3.4" maxValue="23.3"/>
     </cacheField>
     <cacheField name="Gun Deaths" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="49" maxValue="3353"/>
+    </cacheField>
+    <cacheField name="Brady Score" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-39" maxValue="76"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1148,925 +1147,977 @@
   <r>
     <x v="0"/>
     <s v="AL"/>
-    <x v="0"/>
+    <s v="South"/>
     <s v="East South Central"/>
     <n v="153123"/>
     <n v="121963"/>
     <n v="6545"/>
-    <n v="281631"/>
-    <n v="290699"/>
+    <n v="168435.30000000002"/>
+    <n v="134159.30000000002"/>
+    <n v="13090"/>
+    <n v="315684.60000000003"/>
     <n v="84903"/>
-    <n v="46364"/>
-    <n v="0"/>
-    <n v="428"/>
-    <n v="422394"/>
+    <n v="337063"/>
+    <n v="421966"/>
     <n v="23.3"/>
     <n v="177"/>
+    <n v="-18"/>
   </r>
   <r>
     <x v="1"/>
     <s v="AK"/>
-    <x v="1"/>
+    <s v="West"/>
     <s v="Pacific"/>
     <n v="37491"/>
     <n v="36887"/>
     <n v="2316"/>
-    <n v="76694"/>
-    <n v="104"/>
+    <n v="41240.100000000006"/>
+    <n v="40575.700000000004"/>
+    <n v="4632"/>
+    <n v="86447.800000000017"/>
     <n v="3"/>
-    <n v="0"/>
-    <n v="8"/>
-    <n v="78"/>
-    <n v="193"/>
+    <n v="112"/>
+    <n v="115"/>
     <n v="21.5"/>
     <n v="1046"/>
+    <n v="-30"/>
   </r>
   <r>
     <x v="2"/>
     <s v="AZ"/>
-    <x v="1"/>
+    <s v="West"/>
     <s v="Mountain"/>
     <n v="166784"/>
     <n v="108988"/>
     <n v="7908"/>
-    <n v="283680"/>
-    <n v="12974"/>
+    <n v="183462.40000000002"/>
+    <n v="119886.8"/>
+    <n v="15816"/>
+    <n v="319165.2"/>
     <n v="904147"/>
-    <n v="7"/>
-    <n v="14"/>
-    <n v="19298"/>
-    <n v="936440"/>
+    <n v="12995"/>
+    <n v="917142"/>
     <n v="17.8"/>
     <n v="541"/>
+    <n v="-39"/>
   </r>
   <r>
     <x v="3"/>
     <s v="AR"/>
-    <x v="0"/>
+    <s v="South"/>
     <s v="West South Central"/>
     <n v="80244"/>
     <n v="82120"/>
     <n v="4400"/>
-    <n v="166764"/>
-    <n v="2978"/>
+    <n v="88268.400000000009"/>
+    <n v="90332.000000000015"/>
+    <n v="8800"/>
+    <n v="187400.40000000002"/>
     <n v="13456"/>
-    <n v="347"/>
-    <n v="0"/>
-    <n v="4316"/>
-    <n v="21097"/>
+    <n v="3325"/>
+    <n v="16781"/>
     <n v="15.2"/>
     <n v="1094"/>
+    <n v="-24"/>
   </r>
   <r>
     <x v="4"/>
     <s v="CA"/>
-    <x v="1"/>
+    <s v="West"/>
     <s v="Pacific"/>
     <n v="560355"/>
     <n v="554550"/>
     <n v="0"/>
-    <n v="1114905"/>
+    <n v="616390.5"/>
+    <n v="610005"/>
+    <n v="0"/>
+    <n v="1226395.5"/>
+    <n v="54242"/>
     <n v="17742"/>
-    <n v="54242"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="18149"/>
-    <n v="90133"/>
+    <n v="71984"/>
     <n v="7.9"/>
     <n v="3184"/>
+    <n v="76"/>
   </r>
   <r>
     <x v="5"/>
     <s v="CO"/>
-    <x v="1"/>
+    <s v="West"/>
     <s v="Mountain"/>
     <n v="242502"/>
     <n v="180026"/>
     <n v="14293"/>
-    <n v="436821"/>
+    <n v="266752.2"/>
+    <n v="198028.6"/>
+    <n v="28586"/>
+    <n v="493366.80000000005"/>
+    <n v="109"/>
     <n v="878"/>
-    <n v="109"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="660"/>
-    <n v="1647"/>
+    <n v="987"/>
     <n v="14.3"/>
     <n v="812"/>
+    <n v="22"/>
   </r>
   <r>
     <x v="6"/>
     <s v="CT"/>
-    <x v="2"/>
+    <s v="Northeast"/>
     <s v="New England"/>
     <n v="122375"/>
     <n v="43813"/>
     <n v="0"/>
-    <n v="166188"/>
-    <n v="187224"/>
+    <n v="134612.5"/>
+    <n v="48194.3"/>
+    <n v="0"/>
+    <n v="182806.8"/>
     <n v="77246"/>
-    <n v="9756"/>
-    <n v="45094"/>
-    <n v="178"/>
-    <n v="319498"/>
+    <n v="242074"/>
+    <n v="319320"/>
     <n v="4.5999999999999996"/>
     <n v="172"/>
+    <n v="73"/>
   </r>
   <r>
     <x v="7"/>
     <s v="DE"/>
-    <x v="0"/>
+    <s v="South"/>
     <s v="South Atlantic"/>
     <n v="25574"/>
     <n v="21746"/>
     <n v="1034"/>
-    <n v="48354"/>
+    <n v="28131.4"/>
+    <n v="23920.600000000002"/>
+    <n v="2068"/>
+    <n v="54120"/>
+    <n v="0"/>
     <n v="48"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
     <n v="48"/>
     <n v="11"/>
     <n v="111"/>
+    <n v="41"/>
   </r>
   <r>
     <x v="8"/>
     <s v="FL"/>
-    <x v="0"/>
+    <s v="South"/>
     <s v="South Atlantic"/>
     <n v="662308"/>
     <n v="316232"/>
     <n v="25142"/>
-    <n v="1003682"/>
-    <n v="49257"/>
+    <n v="728538.8"/>
+    <n v="347855.2"/>
+    <n v="50284"/>
+    <n v="1126678"/>
     <n v="344806"/>
-    <n v="29342"/>
-    <n v="199912"/>
-    <n v="99046"/>
-    <n v="722363"/>
+    <n v="278511"/>
+    <n v="623317"/>
     <n v="12.6"/>
     <n v="2704"/>
+    <n v="-20.5"/>
   </r>
   <r>
     <x v="9"/>
     <s v="GA"/>
-    <x v="0"/>
+    <s v="South"/>
     <s v="South Atlantic"/>
     <n v="194800"/>
     <n v="128277"/>
     <n v="7478"/>
-    <n v="330555"/>
-    <n v="3928"/>
+    <n v="214280.00000000003"/>
+    <n v="141104.70000000001"/>
+    <n v="14956"/>
+    <n v="370340.70000000007"/>
     <n v="379516"/>
-    <n v="14"/>
-    <n v="16"/>
-    <n v="1070"/>
-    <n v="384544"/>
+    <n v="3958"/>
+    <n v="383474"/>
     <n v="15"/>
     <n v="1571"/>
+    <n v="-18"/>
   </r>
   <r>
     <x v="10"/>
     <s v="HI"/>
-    <x v="1"/>
+    <s v="West"/>
     <s v="Pacific"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="42"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="42"/>
+    <n v="42"/>
     <n v="4.5"/>
     <n v="66"/>
+    <n v="62"/>
   </r>
   <r>
     <x v="11"/>
     <s v="ID"/>
-    <x v="1"/>
+    <s v="West"/>
     <s v="Mountain"/>
     <n v="46523"/>
     <n v="55591"/>
     <n v="2406"/>
-    <n v="104520"/>
-    <n v="11375"/>
+    <n v="51175.3"/>
+    <n v="61150.100000000006"/>
+    <n v="4812"/>
+    <n v="117137.40000000001"/>
     <n v="1147"/>
-    <n v="716"/>
-    <n v="0"/>
-    <n v="9975"/>
-    <n v="23213"/>
+    <n v="12091"/>
+    <n v="13238"/>
     <n v="11.7"/>
     <n v="1490"/>
+    <n v="-19"/>
   </r>
   <r>
     <x v="12"/>
     <s v="IL"/>
-    <x v="3"/>
+    <s v="Midwest"/>
     <s v="East North Central"/>
     <n v="352411"/>
     <n v="177255"/>
     <n v="12133"/>
-    <n v="541799"/>
-    <n v="119578"/>
+    <n v="387652.10000000003"/>
+    <n v="194980.50000000003"/>
+    <n v="24266"/>
+    <n v="606898.60000000009"/>
     <n v="79966"/>
-    <n v="2927"/>
-    <n v="1"/>
-    <n v="3818"/>
-    <n v="206290"/>
+    <n v="122506"/>
+    <n v="202472"/>
     <n v="15"/>
     <n v="997"/>
+    <n v="40.5"/>
   </r>
   <r>
     <x v="13"/>
     <s v="IN"/>
-    <x v="3"/>
+    <s v="Midwest"/>
     <s v="East North Central"/>
     <n v="278182"/>
     <n v="177218"/>
     <n v="9082"/>
-    <n v="464482"/>
-    <n v="2225"/>
+    <n v="306000.2"/>
+    <n v="194939.80000000002"/>
+    <n v="18164"/>
+    <n v="519104"/>
     <n v="378"/>
-    <n v="501"/>
-    <n v="0"/>
-    <n v="2639"/>
-    <n v="5743"/>
+    <n v="2726"/>
+    <n v="3104"/>
     <n v="9.1999999999999993"/>
     <n v="288"/>
+    <n v="-14.5"/>
   </r>
   <r>
     <x v="14"/>
     <s v="IA"/>
-    <x v="3"/>
+    <s v="Midwest"/>
     <s v="West North Central"/>
     <n v="2790"/>
     <n v="35254"/>
     <n v="70"/>
-    <n v="38114"/>
-    <n v="2222"/>
+    <n v="3069.0000000000005"/>
+    <n v="38779.4"/>
+    <n v="140"/>
+    <n v="41988.4"/>
     <n v="4107"/>
-    <n v="21"/>
-    <n v="5"/>
-    <n v="1486"/>
-    <n v="7841"/>
+    <n v="2248"/>
+    <n v="6355"/>
     <n v="14.6"/>
     <n v="242"/>
+    <n v="8"/>
   </r>
   <r>
     <x v="15"/>
     <s v="KS"/>
-    <x v="3"/>
+    <s v="Midwest"/>
     <s v="West North Central"/>
     <n v="81116"/>
     <n v="73748"/>
     <n v="4271"/>
-    <n v="159135"/>
-    <n v="270"/>
+    <n v="89227.6"/>
+    <n v="81122.8"/>
+    <n v="8542"/>
+    <n v="178892.40000000002"/>
     <n v="145"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="3500"/>
-    <n v="3916"/>
+    <n v="271"/>
+    <n v="416"/>
     <n v="13.4"/>
     <n v="383"/>
+    <n v="-12"/>
   </r>
   <r>
     <x v="16"/>
     <s v="KY"/>
-    <x v="0"/>
+    <s v="South"/>
     <s v="East South Central"/>
     <n v="140721"/>
     <n v="109030"/>
     <n v="6943"/>
-    <n v="256694"/>
-    <n v="454881"/>
+    <n v="154793.1"/>
+    <n v="119933.00000000001"/>
+    <n v="13886"/>
+    <n v="288612.10000000003"/>
     <n v="3748"/>
-    <n v="0"/>
-    <n v="10"/>
-    <n v="1542"/>
-    <n v="460181"/>
+    <n v="454891"/>
+    <n v="458639"/>
     <n v="17.5"/>
     <n v="772"/>
+    <n v="-22"/>
   </r>
   <r>
     <x v="17"/>
     <s v="LA"/>
-    <x v="0"/>
+    <s v="South"/>
     <s v="West South Central"/>
     <n v="171588"/>
     <n v="139122"/>
     <n v="8609"/>
-    <n v="319319"/>
-    <n v="251"/>
+    <n v="188746.80000000002"/>
+    <n v="153034.20000000001"/>
+    <n v="17218"/>
+    <n v="358999"/>
     <n v="19"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="39"/>
-    <n v="311"/>
+    <n v="253"/>
+    <n v="272"/>
     <n v="21.3"/>
     <n v="987"/>
+    <n v="-27"/>
   </r>
   <r>
     <x v="18"/>
     <s v="ME"/>
-    <x v="2"/>
+    <s v="Northeast"/>
     <s v="New England"/>
     <n v="48845"/>
     <n v="46780"/>
     <n v="2458"/>
-    <n v="98083"/>
+    <n v="53729.500000000007"/>
+    <n v="51458.000000000007"/>
+    <n v="4916"/>
+    <n v="110103.50000000001"/>
+    <n v="442"/>
     <n v="64818"/>
-    <n v="442"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="14"/>
-    <n v="65274"/>
+    <n v="65260"/>
     <n v="3.4"/>
     <n v="242"/>
+    <n v="-20"/>
   </r>
   <r>
     <x v="19"/>
     <s v="MD"/>
-    <x v="0"/>
+    <s v="South"/>
     <s v="South Atlantic"/>
     <n v="52305"/>
     <n v="71892"/>
     <n v="337"/>
-    <n v="124534"/>
-    <n v="25156"/>
+    <n v="57535.500000000007"/>
+    <n v="79081.200000000012"/>
+    <n v="674"/>
+    <n v="137290.70000000001"/>
     <n v="43157"/>
-    <n v="28098"/>
-    <n v="0"/>
-    <n v="1456"/>
-    <n v="97867"/>
+    <n v="53254"/>
+    <n v="96411"/>
     <n v="11.9"/>
     <n v="707"/>
+    <n v="56"/>
   </r>
   <r>
     <x v="20"/>
     <s v="MA"/>
-    <x v="2"/>
+    <s v="Northeast"/>
     <s v="New England"/>
     <n v="75977"/>
     <n v="41931"/>
     <n v="2480"/>
-    <n v="120388"/>
-    <n v="726077"/>
+    <n v="83574.700000000012"/>
+    <n v="46124.100000000006"/>
+    <n v="4960"/>
+    <n v="134658.80000000002"/>
     <n v="1471896"/>
-    <n v="16239"/>
-    <n v="294680"/>
-    <n v="125148"/>
-    <n v="2634040"/>
+    <n v="1036996"/>
+    <n v="2508892"/>
     <n v="8.3000000000000007"/>
     <n v="123"/>
+    <n v="70"/>
   </r>
   <r>
     <x v="21"/>
     <s v="MI"/>
-    <x v="3"/>
+    <s v="Midwest"/>
     <s v="East North Central"/>
     <n v="164878"/>
     <n v="129089"/>
     <n v="2815"/>
-    <n v="296782"/>
+    <n v="181365.80000000002"/>
+    <n v="141997.90000000002"/>
+    <n v="5630"/>
+    <n v="328993.70000000007"/>
+    <n v="29"/>
     <n v="679"/>
-    <n v="29"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1903"/>
-    <n v="2611"/>
+    <n v="708"/>
     <n v="12.3"/>
     <n v="1230"/>
+    <n v="3"/>
   </r>
   <r>
     <x v="22"/>
     <s v="MN"/>
-    <x v="3"/>
+    <s v="Midwest"/>
     <s v="West North Central"/>
     <n v="133962"/>
     <n v="143543"/>
     <n v="5046"/>
-    <n v="282551"/>
-    <n v="4605"/>
+    <n v="147358.20000000001"/>
+    <n v="157897.30000000002"/>
+    <n v="10092"/>
+    <n v="315347.5"/>
     <n v="18849"/>
-    <n v="0"/>
-    <n v="1072"/>
-    <n v="18243"/>
-    <n v="42769"/>
+    <n v="5677"/>
+    <n v="24526"/>
     <n v="7.6"/>
     <n v="432"/>
+    <n v="12.5"/>
   </r>
   <r>
     <x v="23"/>
     <s v="MS"/>
-    <x v="0"/>
+    <s v="South"/>
     <s v="East South Central"/>
     <n v="119050"/>
     <n v="92822"/>
     <n v="5263"/>
-    <n v="217135"/>
-    <n v="877"/>
+    <n v="130955.00000000001"/>
+    <n v="102104.20000000001"/>
+    <n v="10526"/>
+    <n v="243585.2"/>
     <n v="64"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="629"/>
-    <n v="1575"/>
+    <n v="882"/>
+    <n v="946"/>
     <n v="19"/>
     <n v="1144"/>
+    <n v="-19.5"/>
   </r>
   <r>
     <x v="24"/>
     <s v="MO"/>
-    <x v="3"/>
+    <s v="Midwest"/>
     <s v="West North Central"/>
     <n v="274754"/>
     <n v="202708"/>
     <n v="12753"/>
-    <n v="490215"/>
-    <n v="11732"/>
+    <n v="302229.40000000002"/>
+    <n v="222978.80000000002"/>
+    <n v="25506"/>
+    <n v="550714.20000000007"/>
     <n v="2837"/>
-    <n v="3023"/>
-    <n v="0"/>
-    <n v="21591"/>
-    <n v="39183"/>
+    <n v="14755"/>
+    <n v="17592"/>
     <n v="19.899999999999999"/>
     <n v="587"/>
+    <n v="-9"/>
   </r>
   <r>
     <x v="25"/>
     <s v="MT"/>
-    <x v="1"/>
+    <s v="West"/>
     <s v="Mountain"/>
     <n v="37547"/>
     <n v="56834"/>
     <n v="2678"/>
-    <n v="97059"/>
+    <n v="41301.700000000004"/>
+    <n v="62517.4"/>
+    <n v="5356"/>
+    <n v="109175.1"/>
+    <n v="3"/>
     <n v="18632"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2206"/>
-    <n v="20841"/>
+    <n v="18635"/>
     <n v="18.899999999999999"/>
     <n v="194"/>
+    <n v="-25"/>
   </r>
   <r>
     <x v="26"/>
     <s v="NE"/>
-    <x v="3"/>
+    <s v="Midwest"/>
     <s v="West North Central"/>
     <n v="1717"/>
     <n v="26494"/>
     <n v="82"/>
-    <n v="28293"/>
-    <n v="107"/>
+    <n v="1888.7"/>
+    <n v="29143.4"/>
+    <n v="164"/>
+    <n v="31196.100000000002"/>
     <n v="59"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="378"/>
-    <n v="547"/>
+    <n v="110"/>
+    <n v="169"/>
     <n v="9.3000000000000007"/>
     <n v="132"/>
+    <n v="3"/>
   </r>
   <r>
     <x v="27"/>
     <s v="NV"/>
-    <x v="1"/>
+    <s v="West"/>
     <s v="Mountain"/>
     <n v="66158"/>
     <n v="38105"/>
     <n v="3723"/>
-    <n v="107986"/>
-    <n v="1787"/>
+    <n v="72773.8"/>
+    <n v="41915.5"/>
+    <n v="7446"/>
+    <n v="122135.3"/>
     <n v="37138"/>
-    <n v="80"/>
-    <n v="17"/>
-    <n v="28730"/>
-    <n v="67752"/>
+    <n v="1884"/>
+    <n v="39022"/>
     <n v="13.7"/>
     <n v="1409"/>
+    <n v="-20.5"/>
   </r>
   <r>
     <x v="28"/>
     <s v="NH"/>
-    <x v="2"/>
+    <s v="Northeast"/>
     <s v="New England"/>
     <n v="68529"/>
     <n v="44681"/>
     <n v="55"/>
-    <n v="113265"/>
-    <n v="550719"/>
+    <n v="75381.900000000009"/>
+    <n v="49149.100000000006"/>
+    <n v="110"/>
+    <n v="124641.00000000001"/>
     <n v="602392"/>
-    <n v="179"/>
-    <n v="248470"/>
-    <n v="92043"/>
-    <n v="1493803"/>
+    <n v="799368"/>
+    <n v="1401760"/>
     <n v="5.5"/>
     <n v="485"/>
+    <n v="-7"/>
   </r>
   <r>
     <x v="29"/>
     <s v="NJ"/>
-    <x v="2"/>
+    <s v="Northeast"/>
     <s v="Middle Atlantic"/>
     <n v="70249"/>
     <n v="49099"/>
     <n v="0"/>
-    <n v="119348"/>
+    <n v="77273.900000000009"/>
+    <n v="54008.9"/>
+    <n v="0"/>
+    <n v="131282.80000000002"/>
+    <n v="1"/>
     <n v="258568"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="37"/>
-    <n v="258606"/>
+    <n v="258569"/>
     <n v="18.100000000000001"/>
     <n v="383"/>
+    <n v="69"/>
   </r>
   <r>
     <x v="30"/>
     <s v="NM"/>
-    <x v="1"/>
+    <s v="West"/>
     <s v="Mountain"/>
     <n v="69434"/>
     <n v="55664"/>
     <n v="3732"/>
-    <n v="128830"/>
+    <n v="76377.400000000009"/>
+    <n v="61230.400000000001"/>
+    <n v="7464"/>
+    <n v="145071.80000000002"/>
+    <n v="16"/>
     <n v="183"/>
-    <n v="16"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="200"/>
+    <n v="199"/>
     <n v="4.4000000000000004"/>
     <n v="900"/>
+    <n v="-19"/>
   </r>
   <r>
     <x v="31"/>
     <s v="NY"/>
-    <x v="2"/>
+    <s v="Northeast"/>
     <s v="Middle Atlantic"/>
     <n v="133285"/>
     <n v="197670"/>
     <n v="2466"/>
-    <n v="333421"/>
-    <n v="309229"/>
+    <n v="146613.5"/>
+    <n v="217437.00000000003"/>
+    <n v="4932"/>
+    <n v="368982.5"/>
     <n v="230843"/>
-    <n v="339508"/>
-    <n v="3340"/>
-    <n v="5204"/>
-    <n v="888124"/>
+    <n v="652077"/>
+    <n v="882920"/>
     <n v="11.9"/>
     <n v="90"/>
+    <n v="65.5"/>
   </r>
   <r>
     <x v="32"/>
     <s v="NC"/>
-    <x v="0"/>
+    <s v="South"/>
     <s v="South Atlantic"/>
     <n v="16595"/>
     <n v="176919"/>
     <n v="2812"/>
-    <n v="196326"/>
+    <n v="18254.5"/>
+    <n v="194610.90000000002"/>
+    <n v="5624"/>
+    <n v="218489.40000000002"/>
+    <n v="108395"/>
     <n v="292210"/>
-    <n v="108395"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="26919"/>
-    <n v="427524"/>
+    <n v="400605"/>
     <n v="9.1"/>
     <n v="171"/>
+    <n v="-2.5"/>
   </r>
   <r>
     <x v="33"/>
     <s v="ND"/>
-    <x v="3"/>
+    <s v="Midwest"/>
     <s v="West North Central"/>
     <n v="19975"/>
     <n v="34013"/>
     <n v="972"/>
-    <n v="54960"/>
+    <n v="21972.5"/>
+    <n v="37414.300000000003"/>
+    <n v="1944"/>
+    <n v="61330.8"/>
+    <n v="9"/>
     <n v="185"/>
-    <n v="9"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="120"/>
-    <n v="314"/>
+    <n v="194"/>
     <n v="16.8"/>
     <n v="498"/>
+    <n v="-3"/>
   </r>
   <r>
     <x v="34"/>
     <s v="OH"/>
-    <x v="3"/>
+    <s v="Midwest"/>
     <s v="East North Central"/>
     <n v="394570"/>
     <n v="243963"/>
     <n v="16333"/>
-    <n v="654866"/>
-    <n v="71484"/>
+    <n v="434027.00000000006"/>
+    <n v="268359.30000000005"/>
+    <n v="32666"/>
+    <n v="735052.3"/>
     <n v="147579"/>
-    <n v="1530"/>
-    <n v="0"/>
-    <n v="10695"/>
-    <n v="231288"/>
+    <n v="73014"/>
+    <n v="220593"/>
     <n v="12.9"/>
     <n v="1524"/>
+    <n v="-5"/>
   </r>
   <r>
     <x v="35"/>
     <s v="OK"/>
-    <x v="3"/>
+    <s v="Midwest"/>
     <s v="West South Central"/>
     <n v="166181"/>
     <n v="130514"/>
     <n v="10661"/>
-    <n v="307356"/>
-    <n v="1235"/>
+    <n v="182799.1"/>
+    <n v="143565.40000000002"/>
+    <n v="21322"/>
+    <n v="347686.5"/>
     <n v="78"/>
-    <n v="10"/>
-    <n v="0"/>
-    <n v="1868"/>
-    <n v="3191"/>
+    <n v="1245"/>
+    <n v="1323"/>
     <n v="19.600000000000001"/>
     <n v="766"/>
+    <n v="-17"/>
   </r>
   <r>
     <x v="36"/>
     <s v="OR"/>
-    <x v="1"/>
+    <s v="West"/>
     <s v="Pacific"/>
     <n v="178716"/>
     <n v="143029"/>
     <n v="0"/>
-    <n v="321745"/>
-    <n v="8788"/>
+    <n v="196587.6"/>
+    <n v="157331.90000000002"/>
+    <n v="0"/>
+    <n v="353919.5"/>
     <n v="501"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="1877"/>
-    <n v="11168"/>
+    <n v="8790"/>
+    <n v="9291"/>
     <n v="11.9"/>
     <n v="513"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="37"/>
     <s v="PA"/>
-    <x v="2"/>
+    <s v="Northeast"/>
     <s v="Middle Atlantic"/>
     <n v="642232"/>
     <n v="158141"/>
     <n v="0"/>
-    <n v="800373"/>
-    <n v="83688"/>
+    <n v="706455.20000000007"/>
+    <n v="173955.1"/>
+    <m/>
+    <n v="880410.3"/>
     <n v="1152"/>
-    <n v="16"/>
-    <n v="0"/>
-    <n v="733"/>
-    <n v="85589"/>
+    <n v="83704"/>
+    <n v="84856"/>
     <n v="12"/>
     <n v="1555"/>
+    <n v="23"/>
   </r>
   <r>
     <x v="38"/>
     <s v="PR"/>
-    <x v="4"/>
+    <s v="Territory"/>
     <s v="Territory"/>
     <n v="12779"/>
     <n v="2416"/>
     <n v="275"/>
-    <n v="15470"/>
-    <n v="12"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="14056.900000000001"/>
+    <n v="2657.6000000000004"/>
+    <n v="550"/>
+    <n v="17264.5"/>
     <n v="0"/>
     <n v="12"/>
+    <n v="12"/>
+    <m/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="39"/>
     <s v="RI"/>
-    <x v="2"/>
+    <s v="Northeast"/>
     <s v="New England"/>
     <n v="14262"/>
     <n v="10204"/>
     <n v="1999"/>
-    <n v="26465"/>
+    <n v="15688.2"/>
+    <n v="11224.400000000001"/>
+    <n v="3998"/>
+    <n v="30910.600000000002"/>
+    <n v="1257"/>
     <n v="301"/>
-    <n v="1257"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
     <n v="1558"/>
     <n v="4.0999999999999996"/>
     <n v="49"/>
+    <n v="55"/>
   </r>
   <r>
     <x v="40"/>
     <s v="SC"/>
-    <x v="0"/>
+    <s v="South"/>
     <s v="South Atlantic"/>
     <n v="132473"/>
     <n v="87413"/>
     <n v="4490"/>
-    <n v="224376"/>
-    <n v="119335"/>
+    <n v="145720.30000000002"/>
+    <n v="96154.3"/>
+    <n v="8980"/>
+    <n v="250854.60000000003"/>
     <n v="6057"/>
-    <n v="2017"/>
-    <n v="0"/>
-    <n v="137890"/>
-    <n v="265299"/>
+    <n v="121352"/>
+    <n v="127409"/>
     <n v="17.7"/>
     <n v="891"/>
+    <n v="-16"/>
   </r>
   <r>
     <x v="41"/>
     <s v="SD"/>
-    <x v="3"/>
+    <s v="Midwest"/>
     <s v="West North Central"/>
     <n v="36520"/>
     <n v="49522"/>
     <n v="2184"/>
-    <n v="88226"/>
+    <n v="40172"/>
+    <n v="54474.200000000004"/>
+    <n v="4368"/>
+    <n v="99014.200000000012"/>
+    <n v="9"/>
     <n v="185150"/>
-    <n v="9"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="98"/>
-    <n v="185257"/>
+    <n v="185159"/>
     <n v="13.4"/>
     <n v="108"/>
+    <n v="-9"/>
   </r>
   <r>
     <x v="42"/>
     <s v="TN"/>
-    <x v="0"/>
+    <s v="South"/>
     <s v="East South Central"/>
     <n v="319169"/>
     <n v="210161"/>
     <n v="11092"/>
-    <n v="540422"/>
-    <n v="7943"/>
+    <n v="351085.9"/>
+    <n v="231177.1"/>
+    <n v="22184"/>
+    <n v="604447"/>
     <n v="1439"/>
-    <n v="10"/>
-    <n v="42"/>
-    <n v="17857"/>
-    <n v="27291"/>
+    <n v="7995"/>
+    <n v="9434"/>
     <n v="17.100000000000001"/>
     <n v="1148"/>
+    <n v="-11"/>
   </r>
   <r>
     <x v="43"/>
     <s v="TX"/>
-    <x v="0"/>
+    <s v="South"/>
     <s v="West South Central"/>
     <n v="637476"/>
     <n v="481609"/>
     <n v="33102"/>
-    <n v="1152187"/>
-    <n v="180795"/>
+    <n v="701223.60000000009"/>
+    <n v="529769.9"/>
+    <n v="66204"/>
+    <n v="1297197.5"/>
     <n v="31071"/>
-    <n v="367550"/>
-    <n v="2"/>
-    <n v="6947"/>
-    <n v="586365"/>
+    <n v="548347"/>
+    <n v="579418"/>
     <n v="12.1"/>
     <n v="3353"/>
+    <n v="-3"/>
   </r>
   <r>
     <x v="44"/>
     <s v="UT"/>
-    <x v="1"/>
+    <s v="West"/>
     <s v="Mountain"/>
     <n v="47401"/>
     <n v="54133"/>
     <n v="1191"/>
-    <n v="102725"/>
-    <n v="7931"/>
+    <n v="52141.100000000006"/>
+    <n v="59546.3"/>
+    <n v="2382"/>
+    <n v="114069.40000000001"/>
     <n v="57396"/>
-    <n v="0"/>
-    <n v="63084"/>
-    <n v="20765"/>
-    <n v="149176"/>
+    <n v="71015"/>
+    <n v="128411"/>
     <n v="12.9"/>
     <n v="370"/>
+    <n v="-8.5"/>
   </r>
   <r>
     <x v="45"/>
     <s v="VT"/>
-    <x v="2"/>
+    <s v="Northeast"/>
     <s v="New England"/>
     <n v="18320"/>
     <n v="18853"/>
     <n v="885"/>
-    <n v="38058"/>
+    <n v="20152"/>
+    <n v="20738.300000000003"/>
+    <n v="1770"/>
+    <n v="42660.3"/>
+    <n v="3435"/>
     <n v="90140"/>
-    <n v="3435"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="54235"/>
-    <n v="147810"/>
+    <n v="93575"/>
     <n v="12.1"/>
     <n v="1049"/>
+    <n v="-17"/>
   </r>
   <r>
     <x v="46"/>
     <s v="VA"/>
-    <x v="0"/>
+    <s v="South"/>
     <s v="South Atlantic"/>
     <n v="295963"/>
     <n v="209975"/>
     <n v="0"/>
-    <n v="505938"/>
-    <n v="6925"/>
+    <n v="325559.30000000005"/>
+    <n v="230972.50000000003"/>
+    <n v="0"/>
+    <n v="556531.80000000005"/>
     <n v="5294"/>
-    <n v="1"/>
-    <n v="5"/>
-    <n v="1774"/>
-    <n v="13999"/>
+    <n v="6931"/>
+    <n v="12225"/>
     <n v="11.1"/>
     <n v="78"/>
+    <n v="-22.5"/>
   </r>
   <r>
     <x v="47"/>
     <s v="WA"/>
-    <x v="1"/>
+    <s v="West"/>
     <s v="Pacific"/>
     <n v="214106"/>
     <n v="151029"/>
     <n v="8028"/>
-    <n v="373163"/>
-    <n v="16252"/>
+    <n v="235516.6"/>
+    <n v="166131.90000000002"/>
+    <n v="16056"/>
+    <n v="417704.5"/>
     <n v="310"/>
-    <n v="18"/>
-    <n v="0"/>
-    <n v="86312"/>
-    <n v="102892"/>
+    <n v="16270"/>
+    <n v="16580"/>
     <n v="9"/>
     <n v="686"/>
+    <n v="33"/>
   </r>
   <r>
     <x v="48"/>
     <s v="WV"/>
-    <x v="0"/>
+    <s v="South"/>
     <s v="South Atlantic"/>
     <n v="92124"/>
     <n v="81105"/>
     <n v="5283"/>
-    <n v="178512"/>
-    <n v="712"/>
+    <n v="101336.40000000001"/>
+    <n v="89215.5"/>
+    <n v="10566"/>
+    <n v="201117.90000000002"/>
     <n v="29"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1185"/>
-    <n v="1927"/>
+    <n v="713"/>
+    <n v="742"/>
     <n v="11.4"/>
     <n v="664"/>
+    <n v="-15"/>
   </r>
   <r>
     <x v="49"/>
     <s v="WI"/>
-    <x v="3"/>
+    <s v="Midwest"/>
     <s v="East North Central"/>
     <n v="186300"/>
     <n v="159784"/>
     <n v="523"/>
-    <n v="346607"/>
-    <n v="35177"/>
+    <n v="204930.00000000003"/>
+    <n v="175762.40000000002"/>
+    <n v="1046"/>
+    <n v="381738.4"/>
     <n v="374"/>
-    <n v="322"/>
-    <n v="0"/>
-    <n v="25"/>
-    <n v="35898"/>
+    <n v="35499"/>
+    <n v="35873"/>
     <n v="17.5"/>
     <n v="332"/>
+    <n v="6"/>
   </r>
   <r>
     <x v="50"/>
     <s v="WY"/>
-    <x v="1"/>
+    <s v="West"/>
     <s v="Mountain"/>
     <n v="22569"/>
     <n v="25815"/>
     <n v="1295"/>
-    <n v="49679"/>
-    <n v="1227"/>
+    <n v="24825.9"/>
+    <n v="28396.500000000004"/>
+    <n v="2590"/>
+    <n v="55812.400000000009"/>
     <n v="26"/>
-    <n v="9"/>
-    <n v="517"/>
-    <n v="18"/>
-    <n v="1797"/>
+    <n v="1753"/>
+    <n v="1779"/>
     <n v="17.399999999999999"/>
     <n v="101"/>
+    <n v="-28"/>
   </r>
   <r>
     <x v="51"/>
     <m/>
-    <x v="5"/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2085,10 +2136,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F2FC996-DEBF-40F1-8B96-D7626FC18A6D}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" showAll="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4467B34-D2A7-4729-9B5A-3E0C3680BBA2}" name="PivotTable4" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C56" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="53">
         <item x="0"/>
         <item x="1"/>
@@ -2144,20 +2195,16 @@
         <item x="51"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="3"/>
-        <item h="1" x="2"/>
-        <item h="1" sd="0" x="0"/>
-        <item h="1" sd="0" x="4"/>
-        <item h="1" sd="0" x="1"/>
-        <item h="1" sd="0" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2170,63 +2217,189 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
+  <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="53">
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
     <i>
       <x/>
     </i>
-    <i r="1">
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
       <x v="12"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
       <x v="13"/>
     </i>
-    <i r="1">
-      <x v="14"/>
+    <i>
+      <x v="50"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
       <x v="15"/>
     </i>
-    <i r="1">
-      <x v="21"/>
+    <i>
+      <x v="17"/>
     </i>
-    <i r="1">
-      <x v="22"/>
+    <i>
+      <x v="30"/>
     </i>
-    <i r="1">
-      <x v="24"/>
+    <i>
+      <x v="33"/>
     </i>
-    <i r="1">
+    <i>
       <x v="26"/>
     </i>
-    <i r="1">
-      <x v="33"/>
+    <i>
+      <x v="1"/>
     </i>
-    <i r="1">
-      <x v="34"/>
+    <i>
+      <x v="7"/>
     </i>
-    <i r="1">
-      <x v="35"/>
+    <i>
+      <x v="10"/>
     </i>
-    <i r="1">
-      <x v="41"/>
+    <i>
+      <x v="38"/>
     </i>
-    <i r="1">
-      <x v="49"/>
+    <i>
+      <x v="51"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Manufactured" fld="13" baseField="2" baseItem="0"/>
+  <dataFields count="2">
+    <dataField name="Sum of Total Manufactured" fld="13" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Total Estimated Gun Sales" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2540,7 +2713,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -5154,7 +5327,7 @@
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8120,145 +8293,608 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50736D91-FE88-40EE-AE9E-3E2CBAC447E5}">
-  <dimension ref="A3:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DC36FC-4EA4-461E-9211-6F46CF81F8C9}">
+  <dimension ref="A3:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="B4" s="5">
-        <v>764848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+        <v>2508892</v>
+      </c>
+      <c r="C4" s="5">
+        <v>134658.80000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1401760</v>
+      </c>
+      <c r="C5" s="5">
+        <v>124641.00000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="5">
+        <v>917142</v>
+      </c>
+      <c r="C6" s="5">
+        <v>319165.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="5">
+        <v>882920</v>
+      </c>
+      <c r="C7" s="5">
+        <v>368982.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="5">
+        <v>623317</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1126678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="5">
+        <v>579418</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1297197.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="5">
+        <v>458639</v>
+      </c>
+      <c r="C10" s="5">
+        <v>288612.10000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="5">
+        <v>421966</v>
+      </c>
+      <c r="C11" s="5">
+        <v>315684.60000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="5">
+        <v>400605</v>
+      </c>
+      <c r="C12" s="5">
+        <v>218489.40000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="5">
+        <v>383474</v>
+      </c>
+      <c r="C13" s="5">
+        <v>370340.70000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="5">
+        <v>319320</v>
+      </c>
+      <c r="C14" s="5">
+        <v>182806.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="5">
+        <v>258569</v>
+      </c>
+      <c r="C15" s="5">
+        <v>131282.80000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="5">
+        <v>220593</v>
+      </c>
+      <c r="C16" s="5">
+        <v>735052.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="5">
-        <v>206290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="B17" s="5">
+        <v>202472</v>
+      </c>
+      <c r="C17" s="5">
+        <v>606898.60000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="5">
+        <v>185159</v>
+      </c>
+      <c r="C18" s="5">
+        <v>99014.200000000012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="5">
+        <v>128411</v>
+      </c>
+      <c r="C19" s="5">
+        <v>114069.40000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="5">
+        <v>127409</v>
+      </c>
+      <c r="C20" s="5">
+        <v>250854.60000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="5">
+        <v>96411</v>
+      </c>
+      <c r="C21" s="5">
+        <v>137290.70000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="5">
+        <v>93575</v>
+      </c>
+      <c r="C22" s="5">
+        <v>42660.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="5">
+        <v>84856</v>
+      </c>
+      <c r="C23" s="5">
+        <v>880410.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="5">
+        <v>71984</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1226395.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="5">
+        <v>65260</v>
+      </c>
+      <c r="C25" s="5">
+        <v>110103.50000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="5">
+        <v>39022</v>
+      </c>
+      <c r="C26" s="5">
+        <v>122135.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="5">
+        <v>35873</v>
+      </c>
+      <c r="C27" s="5">
+        <v>381738.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="5">
+        <v>24526</v>
+      </c>
+      <c r="C28" s="5">
+        <v>315347.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="5">
+        <v>18635</v>
+      </c>
+      <c r="C29" s="5">
+        <v>109175.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="5">
+        <v>17592</v>
+      </c>
+      <c r="C30" s="5">
+        <v>550714.20000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="5">
+        <v>16781</v>
+      </c>
+      <c r="C31" s="5">
+        <v>187400.40000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="5">
+        <v>16580</v>
+      </c>
+      <c r="C32" s="5">
+        <v>417704.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="5">
+        <v>13238</v>
+      </c>
+      <c r="C33" s="5">
+        <v>117137.40000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="5">
+        <v>12225</v>
+      </c>
+      <c r="C34" s="5">
+        <v>556531.80000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="5">
+        <v>9434</v>
+      </c>
+      <c r="C35" s="5">
+        <v>604447</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="5">
+        <v>9291</v>
+      </c>
+      <c r="C36" s="5">
+        <v>353919.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="5">
+        <v>6355</v>
+      </c>
+      <c r="C37" s="5">
+        <v>41988.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="5">
-        <v>5743</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="5">
-        <v>7841</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="B38" s="5">
+        <v>3104</v>
+      </c>
+      <c r="C38" s="5">
+        <v>519104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1779</v>
+      </c>
+      <c r="C39" s="5">
+        <v>55812.400000000009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1558</v>
+      </c>
+      <c r="C40" s="5">
+        <v>30910.600000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1323</v>
+      </c>
+      <c r="C41" s="5">
+        <v>347686.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="5">
+        <v>987</v>
+      </c>
+      <c r="C42" s="5">
+        <v>493366.80000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="5">
+        <v>946</v>
+      </c>
+      <c r="C43" s="5">
+        <v>243585.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="5">
+        <v>742</v>
+      </c>
+      <c r="C44" s="5">
+        <v>201117.90000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="5">
+        <v>708</v>
+      </c>
+      <c r="C45" s="5">
+        <v>328993.70000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="5">
-        <v>3916</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="5">
-        <v>42769</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="5">
-        <v>39183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="B46" s="5">
+        <v>416</v>
+      </c>
+      <c r="C46" s="5">
+        <v>178892.40000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="5">
+        <v>272</v>
+      </c>
+      <c r="C47" s="5">
+        <v>358999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="5">
+        <v>199</v>
+      </c>
+      <c r="C48" s="5">
+        <v>145071.80000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="5">
+        <v>194</v>
+      </c>
+      <c r="C49" s="5">
+        <v>61330.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="5">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="5">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="5">
-        <v>231288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="5">
-        <v>3191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="5">
-        <v>185257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="5">
-        <v>35898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="B50" s="5">
+        <v>169</v>
+      </c>
+      <c r="C50" s="5">
+        <v>31196.100000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="5">
+        <v>115</v>
+      </c>
+      <c r="C51" s="5">
+        <v>86447.800000000017</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="5">
+        <v>48</v>
+      </c>
+      <c r="C52" s="5">
+        <v>54120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="5">
+        <v>42</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="5">
+        <v>12</v>
+      </c>
+      <c r="C54" s="5">
+        <v>17264.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="5">
-        <v>764848</v>
+      <c r="B56" s="5">
+        <v>10664318</v>
+      </c>
+      <c r="C56" s="5">
+        <v>15993427.800000008</v>
       </c>
     </row>
   </sheetData>
